--- a/packages/backend/src/ressources/modele_import_domifa.xlsx
+++ b/packages/backend/src/ressources/modele_import_domifa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/humans/Documents/www/beta/domifa/packages/backend/src/ressources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF52660-60D2-CA4F-A056-813611DFBFE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A211041-0B1E-3946-AFC7-5294B3440A50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="159">
   <si>
     <t>Civilité</t>
   </si>
@@ -720,7 +720,34 @@
     <t>03</t>
   </si>
   <si>
-    <t>29/09/2019</t>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Dubois</t>
+  </si>
+  <si>
+    <t>Marise</t>
+  </si>
+  <si>
+    <t>07/09/1990</t>
+  </si>
+  <si>
+    <t>Amiens</t>
+  </si>
+  <si>
+    <t>0101010101</t>
+  </si>
+  <si>
+    <t>12/12/1999</t>
+  </si>
+  <si>
+    <t>11/09/2020</t>
+  </si>
+  <si>
+    <t>22/02/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test </t>
   </si>
 </sst>
 </file>
@@ -2902,9 +2929,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q3" sqref="Q3"/>
+      <selection pane="bottomLeft" activeCell="AH5" sqref="AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -3135,7 +3162,7 @@
         <v>38</v>
       </c>
       <c r="Q2" s="21" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="R2" s="21" t="s">
         <v>94</v>
@@ -3413,27 +3440,59 @@
       <c r="AW4" s="26"/>
     </row>
     <row r="5" spans="1:49" ht="36.75" customHeight="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="A5" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>151</v>
+      </c>
       <c r="E5" s="22"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="21"/>
+      <c r="F5" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>154</v>
+      </c>
       <c r="I5" s="27"/>
-      <c r="J5" s="21"/>
+      <c r="J5" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
+      <c r="L5" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q5" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="R5" s="21" t="s">
+        <v>95</v>
+      </c>
       <c r="S5" s="22"/>
       <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
+      <c r="U5" s="21" t="s">
+        <v>95</v>
+      </c>
       <c r="V5" s="22"/>
       <c r="W5" s="22"/>
       <c r="X5" s="21"/>
@@ -3443,9 +3502,13 @@
       <c r="AB5" s="22"/>
       <c r="AC5" s="22"/>
       <c r="AD5" s="22"/>
-      <c r="AE5" s="21"/>
+      <c r="AE5" s="21" t="s">
+        <v>95</v>
+      </c>
       <c r="AF5" s="22"/>
-      <c r="AG5" s="22"/>
+      <c r="AG5" s="22" t="s">
+        <v>158</v>
+      </c>
       <c r="AH5" s="22"/>
       <c r="AI5" s="22"/>
       <c r="AJ5" s="22"/>

--- a/packages/backend/src/ressources/modele_import_domifa.xlsx
+++ b/packages/backend/src/ressources/modele_import_domifa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/humans/Documents/www/beta/domifa/packages/backend/src/ressources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A211041-0B1E-3946-AFC7-5294B3440A50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70FBACE-065F-174D-AA9D-8244AE0226ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -741,13 +741,13 @@
     <t>12/12/1999</t>
   </si>
   <si>
-    <t>11/09/2020</t>
-  </si>
-  <si>
     <t>22/02/2020</t>
   </si>
   <si>
     <t xml:space="preserve">Test </t>
+  </si>
+  <si>
+    <t>11/09/2018</t>
   </si>
 </sst>
 </file>
@@ -1065,7 +1065,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1168,11 +1168,61 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="57">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2094,46 +2144,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF3F3F3"/>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -2691,39 +2701,39 @@
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Date début dom actuelle" dataDxfId="35"/>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Date de fin de domiciliation_x000a_OU_x000a_Date de radiation si radié_x000a_OU _x000a_Date de refus si refusé" dataDxfId="34"/>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Date 1ere domiciliation" dataDxfId="33"/>
-    <tableColumn id="13" xr3:uid="{F3EC0B77-5925-4549-B090-3175E9AD69D3}" name="Date de dernier passage _x000a_(si vide, la date sera celle de l'import)" dataDxfId="32"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="La personne a-t-elle été orientée ?" dataDxfId="31"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Seulement si orientation _x000a_Par quelle structure/personne la personne a-t-elle été orientée ?" dataDxfId="30"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="La personne a-t-elle déjà une domiciliation ?" dataDxfId="29"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="La personne a-t-elle des revenus ?" dataDxfId="28"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Seulement si revenus_x000a_De quelle nature ?" dataDxfId="27"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Quel est le lien avec la commune ? _x000a_(Si CCAS ou CIAS)" dataDxfId="26"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Composition du ménage" dataDxfId="25"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Situation résidentielle" dataDxfId="24"/>
-    <tableColumn id="45" xr3:uid="{973BA99D-2099-8447-A5F6-C95462E9533B}" name="Si AUTRE situation résidentielle_x000a_précisions" dataDxfId="23"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Cause de l'instabilité_x000a_ du logement" dataDxfId="22"/>
-    <tableColumn id="46" xr3:uid="{CAFD5E43-FC29-714C-BEA8-B5320362468C}" name="Si AUTRE cause d'instabilité_x000a_précisions" dataDxfId="21"/>
-    <tableColumn id="48" xr3:uid="{8A6DC35C-929D-2341-AFBA-85F886983314}" name="Quel est le motif principal de demande de domiciliation ?" dataDxfId="20"/>
-    <tableColumn id="47" xr3:uid="{A55284FD-ADFF-1848-88BD-250C0B85E5E4}" name="Si AUTRE motif,_x000a_précisions" dataDxfId="19"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Accompagnement social" dataDxfId="18"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Seulement si accompagnement_x000a_Par quelle structure est fait l'accompagnement?" dataDxfId="17"/>
-    <tableColumn id="49" xr3:uid="{2432BDAC-54A8-974C-BD03-3795C92EFD8C}" name="Commentaires _x000a_(1000 caractères maximum)" dataDxfId="16"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Nom Ayant-Droit 1" dataDxfId="15"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Prénom Ayant-Droit 1" dataDxfId="14"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Date de Naissance Ayant-Droit 1" dataDxfId="13"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Lien de parenté Ayant-Droit 1" dataDxfId="12"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Nom Ayant-Droit 2" dataDxfId="11"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="Prénom Ayant-Droit 2" dataDxfId="10"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Date de Naissance Ayant-Droit 2" dataDxfId="9"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Lien de parenté Ayant-Droit 2" dataDxfId="8"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Nom Ayant-Droit 3" dataDxfId="7"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Prénom Ayant-Droit 3" dataDxfId="6"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Date de Naissance_x000a_Ayant-Droit 3" dataDxfId="5"/>
-    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="Lien de parenté_x000a_Ayant-Droit 3" dataDxfId="4"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Nom Ayant-Droit 4" dataDxfId="3"/>
-    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="Prénom Ayant-Droit 4" dataDxfId="2"/>
-    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="Date de Naissance Ayant-Droit 4" dataDxfId="1"/>
-    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="Lien de parenté Ayant-Droit 4" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{F3EC0B77-5925-4549-B090-3175E9AD69D3}" name="Date de dernier passage _x000a_(si vide, la date sera celle de l'import)" dataDxfId="0"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="La personne a-t-elle été orientée ?" dataDxfId="32"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Seulement si orientation _x000a_Par quelle structure/personne la personne a-t-elle été orientée ?" dataDxfId="31"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="La personne a-t-elle déjà une domiciliation ?" dataDxfId="30"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="La personne a-t-elle des revenus ?" dataDxfId="29"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Seulement si revenus_x000a_De quelle nature ?" dataDxfId="28"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Quel est le lien avec la commune ? _x000a_(Si CCAS ou CIAS)" dataDxfId="27"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Composition du ménage" dataDxfId="26"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Situation résidentielle" dataDxfId="25"/>
+    <tableColumn id="45" xr3:uid="{973BA99D-2099-8447-A5F6-C95462E9533B}" name="Si AUTRE situation résidentielle_x000a_précisions" dataDxfId="24"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Cause de l'instabilité_x000a_ du logement" dataDxfId="23"/>
+    <tableColumn id="46" xr3:uid="{CAFD5E43-FC29-714C-BEA8-B5320362468C}" name="Si AUTRE cause d'instabilité_x000a_précisions" dataDxfId="22"/>
+    <tableColumn id="48" xr3:uid="{8A6DC35C-929D-2341-AFBA-85F886983314}" name="Quel est le motif principal de demande de domiciliation ?" dataDxfId="21"/>
+    <tableColumn id="47" xr3:uid="{A55284FD-ADFF-1848-88BD-250C0B85E5E4}" name="Si AUTRE motif,_x000a_précisions" dataDxfId="20"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Accompagnement social" dataDxfId="19"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Seulement si accompagnement_x000a_Par quelle structure est fait l'accompagnement?" dataDxfId="18"/>
+    <tableColumn id="49" xr3:uid="{2432BDAC-54A8-974C-BD03-3795C92EFD8C}" name="Commentaires _x000a_(1000 caractères maximum)" dataDxfId="17"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Nom Ayant-Droit 1" dataDxfId="16"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Prénom Ayant-Droit 1" dataDxfId="15"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Date de Naissance Ayant-Droit 1" dataDxfId="14"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Lien de parenté Ayant-Droit 1" dataDxfId="13"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Nom Ayant-Droit 2" dataDxfId="12"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="Prénom Ayant-Droit 2" dataDxfId="11"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Date de Naissance Ayant-Droit 2" dataDxfId="10"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Lien de parenté Ayant-Droit 2" dataDxfId="9"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Nom Ayant-Droit 3" dataDxfId="8"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Prénom Ayant-Droit 3" dataDxfId="7"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Date de Naissance_x000a_Ayant-Droit 3" dataDxfId="6"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="Lien de parenté_x000a_Ayant-Droit 3" dataDxfId="5"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Nom Ayant-Droit 4" dataDxfId="4"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="Prénom Ayant-Droit 4" dataDxfId="3"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="Date de Naissance Ayant-Droit 4" dataDxfId="2"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="Lien de parenté Ayant-Droit 4" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="DOMICILIES-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2929,9 +2939,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH5" sqref="AH5"/>
+      <selection pane="bottomLeft" activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -2951,7 +2961,7 @@
     <col min="14" max="14" width="25.42578125" customWidth="1"/>
     <col min="15" max="15" width="35.5703125" customWidth="1"/>
     <col min="16" max="16" width="23.28515625" customWidth="1"/>
-    <col min="17" max="17" width="29" customWidth="1"/>
+    <col min="17" max="17" width="29" style="39" customWidth="1"/>
     <col min="18" max="18" width="24.7109375" customWidth="1"/>
     <col min="19" max="19" width="30" customWidth="1"/>
     <col min="20" max="20" width="26.5703125" style="13" customWidth="1"/>
@@ -3018,7 +3028,7 @@
       <c r="P1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="36" t="s">
         <v>130</v>
       </c>
       <c r="R1" s="16" t="s">
@@ -3161,8 +3171,8 @@
       <c r="P2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="21" t="s">
-        <v>156</v>
+      <c r="Q2" s="37" t="s">
+        <v>158</v>
       </c>
       <c r="R2" s="21" t="s">
         <v>94</v>
@@ -3278,7 +3288,7 @@
       <c r="P3" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="Q3" s="37" t="s">
         <v>116</v>
       </c>
       <c r="R3" s="21" t="s">
@@ -3385,7 +3395,7 @@
         <v>65</v>
       </c>
       <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
+      <c r="Q4" s="37"/>
       <c r="R4" s="21"/>
       <c r="S4" s="22"/>
       <c r="T4" s="21"/>
@@ -3482,8 +3492,8 @@
       <c r="P5" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="Q5" s="21" t="s">
-        <v>157</v>
+      <c r="Q5" s="37" t="s">
+        <v>156</v>
       </c>
       <c r="R5" s="21" t="s">
         <v>95</v>
@@ -3507,7 +3517,7 @@
       </c>
       <c r="AF5" s="22"/>
       <c r="AG5" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AH5" s="22"/>
       <c r="AI5" s="22"/>
@@ -3543,7 +3553,7 @@
       <c r="N6" s="21"/>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
+      <c r="Q6" s="37"/>
       <c r="R6" s="21"/>
       <c r="S6" s="22"/>
       <c r="T6" s="21"/>
@@ -3594,7 +3604,7 @@
       <c r="N7" s="21"/>
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
+      <c r="Q7" s="37"/>
       <c r="R7" s="21"/>
       <c r="S7" s="22"/>
       <c r="T7" s="21"/>
@@ -3645,7 +3655,7 @@
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
       <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
+      <c r="Q8" s="37"/>
       <c r="R8" s="21"/>
       <c r="S8" s="22"/>
       <c r="T8" s="21"/>
@@ -3696,7 +3706,7 @@
       <c r="N9" s="21"/>
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
+      <c r="Q9" s="37"/>
       <c r="R9" s="21"/>
       <c r="S9" s="22"/>
       <c r="T9" s="21"/>
@@ -3747,7 +3757,7 @@
       <c r="N10" s="21"/>
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
+      <c r="Q10" s="37"/>
       <c r="R10" s="21"/>
       <c r="S10" s="22"/>
       <c r="T10" s="21"/>
@@ -3798,7 +3808,7 @@
       <c r="N11" s="21"/>
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
+      <c r="Q11" s="37"/>
       <c r="R11" s="21"/>
       <c r="S11" s="22"/>
       <c r="T11" s="21"/>
@@ -3849,7 +3859,7 @@
       <c r="N12" s="21"/>
       <c r="O12" s="21"/>
       <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
+      <c r="Q12" s="37"/>
       <c r="R12" s="21"/>
       <c r="S12" s="22"/>
       <c r="T12" s="21"/>
@@ -3900,7 +3910,7 @@
       <c r="N13" s="21"/>
       <c r="O13" s="21"/>
       <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
+      <c r="Q13" s="37"/>
       <c r="R13" s="21"/>
       <c r="S13" s="22"/>
       <c r="T13" s="21"/>
@@ -3951,7 +3961,7 @@
       <c r="N14" s="21"/>
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
+      <c r="Q14" s="37"/>
       <c r="R14" s="21"/>
       <c r="S14" s="22"/>
       <c r="T14" s="21"/>
@@ -4002,7 +4012,7 @@
       <c r="N15" s="21"/>
       <c r="O15" s="21"/>
       <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
+      <c r="Q15" s="37"/>
       <c r="R15" s="21"/>
       <c r="S15" s="22"/>
       <c r="T15" s="21"/>
@@ -4053,7 +4063,7 @@
       <c r="N16" s="21"/>
       <c r="O16" s="21"/>
       <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
+      <c r="Q16" s="37"/>
       <c r="R16" s="21"/>
       <c r="S16" s="22"/>
       <c r="T16" s="21"/>
@@ -4104,7 +4114,7 @@
       <c r="N17" s="21"/>
       <c r="O17" s="21"/>
       <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
+      <c r="Q17" s="37"/>
       <c r="R17" s="21"/>
       <c r="S17" s="22"/>
       <c r="T17" s="21"/>
@@ -4155,7 +4165,7 @@
       <c r="N18" s="21"/>
       <c r="O18" s="21"/>
       <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
+      <c r="Q18" s="37"/>
       <c r="R18" s="21"/>
       <c r="S18" s="22"/>
       <c r="T18" s="21"/>
@@ -4206,7 +4216,7 @@
       <c r="N19" s="21"/>
       <c r="O19" s="21"/>
       <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
+      <c r="Q19" s="37"/>
       <c r="R19" s="21"/>
       <c r="S19" s="22"/>
       <c r="T19" s="21"/>
@@ -4257,7 +4267,7 @@
       <c r="N20" s="21"/>
       <c r="O20" s="21"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
+      <c r="Q20" s="37"/>
       <c r="R20" s="21"/>
       <c r="S20" s="22"/>
       <c r="T20" s="21"/>
@@ -4308,7 +4318,7 @@
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
+      <c r="Q21" s="37"/>
       <c r="R21" s="21"/>
       <c r="S21" s="22"/>
       <c r="T21" s="21"/>
@@ -4359,7 +4369,7 @@
       <c r="N22" s="21"/>
       <c r="O22" s="21"/>
       <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
+      <c r="Q22" s="37"/>
       <c r="R22" s="21"/>
       <c r="S22" s="22"/>
       <c r="T22" s="21"/>
@@ -4410,7 +4420,7 @@
       <c r="N23" s="21"/>
       <c r="O23" s="21"/>
       <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
+      <c r="Q23" s="37"/>
       <c r="R23" s="21"/>
       <c r="S23" s="22"/>
       <c r="T23" s="21"/>
@@ -4461,7 +4471,7 @@
       <c r="N24" s="21"/>
       <c r="O24" s="21"/>
       <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
+      <c r="Q24" s="37"/>
       <c r="R24" s="21"/>
       <c r="S24" s="22"/>
       <c r="T24" s="21"/>
@@ -4512,7 +4522,7 @@
       <c r="N25" s="21"/>
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
+      <c r="Q25" s="37"/>
       <c r="R25" s="21"/>
       <c r="S25" s="22"/>
       <c r="T25" s="21"/>
@@ -4563,7 +4573,7 @@
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
       <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
+      <c r="Q26" s="37"/>
       <c r="R26" s="21"/>
       <c r="S26" s="22"/>
       <c r="T26" s="21"/>
@@ -4614,7 +4624,7 @@
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
       <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
+      <c r="Q27" s="37"/>
       <c r="R27" s="21"/>
       <c r="S27" s="22"/>
       <c r="T27" s="21"/>
@@ -4665,7 +4675,7 @@
       <c r="N28" s="21"/>
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
+      <c r="Q28" s="37"/>
       <c r="R28" s="21"/>
       <c r="S28" s="22"/>
       <c r="T28" s="21"/>
@@ -4716,7 +4726,7 @@
       <c r="N29" s="21"/>
       <c r="O29" s="21"/>
       <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
+      <c r="Q29" s="37"/>
       <c r="R29" s="21"/>
       <c r="S29" s="22"/>
       <c r="T29" s="21"/>
@@ -4767,7 +4777,7 @@
       <c r="N30" s="21"/>
       <c r="O30" s="21"/>
       <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
+      <c r="Q30" s="37"/>
       <c r="R30" s="21"/>
       <c r="S30" s="22"/>
       <c r="T30" s="21"/>
@@ -4818,7 +4828,7 @@
       <c r="N31" s="21"/>
       <c r="O31" s="21"/>
       <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
+      <c r="Q31" s="37"/>
       <c r="R31" s="21"/>
       <c r="S31" s="22"/>
       <c r="T31" s="21"/>
@@ -4869,7 +4879,7 @@
       <c r="N32" s="21"/>
       <c r="O32" s="21"/>
       <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
+      <c r="Q32" s="37"/>
       <c r="R32" s="21"/>
       <c r="S32" s="22"/>
       <c r="T32" s="21"/>
@@ -4920,7 +4930,7 @@
       <c r="N33" s="21"/>
       <c r="O33" s="21"/>
       <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
+      <c r="Q33" s="37"/>
       <c r="R33" s="21"/>
       <c r="S33" s="22"/>
       <c r="T33" s="21"/>
@@ -4971,7 +4981,7 @@
       <c r="N34" s="21"/>
       <c r="O34" s="21"/>
       <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
+      <c r="Q34" s="37"/>
       <c r="R34" s="21"/>
       <c r="S34" s="22"/>
       <c r="T34" s="21"/>
@@ -5022,7 +5032,7 @@
       <c r="N35" s="21"/>
       <c r="O35" s="21"/>
       <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
+      <c r="Q35" s="37"/>
       <c r="R35" s="21"/>
       <c r="S35" s="22"/>
       <c r="T35" s="21"/>
@@ -5073,7 +5083,7 @@
       <c r="N36" s="21"/>
       <c r="O36" s="21"/>
       <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
+      <c r="Q36" s="37"/>
       <c r="R36" s="21"/>
       <c r="S36" s="22"/>
       <c r="T36" s="21"/>
@@ -5124,7 +5134,7 @@
       <c r="N37" s="21"/>
       <c r="O37" s="21"/>
       <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
+      <c r="Q37" s="37"/>
       <c r="R37" s="21"/>
       <c r="S37" s="22"/>
       <c r="T37" s="21"/>
@@ -5175,7 +5185,7 @@
       <c r="N38" s="21"/>
       <c r="O38" s="21"/>
       <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
+      <c r="Q38" s="37"/>
       <c r="R38" s="21"/>
       <c r="S38" s="22"/>
       <c r="T38" s="21"/>
@@ -5226,7 +5236,7 @@
       <c r="N39" s="21"/>
       <c r="O39" s="21"/>
       <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
+      <c r="Q39" s="37"/>
       <c r="R39" s="21"/>
       <c r="S39" s="22"/>
       <c r="T39" s="21"/>
@@ -5277,7 +5287,7 @@
       <c r="N40" s="21"/>
       <c r="O40" s="21"/>
       <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
+      <c r="Q40" s="37"/>
       <c r="R40" s="21"/>
       <c r="S40" s="22"/>
       <c r="T40" s="21"/>
@@ -5328,7 +5338,7 @@
       <c r="N41" s="21"/>
       <c r="O41" s="21"/>
       <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
+      <c r="Q41" s="37"/>
       <c r="R41" s="21"/>
       <c r="S41" s="22"/>
       <c r="T41" s="21"/>
@@ -5379,7 +5389,7 @@
       <c r="N42" s="21"/>
       <c r="O42" s="21"/>
       <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
+      <c r="Q42" s="37"/>
       <c r="R42" s="21"/>
       <c r="S42" s="22"/>
       <c r="T42" s="21"/>
@@ -5430,7 +5440,7 @@
       <c r="N43" s="21"/>
       <c r="O43" s="21"/>
       <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
+      <c r="Q43" s="37"/>
       <c r="R43" s="21"/>
       <c r="S43" s="22"/>
       <c r="T43" s="21"/>
@@ -5481,7 +5491,7 @@
       <c r="N44" s="21"/>
       <c r="O44" s="21"/>
       <c r="P44" s="21"/>
-      <c r="Q44" s="21"/>
+      <c r="Q44" s="37"/>
       <c r="R44" s="21"/>
       <c r="S44" s="22"/>
       <c r="T44" s="21"/>
@@ -5532,7 +5542,7 @@
       <c r="N45" s="21"/>
       <c r="O45" s="21"/>
       <c r="P45" s="21"/>
-      <c r="Q45" s="21"/>
+      <c r="Q45" s="37"/>
       <c r="R45" s="21"/>
       <c r="S45" s="22"/>
       <c r="T45" s="21"/>
@@ -5583,7 +5593,7 @@
       <c r="N46" s="21"/>
       <c r="O46" s="21"/>
       <c r="P46" s="21"/>
-      <c r="Q46" s="21"/>
+      <c r="Q46" s="37"/>
       <c r="R46" s="21"/>
       <c r="S46" s="22"/>
       <c r="T46" s="21"/>
@@ -5634,7 +5644,7 @@
       <c r="N47" s="21"/>
       <c r="O47" s="21"/>
       <c r="P47" s="21"/>
-      <c r="Q47" s="21"/>
+      <c r="Q47" s="37"/>
       <c r="R47" s="21"/>
       <c r="S47" s="22"/>
       <c r="T47" s="21"/>
@@ -5685,7 +5695,7 @@
       <c r="N48" s="21"/>
       <c r="O48" s="21"/>
       <c r="P48" s="21"/>
-      <c r="Q48" s="21"/>
+      <c r="Q48" s="37"/>
       <c r="R48" s="21"/>
       <c r="S48" s="22"/>
       <c r="T48" s="21"/>
@@ -5736,7 +5746,7 @@
       <c r="N49" s="21"/>
       <c r="O49" s="21"/>
       <c r="P49" s="21"/>
-      <c r="Q49" s="21"/>
+      <c r="Q49" s="37"/>
       <c r="R49" s="21"/>
       <c r="S49" s="22"/>
       <c r="T49" s="21"/>
@@ -5787,7 +5797,7 @@
       <c r="N50" s="21"/>
       <c r="O50" s="21"/>
       <c r="P50" s="21"/>
-      <c r="Q50" s="21"/>
+      <c r="Q50" s="37"/>
       <c r="R50" s="21"/>
       <c r="S50" s="22"/>
       <c r="T50" s="21"/>
@@ -5838,7 +5848,7 @@
       <c r="N51" s="21"/>
       <c r="O51" s="21"/>
       <c r="P51" s="21"/>
-      <c r="Q51" s="21"/>
+      <c r="Q51" s="37"/>
       <c r="R51" s="21"/>
       <c r="S51" s="22"/>
       <c r="T51" s="21"/>
@@ -5889,7 +5899,7 @@
       <c r="N52" s="21"/>
       <c r="O52" s="21"/>
       <c r="P52" s="21"/>
-      <c r="Q52" s="21"/>
+      <c r="Q52" s="37"/>
       <c r="R52" s="21"/>
       <c r="S52" s="22"/>
       <c r="T52" s="21"/>
@@ -5940,7 +5950,7 @@
       <c r="N53" s="21"/>
       <c r="O53" s="21"/>
       <c r="P53" s="21"/>
-      <c r="Q53" s="21"/>
+      <c r="Q53" s="37"/>
       <c r="R53" s="21"/>
       <c r="S53" s="22"/>
       <c r="T53" s="21"/>
@@ -5991,7 +6001,7 @@
       <c r="N54" s="21"/>
       <c r="O54" s="21"/>
       <c r="P54" s="21"/>
-      <c r="Q54" s="21"/>
+      <c r="Q54" s="37"/>
       <c r="R54" s="21"/>
       <c r="S54" s="22"/>
       <c r="T54" s="21"/>
@@ -6042,7 +6052,7 @@
       <c r="N55" s="21"/>
       <c r="O55" s="21"/>
       <c r="P55" s="21"/>
-      <c r="Q55" s="21"/>
+      <c r="Q55" s="37"/>
       <c r="R55" s="21"/>
       <c r="S55" s="22"/>
       <c r="T55" s="21"/>
@@ -6093,7 +6103,7 @@
       <c r="N56" s="21"/>
       <c r="O56" s="21"/>
       <c r="P56" s="21"/>
-      <c r="Q56" s="21"/>
+      <c r="Q56" s="37"/>
       <c r="R56" s="21"/>
       <c r="S56" s="22"/>
       <c r="T56" s="21"/>
@@ -6144,7 +6154,7 @@
       <c r="N57" s="21"/>
       <c r="O57" s="21"/>
       <c r="P57" s="21"/>
-      <c r="Q57" s="21"/>
+      <c r="Q57" s="37"/>
       <c r="R57" s="21"/>
       <c r="S57" s="22"/>
       <c r="T57" s="21"/>
@@ -6195,7 +6205,7 @@
       <c r="N58" s="21"/>
       <c r="O58" s="21"/>
       <c r="P58" s="21"/>
-      <c r="Q58" s="21"/>
+      <c r="Q58" s="37"/>
       <c r="R58" s="21"/>
       <c r="S58" s="22"/>
       <c r="T58" s="21"/>
@@ -6246,7 +6256,7 @@
       <c r="N59" s="21"/>
       <c r="O59" s="21"/>
       <c r="P59" s="21"/>
-      <c r="Q59" s="21"/>
+      <c r="Q59" s="37"/>
       <c r="R59" s="21"/>
       <c r="S59" s="22"/>
       <c r="T59" s="21"/>
@@ -6297,7 +6307,7 @@
       <c r="N60" s="21"/>
       <c r="O60" s="21"/>
       <c r="P60" s="21"/>
-      <c r="Q60" s="21"/>
+      <c r="Q60" s="37"/>
       <c r="R60" s="21"/>
       <c r="S60" s="22"/>
       <c r="T60" s="21"/>
@@ -6348,7 +6358,7 @@
       <c r="N61" s="21"/>
       <c r="O61" s="21"/>
       <c r="P61" s="21"/>
-      <c r="Q61" s="21"/>
+      <c r="Q61" s="37"/>
       <c r="R61" s="21"/>
       <c r="S61" s="22"/>
       <c r="T61" s="21"/>
@@ -6399,7 +6409,7 @@
       <c r="N62" s="21"/>
       <c r="O62" s="21"/>
       <c r="P62" s="21"/>
-      <c r="Q62" s="21"/>
+      <c r="Q62" s="37"/>
       <c r="R62" s="21"/>
       <c r="S62" s="22"/>
       <c r="T62" s="21"/>
@@ -6450,7 +6460,7 @@
       <c r="N63" s="21"/>
       <c r="O63" s="21"/>
       <c r="P63" s="21"/>
-      <c r="Q63" s="21"/>
+      <c r="Q63" s="37"/>
       <c r="R63" s="21"/>
       <c r="S63" s="22"/>
       <c r="T63" s="21"/>
@@ -6501,7 +6511,7 @@
       <c r="N64" s="21"/>
       <c r="O64" s="21"/>
       <c r="P64" s="21"/>
-      <c r="Q64" s="21"/>
+      <c r="Q64" s="37"/>
       <c r="R64" s="21"/>
       <c r="S64" s="22"/>
       <c r="T64" s="21"/>
@@ -6552,7 +6562,7 @@
       <c r="N65" s="21"/>
       <c r="O65" s="21"/>
       <c r="P65" s="21"/>
-      <c r="Q65" s="21"/>
+      <c r="Q65" s="37"/>
       <c r="R65" s="21"/>
       <c r="S65" s="22"/>
       <c r="T65" s="21"/>
@@ -6603,7 +6613,7 @@
       <c r="N66" s="21"/>
       <c r="O66" s="21"/>
       <c r="P66" s="21"/>
-      <c r="Q66" s="21"/>
+      <c r="Q66" s="37"/>
       <c r="R66" s="21"/>
       <c r="S66" s="22"/>
       <c r="T66" s="21"/>
@@ -6654,7 +6664,7 @@
       <c r="N67" s="21"/>
       <c r="O67" s="21"/>
       <c r="P67" s="21"/>
-      <c r="Q67" s="21"/>
+      <c r="Q67" s="37"/>
       <c r="R67" s="21"/>
       <c r="S67" s="22"/>
       <c r="T67" s="21"/>
@@ -6705,7 +6715,7 @@
       <c r="N68" s="21"/>
       <c r="O68" s="21"/>
       <c r="P68" s="21"/>
-      <c r="Q68" s="21"/>
+      <c r="Q68" s="37"/>
       <c r="R68" s="21"/>
       <c r="S68" s="22"/>
       <c r="T68" s="21"/>
@@ -6756,7 +6766,7 @@
       <c r="N69" s="21"/>
       <c r="O69" s="21"/>
       <c r="P69" s="21"/>
-      <c r="Q69" s="21"/>
+      <c r="Q69" s="37"/>
       <c r="R69" s="21"/>
       <c r="S69" s="22"/>
       <c r="T69" s="21"/>
@@ -6807,7 +6817,7 @@
       <c r="N70" s="21"/>
       <c r="O70" s="21"/>
       <c r="P70" s="21"/>
-      <c r="Q70" s="21"/>
+      <c r="Q70" s="37"/>
       <c r="R70" s="21"/>
       <c r="S70" s="22"/>
       <c r="T70" s="21"/>
@@ -6858,7 +6868,7 @@
       <c r="N71" s="21"/>
       <c r="O71" s="21"/>
       <c r="P71" s="21"/>
-      <c r="Q71" s="21"/>
+      <c r="Q71" s="37"/>
       <c r="R71" s="21"/>
       <c r="S71" s="22"/>
       <c r="T71" s="21"/>
@@ -6909,7 +6919,7 @@
       <c r="N72" s="21"/>
       <c r="O72" s="21"/>
       <c r="P72" s="21"/>
-      <c r="Q72" s="21"/>
+      <c r="Q72" s="37"/>
       <c r="R72" s="21"/>
       <c r="S72" s="22"/>
       <c r="T72" s="21"/>
@@ -6960,7 +6970,7 @@
       <c r="N73" s="21"/>
       <c r="O73" s="21"/>
       <c r="P73" s="21"/>
-      <c r="Q73" s="21"/>
+      <c r="Q73" s="37"/>
       <c r="R73" s="21"/>
       <c r="S73" s="22"/>
       <c r="T73" s="21"/>
@@ -7011,7 +7021,7 @@
       <c r="N74" s="21"/>
       <c r="O74" s="21"/>
       <c r="P74" s="21"/>
-      <c r="Q74" s="21"/>
+      <c r="Q74" s="37"/>
       <c r="R74" s="21"/>
       <c r="S74" s="22"/>
       <c r="T74" s="21"/>
@@ -7062,7 +7072,7 @@
       <c r="N75" s="21"/>
       <c r="O75" s="21"/>
       <c r="P75" s="21"/>
-      <c r="Q75" s="21"/>
+      <c r="Q75" s="37"/>
       <c r="R75" s="21"/>
       <c r="S75" s="22"/>
       <c r="T75" s="21"/>
@@ -7113,7 +7123,7 @@
       <c r="N76" s="21"/>
       <c r="O76" s="21"/>
       <c r="P76" s="21"/>
-      <c r="Q76" s="21"/>
+      <c r="Q76" s="37"/>
       <c r="R76" s="21"/>
       <c r="S76" s="22"/>
       <c r="T76" s="21"/>
@@ -7164,7 +7174,7 @@
       <c r="N77" s="21"/>
       <c r="O77" s="21"/>
       <c r="P77" s="21"/>
-      <c r="Q77" s="21"/>
+      <c r="Q77" s="37"/>
       <c r="R77" s="21"/>
       <c r="S77" s="22"/>
       <c r="T77" s="21"/>
@@ -7215,7 +7225,7 @@
       <c r="N78" s="21"/>
       <c r="O78" s="21"/>
       <c r="P78" s="21"/>
-      <c r="Q78" s="21"/>
+      <c r="Q78" s="37"/>
       <c r="R78" s="21"/>
       <c r="S78" s="22"/>
       <c r="T78" s="21"/>
@@ -7266,7 +7276,7 @@
       <c r="N79" s="21"/>
       <c r="O79" s="21"/>
       <c r="P79" s="21"/>
-      <c r="Q79" s="21"/>
+      <c r="Q79" s="37"/>
       <c r="R79" s="21"/>
       <c r="S79" s="22"/>
       <c r="T79" s="21"/>
@@ -7317,7 +7327,7 @@
       <c r="N80" s="21"/>
       <c r="O80" s="21"/>
       <c r="P80" s="21"/>
-      <c r="Q80" s="21"/>
+      <c r="Q80" s="37"/>
       <c r="R80" s="21"/>
       <c r="S80" s="22"/>
       <c r="T80" s="21"/>
@@ -7368,7 +7378,7 @@
       <c r="N81" s="21"/>
       <c r="O81" s="21"/>
       <c r="P81" s="21"/>
-      <c r="Q81" s="21"/>
+      <c r="Q81" s="37"/>
       <c r="R81" s="21"/>
       <c r="S81" s="22"/>
       <c r="T81" s="21"/>
@@ -7419,7 +7429,7 @@
       <c r="N82" s="21"/>
       <c r="O82" s="21"/>
       <c r="P82" s="21"/>
-      <c r="Q82" s="21"/>
+      <c r="Q82" s="37"/>
       <c r="R82" s="21"/>
       <c r="S82" s="22"/>
       <c r="T82" s="21"/>
@@ -7470,7 +7480,7 @@
       <c r="N83" s="21"/>
       <c r="O83" s="21"/>
       <c r="P83" s="21"/>
-      <c r="Q83" s="21"/>
+      <c r="Q83" s="37"/>
       <c r="R83" s="21"/>
       <c r="S83" s="22"/>
       <c r="T83" s="21"/>
@@ -7521,7 +7531,7 @@
       <c r="N84" s="21"/>
       <c r="O84" s="21"/>
       <c r="P84" s="21"/>
-      <c r="Q84" s="21"/>
+      <c r="Q84" s="37"/>
       <c r="R84" s="21"/>
       <c r="S84" s="22"/>
       <c r="T84" s="21"/>
@@ -7572,7 +7582,7 @@
       <c r="N85" s="21"/>
       <c r="O85" s="21"/>
       <c r="P85" s="21"/>
-      <c r="Q85" s="21"/>
+      <c r="Q85" s="37"/>
       <c r="R85" s="21"/>
       <c r="S85" s="22"/>
       <c r="T85" s="21"/>
@@ -7623,7 +7633,7 @@
       <c r="N86" s="21"/>
       <c r="O86" s="21"/>
       <c r="P86" s="21"/>
-      <c r="Q86" s="21"/>
+      <c r="Q86" s="37"/>
       <c r="R86" s="21"/>
       <c r="S86" s="22"/>
       <c r="T86" s="21"/>
@@ -7674,7 +7684,7 @@
       <c r="N87" s="21"/>
       <c r="O87" s="21"/>
       <c r="P87" s="21"/>
-      <c r="Q87" s="21"/>
+      <c r="Q87" s="37"/>
       <c r="R87" s="21"/>
       <c r="S87" s="22"/>
       <c r="T87" s="21"/>
@@ -7725,7 +7735,7 @@
       <c r="N88" s="21"/>
       <c r="O88" s="21"/>
       <c r="P88" s="21"/>
-      <c r="Q88" s="21"/>
+      <c r="Q88" s="37"/>
       <c r="R88" s="21"/>
       <c r="S88" s="22"/>
       <c r="T88" s="21"/>
@@ -7776,7 +7786,7 @@
       <c r="N89" s="21"/>
       <c r="O89" s="21"/>
       <c r="P89" s="21"/>
-      <c r="Q89" s="21"/>
+      <c r="Q89" s="37"/>
       <c r="R89" s="21"/>
       <c r="S89" s="22"/>
       <c r="T89" s="21"/>
@@ -7827,7 +7837,7 @@
       <c r="N90" s="21"/>
       <c r="O90" s="21"/>
       <c r="P90" s="21"/>
-      <c r="Q90" s="21"/>
+      <c r="Q90" s="37"/>
       <c r="R90" s="21"/>
       <c r="S90" s="22"/>
       <c r="T90" s="21"/>
@@ -7878,7 +7888,7 @@
       <c r="N91" s="21"/>
       <c r="O91" s="21"/>
       <c r="P91" s="21"/>
-      <c r="Q91" s="21"/>
+      <c r="Q91" s="37"/>
       <c r="R91" s="21"/>
       <c r="S91" s="22"/>
       <c r="T91" s="21"/>
@@ -7929,7 +7939,7 @@
       <c r="N92" s="21"/>
       <c r="O92" s="21"/>
       <c r="P92" s="21"/>
-      <c r="Q92" s="21"/>
+      <c r="Q92" s="37"/>
       <c r="R92" s="21"/>
       <c r="S92" s="22"/>
       <c r="T92" s="21"/>
@@ -7980,7 +7990,7 @@
       <c r="N93" s="21"/>
       <c r="O93" s="21"/>
       <c r="P93" s="21"/>
-      <c r="Q93" s="21"/>
+      <c r="Q93" s="37"/>
       <c r="R93" s="21"/>
       <c r="S93" s="22"/>
       <c r="T93" s="21"/>
@@ -8031,7 +8041,7 @@
       <c r="N94" s="21"/>
       <c r="O94" s="21"/>
       <c r="P94" s="21"/>
-      <c r="Q94" s="21"/>
+      <c r="Q94" s="37"/>
       <c r="R94" s="21"/>
       <c r="S94" s="22"/>
       <c r="T94" s="21"/>
@@ -8082,7 +8092,7 @@
       <c r="N95" s="21"/>
       <c r="O95" s="21"/>
       <c r="P95" s="21"/>
-      <c r="Q95" s="21"/>
+      <c r="Q95" s="37"/>
       <c r="R95" s="21"/>
       <c r="S95" s="22"/>
       <c r="T95" s="21"/>
@@ -8133,7 +8143,7 @@
       <c r="N96" s="21"/>
       <c r="O96" s="21"/>
       <c r="P96" s="21"/>
-      <c r="Q96" s="21"/>
+      <c r="Q96" s="37"/>
       <c r="R96" s="21"/>
       <c r="S96" s="22"/>
       <c r="T96" s="21"/>
@@ -8184,7 +8194,7 @@
       <c r="N97" s="21"/>
       <c r="O97" s="21"/>
       <c r="P97" s="21"/>
-      <c r="Q97" s="21"/>
+      <c r="Q97" s="37"/>
       <c r="R97" s="21"/>
       <c r="S97" s="22"/>
       <c r="T97" s="21"/>
@@ -8235,7 +8245,7 @@
       <c r="N98" s="21"/>
       <c r="O98" s="21"/>
       <c r="P98" s="21"/>
-      <c r="Q98" s="21"/>
+      <c r="Q98" s="37"/>
       <c r="R98" s="21"/>
       <c r="S98" s="22"/>
       <c r="T98" s="21"/>
@@ -8286,7 +8296,7 @@
       <c r="N99" s="21"/>
       <c r="O99" s="21"/>
       <c r="P99" s="21"/>
-      <c r="Q99" s="21"/>
+      <c r="Q99" s="37"/>
       <c r="R99" s="21"/>
       <c r="S99" s="22"/>
       <c r="T99" s="21"/>
@@ -8337,7 +8347,7 @@
       <c r="N100" s="21"/>
       <c r="O100" s="21"/>
       <c r="P100" s="21"/>
-      <c r="Q100" s="21"/>
+      <c r="Q100" s="37"/>
       <c r="R100" s="21"/>
       <c r="S100" s="22"/>
       <c r="T100" s="21"/>
@@ -8388,7 +8398,7 @@
       <c r="N101" s="21"/>
       <c r="O101" s="21"/>
       <c r="P101" s="21"/>
-      <c r="Q101" s="21"/>
+      <c r="Q101" s="37"/>
       <c r="R101" s="21"/>
       <c r="S101" s="22"/>
       <c r="T101" s="21"/>
@@ -8439,7 +8449,7 @@
       <c r="N102" s="21"/>
       <c r="O102" s="21"/>
       <c r="P102" s="21"/>
-      <c r="Q102" s="21"/>
+      <c r="Q102" s="37"/>
       <c r="R102" s="21"/>
       <c r="S102" s="22"/>
       <c r="T102" s="21"/>
@@ -8490,7 +8500,7 @@
       <c r="N103" s="21"/>
       <c r="O103" s="21"/>
       <c r="P103" s="21"/>
-      <c r="Q103" s="21"/>
+      <c r="Q103" s="37"/>
       <c r="R103" s="21"/>
       <c r="S103" s="22"/>
       <c r="T103" s="21"/>
@@ -8541,7 +8551,7 @@
       <c r="N104" s="21"/>
       <c r="O104" s="21"/>
       <c r="P104" s="21"/>
-      <c r="Q104" s="21"/>
+      <c r="Q104" s="37"/>
       <c r="R104" s="21"/>
       <c r="S104" s="22"/>
       <c r="T104" s="21"/>
@@ -8592,7 +8602,7 @@
       <c r="N105" s="21"/>
       <c r="O105" s="21"/>
       <c r="P105" s="21"/>
-      <c r="Q105" s="21"/>
+      <c r="Q105" s="37"/>
       <c r="R105" s="21"/>
       <c r="S105" s="22"/>
       <c r="T105" s="21"/>
@@ -8643,7 +8653,7 @@
       <c r="N106" s="21"/>
       <c r="O106" s="21"/>
       <c r="P106" s="21"/>
-      <c r="Q106" s="21"/>
+      <c r="Q106" s="37"/>
       <c r="R106" s="21"/>
       <c r="S106" s="22"/>
       <c r="T106" s="21"/>
@@ -8694,7 +8704,7 @@
       <c r="N107" s="21"/>
       <c r="O107" s="21"/>
       <c r="P107" s="21"/>
-      <c r="Q107" s="21"/>
+      <c r="Q107" s="37"/>
       <c r="R107" s="21"/>
       <c r="S107" s="22"/>
       <c r="T107" s="21"/>
@@ -8745,7 +8755,7 @@
       <c r="N108" s="21"/>
       <c r="O108" s="21"/>
       <c r="P108" s="21"/>
-      <c r="Q108" s="21"/>
+      <c r="Q108" s="37"/>
       <c r="R108" s="21"/>
       <c r="S108" s="22"/>
       <c r="T108" s="21"/>
@@ -8796,7 +8806,7 @@
       <c r="N109" s="21"/>
       <c r="O109" s="21"/>
       <c r="P109" s="21"/>
-      <c r="Q109" s="21"/>
+      <c r="Q109" s="37"/>
       <c r="R109" s="21"/>
       <c r="S109" s="22"/>
       <c r="T109" s="21"/>
@@ -8847,7 +8857,7 @@
       <c r="N110" s="21"/>
       <c r="O110" s="21"/>
       <c r="P110" s="21"/>
-      <c r="Q110" s="21"/>
+      <c r="Q110" s="37"/>
       <c r="R110" s="21"/>
       <c r="S110" s="22"/>
       <c r="T110" s="21"/>
@@ -8898,7 +8908,7 @@
       <c r="N111" s="21"/>
       <c r="O111" s="21"/>
       <c r="P111" s="21"/>
-      <c r="Q111" s="21"/>
+      <c r="Q111" s="37"/>
       <c r="R111" s="21"/>
       <c r="S111" s="22"/>
       <c r="T111" s="21"/>
@@ -8949,7 +8959,7 @@
       <c r="N112" s="21"/>
       <c r="O112" s="21"/>
       <c r="P112" s="21"/>
-      <c r="Q112" s="21"/>
+      <c r="Q112" s="37"/>
       <c r="R112" s="21"/>
       <c r="S112" s="22"/>
       <c r="T112" s="21"/>
@@ -9000,7 +9010,7 @@
       <c r="N113" s="21"/>
       <c r="O113" s="21"/>
       <c r="P113" s="21"/>
-      <c r="Q113" s="21"/>
+      <c r="Q113" s="37"/>
       <c r="R113" s="21"/>
       <c r="S113" s="22"/>
       <c r="T113" s="21"/>
@@ -9051,7 +9061,7 @@
       <c r="N114" s="21"/>
       <c r="O114" s="21"/>
       <c r="P114" s="21"/>
-      <c r="Q114" s="21"/>
+      <c r="Q114" s="37"/>
       <c r="R114" s="21"/>
       <c r="S114" s="22"/>
       <c r="T114" s="21"/>
@@ -9102,7 +9112,7 @@
       <c r="N115" s="21"/>
       <c r="O115" s="21"/>
       <c r="P115" s="21"/>
-      <c r="Q115" s="21"/>
+      <c r="Q115" s="37"/>
       <c r="R115" s="21"/>
       <c r="S115" s="22"/>
       <c r="T115" s="21"/>
@@ -9153,7 +9163,7 @@
       <c r="N116" s="21"/>
       <c r="O116" s="21"/>
       <c r="P116" s="21"/>
-      <c r="Q116" s="21"/>
+      <c r="Q116" s="37"/>
       <c r="R116" s="21"/>
       <c r="S116" s="22"/>
       <c r="T116" s="21"/>
@@ -9204,7 +9214,7 @@
       <c r="N117" s="21"/>
       <c r="O117" s="21"/>
       <c r="P117" s="21"/>
-      <c r="Q117" s="21"/>
+      <c r="Q117" s="37"/>
       <c r="R117" s="21"/>
       <c r="S117" s="22"/>
       <c r="T117" s="21"/>
@@ -9255,7 +9265,7 @@
       <c r="N118" s="21"/>
       <c r="O118" s="21"/>
       <c r="P118" s="21"/>
-      <c r="Q118" s="21"/>
+      <c r="Q118" s="37"/>
       <c r="R118" s="21"/>
       <c r="S118" s="22"/>
       <c r="T118" s="21"/>
@@ -9306,7 +9316,7 @@
       <c r="N119" s="21"/>
       <c r="O119" s="21"/>
       <c r="P119" s="21"/>
-      <c r="Q119" s="21"/>
+      <c r="Q119" s="37"/>
       <c r="R119" s="21"/>
       <c r="S119" s="22"/>
       <c r="T119" s="21"/>
@@ -9357,7 +9367,7 @@
       <c r="N120" s="21"/>
       <c r="O120" s="21"/>
       <c r="P120" s="21"/>
-      <c r="Q120" s="21"/>
+      <c r="Q120" s="37"/>
       <c r="R120" s="21"/>
       <c r="S120" s="22"/>
       <c r="T120" s="21"/>
@@ -9408,7 +9418,7 @@
       <c r="N121" s="21"/>
       <c r="O121" s="21"/>
       <c r="P121" s="21"/>
-      <c r="Q121" s="21"/>
+      <c r="Q121" s="37"/>
       <c r="R121" s="21"/>
       <c r="S121" s="22"/>
       <c r="T121" s="21"/>
@@ -9459,7 +9469,7 @@
       <c r="N122" s="21"/>
       <c r="O122" s="21"/>
       <c r="P122" s="21"/>
-      <c r="Q122" s="21"/>
+      <c r="Q122" s="37"/>
       <c r="R122" s="21"/>
       <c r="S122" s="22"/>
       <c r="T122" s="21"/>
@@ -9510,7 +9520,7 @@
       <c r="N123" s="21"/>
       <c r="O123" s="21"/>
       <c r="P123" s="21"/>
-      <c r="Q123" s="21"/>
+      <c r="Q123" s="37"/>
       <c r="R123" s="21"/>
       <c r="S123" s="22"/>
       <c r="T123" s="21"/>
@@ -9561,7 +9571,7 @@
       <c r="N124" s="21"/>
       <c r="O124" s="21"/>
       <c r="P124" s="21"/>
-      <c r="Q124" s="21"/>
+      <c r="Q124" s="37"/>
       <c r="R124" s="21"/>
       <c r="S124" s="22"/>
       <c r="T124" s="21"/>
@@ -9612,7 +9622,7 @@
       <c r="N125" s="21"/>
       <c r="O125" s="21"/>
       <c r="P125" s="21"/>
-      <c r="Q125" s="21"/>
+      <c r="Q125" s="37"/>
       <c r="R125" s="21"/>
       <c r="S125" s="22"/>
       <c r="T125" s="21"/>
@@ -9663,7 +9673,7 @@
       <c r="N126" s="21"/>
       <c r="O126" s="21"/>
       <c r="P126" s="21"/>
-      <c r="Q126" s="21"/>
+      <c r="Q126" s="37"/>
       <c r="R126" s="21"/>
       <c r="S126" s="22"/>
       <c r="T126" s="21"/>
@@ -9714,7 +9724,7 @@
       <c r="N127" s="21"/>
       <c r="O127" s="21"/>
       <c r="P127" s="21"/>
-      <c r="Q127" s="21"/>
+      <c r="Q127" s="37"/>
       <c r="R127" s="21"/>
       <c r="S127" s="22"/>
       <c r="T127" s="21"/>
@@ -9765,7 +9775,7 @@
       <c r="N128" s="21"/>
       <c r="O128" s="21"/>
       <c r="P128" s="21"/>
-      <c r="Q128" s="21"/>
+      <c r="Q128" s="37"/>
       <c r="R128" s="21"/>
       <c r="S128" s="22"/>
       <c r="T128" s="21"/>
@@ -9816,7 +9826,7 @@
       <c r="N129" s="21"/>
       <c r="O129" s="21"/>
       <c r="P129" s="21"/>
-      <c r="Q129" s="21"/>
+      <c r="Q129" s="37"/>
       <c r="R129" s="21"/>
       <c r="S129" s="22"/>
       <c r="T129" s="21"/>
@@ -9867,7 +9877,7 @@
       <c r="N130" s="21"/>
       <c r="O130" s="21"/>
       <c r="P130" s="21"/>
-      <c r="Q130" s="21"/>
+      <c r="Q130" s="37"/>
       <c r="R130" s="21"/>
       <c r="S130" s="22"/>
       <c r="T130" s="21"/>
@@ -9918,7 +9928,7 @@
       <c r="N131" s="21"/>
       <c r="O131" s="21"/>
       <c r="P131" s="21"/>
-      <c r="Q131" s="21"/>
+      <c r="Q131" s="37"/>
       <c r="R131" s="21"/>
       <c r="S131" s="22"/>
       <c r="T131" s="21"/>
@@ -9969,7 +9979,7 @@
       <c r="N132" s="21"/>
       <c r="O132" s="21"/>
       <c r="P132" s="21"/>
-      <c r="Q132" s="21"/>
+      <c r="Q132" s="37"/>
       <c r="R132" s="21"/>
       <c r="S132" s="22"/>
       <c r="T132" s="21"/>
@@ -10020,7 +10030,7 @@
       <c r="N133" s="21"/>
       <c r="O133" s="21"/>
       <c r="P133" s="21"/>
-      <c r="Q133" s="21"/>
+      <c r="Q133" s="37"/>
       <c r="R133" s="21"/>
       <c r="S133" s="22"/>
       <c r="T133" s="21"/>
@@ -10071,7 +10081,7 @@
       <c r="N134" s="21"/>
       <c r="O134" s="21"/>
       <c r="P134" s="21"/>
-      <c r="Q134" s="21"/>
+      <c r="Q134" s="37"/>
       <c r="R134" s="21"/>
       <c r="S134" s="22"/>
       <c r="T134" s="21"/>
@@ -10122,7 +10132,7 @@
       <c r="N135" s="21"/>
       <c r="O135" s="21"/>
       <c r="P135" s="21"/>
-      <c r="Q135" s="21"/>
+      <c r="Q135" s="37"/>
       <c r="R135" s="21"/>
       <c r="S135" s="22"/>
       <c r="T135" s="21"/>
@@ -10173,7 +10183,7 @@
       <c r="N136" s="21"/>
       <c r="O136" s="21"/>
       <c r="P136" s="21"/>
-      <c r="Q136" s="21"/>
+      <c r="Q136" s="37"/>
       <c r="R136" s="21"/>
       <c r="S136" s="22"/>
       <c r="T136" s="21"/>
@@ -10224,7 +10234,7 @@
       <c r="N137" s="21"/>
       <c r="O137" s="21"/>
       <c r="P137" s="21"/>
-      <c r="Q137" s="21"/>
+      <c r="Q137" s="37"/>
       <c r="R137" s="21"/>
       <c r="S137" s="22"/>
       <c r="T137" s="21"/>
@@ -10275,7 +10285,7 @@
       <c r="N138" s="21"/>
       <c r="O138" s="21"/>
       <c r="P138" s="21"/>
-      <c r="Q138" s="21"/>
+      <c r="Q138" s="37"/>
       <c r="R138" s="21"/>
       <c r="S138" s="22"/>
       <c r="T138" s="21"/>
@@ -10326,7 +10336,7 @@
       <c r="N139" s="21"/>
       <c r="O139" s="21"/>
       <c r="P139" s="21"/>
-      <c r="Q139" s="21"/>
+      <c r="Q139" s="37"/>
       <c r="R139" s="21"/>
       <c r="S139" s="22"/>
       <c r="T139" s="21"/>
@@ -10377,7 +10387,7 @@
       <c r="N140" s="21"/>
       <c r="O140" s="21"/>
       <c r="P140" s="21"/>
-      <c r="Q140" s="21"/>
+      <c r="Q140" s="37"/>
       <c r="R140" s="21"/>
       <c r="S140" s="22"/>
       <c r="T140" s="21"/>
@@ -10428,7 +10438,7 @@
       <c r="N141" s="21"/>
       <c r="O141" s="21"/>
       <c r="P141" s="21"/>
-      <c r="Q141" s="21"/>
+      <c r="Q141" s="37"/>
       <c r="R141" s="21"/>
       <c r="S141" s="22"/>
       <c r="T141" s="21"/>
@@ -10479,7 +10489,7 @@
       <c r="N142" s="21"/>
       <c r="O142" s="21"/>
       <c r="P142" s="21"/>
-      <c r="Q142" s="21"/>
+      <c r="Q142" s="37"/>
       <c r="R142" s="21"/>
       <c r="S142" s="22"/>
       <c r="T142" s="21"/>
@@ -10530,7 +10540,7 @@
       <c r="N143" s="21"/>
       <c r="O143" s="21"/>
       <c r="P143" s="21"/>
-      <c r="Q143" s="21"/>
+      <c r="Q143" s="37"/>
       <c r="R143" s="21"/>
       <c r="S143" s="22"/>
       <c r="T143" s="21"/>
@@ -10581,7 +10591,7 @@
       <c r="N144" s="21"/>
       <c r="O144" s="21"/>
       <c r="P144" s="21"/>
-      <c r="Q144" s="21"/>
+      <c r="Q144" s="37"/>
       <c r="R144" s="21"/>
       <c r="S144" s="22"/>
       <c r="T144" s="21"/>
@@ -10632,7 +10642,7 @@
       <c r="N145" s="21"/>
       <c r="O145" s="21"/>
       <c r="P145" s="21"/>
-      <c r="Q145" s="21"/>
+      <c r="Q145" s="37"/>
       <c r="R145" s="21"/>
       <c r="S145" s="22"/>
       <c r="T145" s="21"/>
@@ -10683,7 +10693,7 @@
       <c r="N146" s="21"/>
       <c r="O146" s="21"/>
       <c r="P146" s="21"/>
-      <c r="Q146" s="21"/>
+      <c r="Q146" s="37"/>
       <c r="R146" s="21"/>
       <c r="S146" s="22"/>
       <c r="T146" s="21"/>
@@ -10734,7 +10744,7 @@
       <c r="N147" s="21"/>
       <c r="O147" s="21"/>
       <c r="P147" s="21"/>
-      <c r="Q147" s="21"/>
+      <c r="Q147" s="37"/>
       <c r="R147" s="21"/>
       <c r="S147" s="22"/>
       <c r="T147" s="21"/>
@@ -10785,7 +10795,7 @@
       <c r="N148" s="21"/>
       <c r="O148" s="21"/>
       <c r="P148" s="21"/>
-      <c r="Q148" s="21"/>
+      <c r="Q148" s="37"/>
       <c r="R148" s="21"/>
       <c r="S148" s="22"/>
       <c r="T148" s="21"/>
@@ -10836,7 +10846,7 @@
       <c r="N149" s="21"/>
       <c r="O149" s="21"/>
       <c r="P149" s="21"/>
-      <c r="Q149" s="21"/>
+      <c r="Q149" s="37"/>
       <c r="R149" s="21"/>
       <c r="S149" s="22"/>
       <c r="T149" s="21"/>
@@ -10887,7 +10897,7 @@
       <c r="N150" s="21"/>
       <c r="O150" s="21"/>
       <c r="P150" s="21"/>
-      <c r="Q150" s="21"/>
+      <c r="Q150" s="37"/>
       <c r="R150" s="21"/>
       <c r="S150" s="22"/>
       <c r="T150" s="21"/>
@@ -10938,7 +10948,7 @@
       <c r="N151" s="21"/>
       <c r="O151" s="21"/>
       <c r="P151" s="21"/>
-      <c r="Q151" s="21"/>
+      <c r="Q151" s="37"/>
       <c r="R151" s="21"/>
       <c r="S151" s="22"/>
       <c r="T151" s="21"/>
@@ -10989,7 +10999,7 @@
       <c r="N152" s="21"/>
       <c r="O152" s="21"/>
       <c r="P152" s="21"/>
-      <c r="Q152" s="21"/>
+      <c r="Q152" s="37"/>
       <c r="R152" s="21"/>
       <c r="S152" s="22"/>
       <c r="T152" s="21"/>
@@ -11040,7 +11050,7 @@
       <c r="N153" s="21"/>
       <c r="O153" s="21"/>
       <c r="P153" s="21"/>
-      <c r="Q153" s="21"/>
+      <c r="Q153" s="37"/>
       <c r="R153" s="21"/>
       <c r="S153" s="22"/>
       <c r="T153" s="21"/>
@@ -11091,7 +11101,7 @@
       <c r="N154" s="21"/>
       <c r="O154" s="21"/>
       <c r="P154" s="21"/>
-      <c r="Q154" s="21"/>
+      <c r="Q154" s="37"/>
       <c r="R154" s="21"/>
       <c r="S154" s="22"/>
       <c r="T154" s="21"/>
@@ -11142,7 +11152,7 @@
       <c r="N155" s="21"/>
       <c r="O155" s="21"/>
       <c r="P155" s="21"/>
-      <c r="Q155" s="21"/>
+      <c r="Q155" s="37"/>
       <c r="R155" s="21"/>
       <c r="S155" s="22"/>
       <c r="T155" s="21"/>
@@ -11193,7 +11203,7 @@
       <c r="N156" s="21"/>
       <c r="O156" s="21"/>
       <c r="P156" s="21"/>
-      <c r="Q156" s="21"/>
+      <c r="Q156" s="37"/>
       <c r="R156" s="21"/>
       <c r="S156" s="22"/>
       <c r="T156" s="21"/>
@@ -11244,7 +11254,7 @@
       <c r="N157" s="21"/>
       <c r="O157" s="21"/>
       <c r="P157" s="21"/>
-      <c r="Q157" s="21"/>
+      <c r="Q157" s="37"/>
       <c r="R157" s="21"/>
       <c r="S157" s="22"/>
       <c r="T157" s="21"/>
@@ -11295,7 +11305,7 @@
       <c r="N158" s="21"/>
       <c r="O158" s="21"/>
       <c r="P158" s="21"/>
-      <c r="Q158" s="21"/>
+      <c r="Q158" s="37"/>
       <c r="R158" s="21"/>
       <c r="S158" s="22"/>
       <c r="T158" s="21"/>
@@ -11346,7 +11356,7 @@
       <c r="N159" s="21"/>
       <c r="O159" s="21"/>
       <c r="P159" s="21"/>
-      <c r="Q159" s="21"/>
+      <c r="Q159" s="37"/>
       <c r="R159" s="21"/>
       <c r="S159" s="22"/>
       <c r="T159" s="21"/>
@@ -11397,7 +11407,7 @@
       <c r="N160" s="21"/>
       <c r="O160" s="21"/>
       <c r="P160" s="21"/>
-      <c r="Q160" s="21"/>
+      <c r="Q160" s="37"/>
       <c r="R160" s="21"/>
       <c r="S160" s="22"/>
       <c r="T160" s="21"/>
@@ -11448,7 +11458,7 @@
       <c r="N161" s="21"/>
       <c r="O161" s="21"/>
       <c r="P161" s="21"/>
-      <c r="Q161" s="21"/>
+      <c r="Q161" s="37"/>
       <c r="R161" s="21"/>
       <c r="S161" s="22"/>
       <c r="T161" s="21"/>
@@ -11499,7 +11509,7 @@
       <c r="N162" s="21"/>
       <c r="O162" s="21"/>
       <c r="P162" s="21"/>
-      <c r="Q162" s="21"/>
+      <c r="Q162" s="37"/>
       <c r="R162" s="21"/>
       <c r="S162" s="22"/>
       <c r="T162" s="21"/>
@@ -11550,7 +11560,7 @@
       <c r="N163" s="21"/>
       <c r="O163" s="21"/>
       <c r="P163" s="21"/>
-      <c r="Q163" s="21"/>
+      <c r="Q163" s="37"/>
       <c r="R163" s="21"/>
       <c r="S163" s="22"/>
       <c r="T163" s="21"/>
@@ -11601,7 +11611,7 @@
       <c r="N164" s="21"/>
       <c r="O164" s="21"/>
       <c r="P164" s="21"/>
-      <c r="Q164" s="21"/>
+      <c r="Q164" s="37"/>
       <c r="R164" s="21"/>
       <c r="S164" s="22"/>
       <c r="T164" s="21"/>
@@ -11652,7 +11662,7 @@
       <c r="N165" s="21"/>
       <c r="O165" s="21"/>
       <c r="P165" s="21"/>
-      <c r="Q165" s="21"/>
+      <c r="Q165" s="37"/>
       <c r="R165" s="21"/>
       <c r="S165" s="22"/>
       <c r="T165" s="21"/>
@@ -11703,7 +11713,7 @@
       <c r="N166" s="21"/>
       <c r="O166" s="21"/>
       <c r="P166" s="21"/>
-      <c r="Q166" s="21"/>
+      <c r="Q166" s="37"/>
       <c r="R166" s="21"/>
       <c r="S166" s="22"/>
       <c r="T166" s="21"/>
@@ -11754,7 +11764,7 @@
       <c r="N167" s="21"/>
       <c r="O167" s="21"/>
       <c r="P167" s="21"/>
-      <c r="Q167" s="21"/>
+      <c r="Q167" s="37"/>
       <c r="R167" s="21"/>
       <c r="S167" s="22"/>
       <c r="T167" s="21"/>
@@ -11805,7 +11815,7 @@
       <c r="N168" s="21"/>
       <c r="O168" s="21"/>
       <c r="P168" s="21"/>
-      <c r="Q168" s="21"/>
+      <c r="Q168" s="37"/>
       <c r="R168" s="21"/>
       <c r="S168" s="22"/>
       <c r="T168" s="21"/>
@@ -11856,7 +11866,7 @@
       <c r="N169" s="21"/>
       <c r="O169" s="21"/>
       <c r="P169" s="21"/>
-      <c r="Q169" s="21"/>
+      <c r="Q169" s="37"/>
       <c r="R169" s="21"/>
       <c r="S169" s="22"/>
       <c r="T169" s="21"/>
@@ -11907,7 +11917,7 @@
       <c r="N170" s="21"/>
       <c r="O170" s="21"/>
       <c r="P170" s="21"/>
-      <c r="Q170" s="21"/>
+      <c r="Q170" s="37"/>
       <c r="R170" s="21"/>
       <c r="S170" s="22"/>
       <c r="T170" s="21"/>
@@ -11958,7 +11968,7 @@
       <c r="N171" s="21"/>
       <c r="O171" s="21"/>
       <c r="P171" s="21"/>
-      <c r="Q171" s="21"/>
+      <c r="Q171" s="37"/>
       <c r="R171" s="21"/>
       <c r="S171" s="22"/>
       <c r="T171" s="21"/>
@@ -12009,7 +12019,7 @@
       <c r="N172" s="21"/>
       <c r="O172" s="21"/>
       <c r="P172" s="21"/>
-      <c r="Q172" s="21"/>
+      <c r="Q172" s="37"/>
       <c r="R172" s="21"/>
       <c r="S172" s="22"/>
       <c r="T172" s="21"/>
@@ -12060,7 +12070,7 @@
       <c r="N173" s="21"/>
       <c r="O173" s="21"/>
       <c r="P173" s="21"/>
-      <c r="Q173" s="21"/>
+      <c r="Q173" s="37"/>
       <c r="R173" s="21"/>
       <c r="S173" s="22"/>
       <c r="T173" s="21"/>
@@ -12111,7 +12121,7 @@
       <c r="N174" s="21"/>
       <c r="O174" s="21"/>
       <c r="P174" s="21"/>
-      <c r="Q174" s="21"/>
+      <c r="Q174" s="37"/>
       <c r="R174" s="21"/>
       <c r="S174" s="22"/>
       <c r="T174" s="21"/>
@@ -12162,7 +12172,7 @@
       <c r="N175" s="21"/>
       <c r="O175" s="21"/>
       <c r="P175" s="21"/>
-      <c r="Q175" s="21"/>
+      <c r="Q175" s="37"/>
       <c r="R175" s="21"/>
       <c r="S175" s="22"/>
       <c r="T175" s="21"/>
@@ -12213,7 +12223,7 @@
       <c r="N176" s="21"/>
       <c r="O176" s="21"/>
       <c r="P176" s="21"/>
-      <c r="Q176" s="21"/>
+      <c r="Q176" s="37"/>
       <c r="R176" s="21"/>
       <c r="S176" s="22"/>
       <c r="T176" s="21"/>
@@ -12264,7 +12274,7 @@
       <c r="N177" s="21"/>
       <c r="O177" s="21"/>
       <c r="P177" s="21"/>
-      <c r="Q177" s="21"/>
+      <c r="Q177" s="37"/>
       <c r="R177" s="21"/>
       <c r="S177" s="22"/>
       <c r="T177" s="21"/>
@@ -12315,7 +12325,7 @@
       <c r="N178" s="21"/>
       <c r="O178" s="21"/>
       <c r="P178" s="21"/>
-      <c r="Q178" s="21"/>
+      <c r="Q178" s="37"/>
       <c r="R178" s="21"/>
       <c r="S178" s="22"/>
       <c r="T178" s="21"/>
@@ -12366,7 +12376,7 @@
       <c r="N179" s="21"/>
       <c r="O179" s="21"/>
       <c r="P179" s="21"/>
-      <c r="Q179" s="21"/>
+      <c r="Q179" s="37"/>
       <c r="R179" s="21"/>
       <c r="S179" s="22"/>
       <c r="T179" s="21"/>
@@ -12417,7 +12427,7 @@
       <c r="N180" s="21"/>
       <c r="O180" s="21"/>
       <c r="P180" s="21"/>
-      <c r="Q180" s="21"/>
+      <c r="Q180" s="37"/>
       <c r="R180" s="21"/>
       <c r="S180" s="22"/>
       <c r="T180" s="21"/>
@@ -12468,7 +12478,7 @@
       <c r="N181" s="21"/>
       <c r="O181" s="21"/>
       <c r="P181" s="21"/>
-      <c r="Q181" s="21"/>
+      <c r="Q181" s="37"/>
       <c r="R181" s="21"/>
       <c r="S181" s="22"/>
       <c r="T181" s="21"/>
@@ -12519,7 +12529,7 @@
       <c r="N182" s="21"/>
       <c r="O182" s="21"/>
       <c r="P182" s="21"/>
-      <c r="Q182" s="21"/>
+      <c r="Q182" s="37"/>
       <c r="R182" s="21"/>
       <c r="S182" s="22"/>
       <c r="T182" s="21"/>
@@ -12570,7 +12580,7 @@
       <c r="N183" s="21"/>
       <c r="O183" s="21"/>
       <c r="P183" s="21"/>
-      <c r="Q183" s="21"/>
+      <c r="Q183" s="37"/>
       <c r="R183" s="21"/>
       <c r="S183" s="22"/>
       <c r="T183" s="21"/>
@@ -12621,7 +12631,7 @@
       <c r="N184" s="21"/>
       <c r="O184" s="21"/>
       <c r="P184" s="21"/>
-      <c r="Q184" s="21"/>
+      <c r="Q184" s="37"/>
       <c r="R184" s="21"/>
       <c r="S184" s="22"/>
       <c r="T184" s="21"/>
@@ -12672,7 +12682,7 @@
       <c r="N185" s="21"/>
       <c r="O185" s="21"/>
       <c r="P185" s="21"/>
-      <c r="Q185" s="21"/>
+      <c r="Q185" s="37"/>
       <c r="R185" s="21"/>
       <c r="S185" s="22"/>
       <c r="T185" s="21"/>
@@ -12723,7 +12733,7 @@
       <c r="N186" s="21"/>
       <c r="O186" s="21"/>
       <c r="P186" s="21"/>
-      <c r="Q186" s="21"/>
+      <c r="Q186" s="37"/>
       <c r="R186" s="21"/>
       <c r="S186" s="22"/>
       <c r="T186" s="21"/>
@@ -12774,7 +12784,7 @@
       <c r="N187" s="21"/>
       <c r="O187" s="21"/>
       <c r="P187" s="21"/>
-      <c r="Q187" s="21"/>
+      <c r="Q187" s="37"/>
       <c r="R187" s="21"/>
       <c r="S187" s="22"/>
       <c r="T187" s="21"/>
@@ -12825,7 +12835,7 @@
       <c r="N188" s="21"/>
       <c r="O188" s="21"/>
       <c r="P188" s="21"/>
-      <c r="Q188" s="21"/>
+      <c r="Q188" s="37"/>
       <c r="R188" s="21"/>
       <c r="S188" s="22"/>
       <c r="T188" s="21"/>
@@ -12876,7 +12886,7 @@
       <c r="N189" s="21"/>
       <c r="O189" s="21"/>
       <c r="P189" s="21"/>
-      <c r="Q189" s="21"/>
+      <c r="Q189" s="37"/>
       <c r="R189" s="21"/>
       <c r="S189" s="22"/>
       <c r="T189" s="21"/>
@@ -12927,7 +12937,7 @@
       <c r="N190" s="21"/>
       <c r="O190" s="21"/>
       <c r="P190" s="21"/>
-      <c r="Q190" s="21"/>
+      <c r="Q190" s="37"/>
       <c r="R190" s="21"/>
       <c r="S190" s="22"/>
       <c r="T190" s="21"/>
@@ -12978,7 +12988,7 @@
       <c r="N191" s="21"/>
       <c r="O191" s="21"/>
       <c r="P191" s="21"/>
-      <c r="Q191" s="21"/>
+      <c r="Q191" s="37"/>
       <c r="R191" s="21"/>
       <c r="S191" s="22"/>
       <c r="T191" s="21"/>
@@ -13029,7 +13039,7 @@
       <c r="N192" s="21"/>
       <c r="O192" s="21"/>
       <c r="P192" s="21"/>
-      <c r="Q192" s="21"/>
+      <c r="Q192" s="37"/>
       <c r="R192" s="21"/>
       <c r="S192" s="22"/>
       <c r="T192" s="21"/>
@@ -13080,7 +13090,7 @@
       <c r="N193" s="21"/>
       <c r="O193" s="21"/>
       <c r="P193" s="21"/>
-      <c r="Q193" s="21"/>
+      <c r="Q193" s="37"/>
       <c r="R193" s="21"/>
       <c r="S193" s="22"/>
       <c r="T193" s="21"/>
@@ -13131,7 +13141,7 @@
       <c r="N194" s="21"/>
       <c r="O194" s="21"/>
       <c r="P194" s="21"/>
-      <c r="Q194" s="21"/>
+      <c r="Q194" s="37"/>
       <c r="R194" s="21"/>
       <c r="S194" s="22"/>
       <c r="T194" s="21"/>
@@ -13182,7 +13192,7 @@
       <c r="N195" s="21"/>
       <c r="O195" s="21"/>
       <c r="P195" s="21"/>
-      <c r="Q195" s="21"/>
+      <c r="Q195" s="37"/>
       <c r="R195" s="21"/>
       <c r="S195" s="22"/>
       <c r="T195" s="21"/>
@@ -13233,7 +13243,7 @@
       <c r="N196" s="21"/>
       <c r="O196" s="21"/>
       <c r="P196" s="21"/>
-      <c r="Q196" s="21"/>
+      <c r="Q196" s="37"/>
       <c r="R196" s="21"/>
       <c r="S196" s="22"/>
       <c r="T196" s="21"/>
@@ -13284,7 +13294,7 @@
       <c r="N197" s="21"/>
       <c r="O197" s="21"/>
       <c r="P197" s="21"/>
-      <c r="Q197" s="21"/>
+      <c r="Q197" s="37"/>
       <c r="R197" s="21"/>
       <c r="S197" s="22"/>
       <c r="T197" s="21"/>
@@ -13335,7 +13345,7 @@
       <c r="N198" s="21"/>
       <c r="O198" s="21"/>
       <c r="P198" s="21"/>
-      <c r="Q198" s="21"/>
+      <c r="Q198" s="37"/>
       <c r="R198" s="21"/>
       <c r="S198" s="22"/>
       <c r="T198" s="21"/>
@@ -13386,7 +13396,7 @@
       <c r="N199" s="21"/>
       <c r="O199" s="21"/>
       <c r="P199" s="21"/>
-      <c r="Q199" s="21"/>
+      <c r="Q199" s="37"/>
       <c r="R199" s="21"/>
       <c r="S199" s="22"/>
       <c r="T199" s="21"/>
@@ -13437,7 +13447,7 @@
       <c r="N200" s="21"/>
       <c r="O200" s="21"/>
       <c r="P200" s="21"/>
-      <c r="Q200" s="21"/>
+      <c r="Q200" s="37"/>
       <c r="R200" s="21"/>
       <c r="S200" s="22"/>
       <c r="T200" s="21"/>
@@ -13488,7 +13498,7 @@
       <c r="N201" s="21"/>
       <c r="O201" s="21"/>
       <c r="P201" s="21"/>
-      <c r="Q201" s="21"/>
+      <c r="Q201" s="37"/>
       <c r="R201" s="21"/>
       <c r="S201" s="22"/>
       <c r="T201" s="21"/>
@@ -13539,7 +13549,7 @@
       <c r="N202" s="21"/>
       <c r="O202" s="21"/>
       <c r="P202" s="21"/>
-      <c r="Q202" s="21"/>
+      <c r="Q202" s="37"/>
       <c r="R202" s="21"/>
       <c r="S202" s="22"/>
       <c r="T202" s="21"/>
@@ -13590,7 +13600,7 @@
       <c r="N203" s="21"/>
       <c r="O203" s="21"/>
       <c r="P203" s="21"/>
-      <c r="Q203" s="21"/>
+      <c r="Q203" s="37"/>
       <c r="R203" s="21"/>
       <c r="S203" s="22"/>
       <c r="T203" s="21"/>
@@ -13641,7 +13651,7 @@
       <c r="N204" s="21"/>
       <c r="O204" s="21"/>
       <c r="P204" s="21"/>
-      <c r="Q204" s="21"/>
+      <c r="Q204" s="37"/>
       <c r="R204" s="21"/>
       <c r="S204" s="22"/>
       <c r="T204" s="21"/>
@@ -13692,7 +13702,7 @@
       <c r="N205" s="21"/>
       <c r="O205" s="21"/>
       <c r="P205" s="21"/>
-      <c r="Q205" s="21"/>
+      <c r="Q205" s="37"/>
       <c r="R205" s="21"/>
       <c r="S205" s="22"/>
       <c r="T205" s="21"/>
@@ -13743,7 +13753,7 @@
       <c r="N206" s="21"/>
       <c r="O206" s="21"/>
       <c r="P206" s="21"/>
-      <c r="Q206" s="21"/>
+      <c r="Q206" s="37"/>
       <c r="R206" s="21"/>
       <c r="S206" s="22"/>
       <c r="T206" s="21"/>
@@ -13794,7 +13804,7 @@
       <c r="N207" s="21"/>
       <c r="O207" s="21"/>
       <c r="P207" s="21"/>
-      <c r="Q207" s="21"/>
+      <c r="Q207" s="37"/>
       <c r="R207" s="21"/>
       <c r="S207" s="22"/>
       <c r="T207" s="21"/>
@@ -13845,7 +13855,7 @@
       <c r="N208" s="21"/>
       <c r="O208" s="21"/>
       <c r="P208" s="21"/>
-      <c r="Q208" s="21"/>
+      <c r="Q208" s="37"/>
       <c r="R208" s="21"/>
       <c r="S208" s="22"/>
       <c r="T208" s="21"/>
@@ -13896,7 +13906,7 @@
       <c r="N209" s="21"/>
       <c r="O209" s="21"/>
       <c r="P209" s="21"/>
-      <c r="Q209" s="21"/>
+      <c r="Q209" s="37"/>
       <c r="R209" s="21"/>
       <c r="S209" s="22"/>
       <c r="T209" s="21"/>
@@ -13947,7 +13957,7 @@
       <c r="N210" s="21"/>
       <c r="O210" s="21"/>
       <c r="P210" s="21"/>
-      <c r="Q210" s="21"/>
+      <c r="Q210" s="37"/>
       <c r="R210" s="21"/>
       <c r="S210" s="22"/>
       <c r="T210" s="21"/>
@@ -13998,7 +14008,7 @@
       <c r="N211" s="21"/>
       <c r="O211" s="21"/>
       <c r="P211" s="21"/>
-      <c r="Q211" s="21"/>
+      <c r="Q211" s="37"/>
       <c r="R211" s="21"/>
       <c r="S211" s="22"/>
       <c r="T211" s="21"/>
@@ -14049,7 +14059,7 @@
       <c r="N212" s="21"/>
       <c r="O212" s="21"/>
       <c r="P212" s="21"/>
-      <c r="Q212" s="21"/>
+      <c r="Q212" s="37"/>
       <c r="R212" s="21"/>
       <c r="S212" s="22"/>
       <c r="T212" s="21"/>
@@ -14100,7 +14110,7 @@
       <c r="N213" s="21"/>
       <c r="O213" s="21"/>
       <c r="P213" s="21"/>
-      <c r="Q213" s="21"/>
+      <c r="Q213" s="37"/>
       <c r="R213" s="21"/>
       <c r="S213" s="22"/>
       <c r="T213" s="21"/>
@@ -14151,7 +14161,7 @@
       <c r="N214" s="21"/>
       <c r="O214" s="21"/>
       <c r="P214" s="21"/>
-      <c r="Q214" s="21"/>
+      <c r="Q214" s="37"/>
       <c r="R214" s="21"/>
       <c r="S214" s="22"/>
       <c r="T214" s="21"/>
@@ -14202,7 +14212,7 @@
       <c r="N215" s="21"/>
       <c r="O215" s="21"/>
       <c r="P215" s="21"/>
-      <c r="Q215" s="21"/>
+      <c r="Q215" s="37"/>
       <c r="R215" s="21"/>
       <c r="S215" s="22"/>
       <c r="T215" s="21"/>
@@ -14253,7 +14263,7 @@
       <c r="N216" s="21"/>
       <c r="O216" s="21"/>
       <c r="P216" s="21"/>
-      <c r="Q216" s="21"/>
+      <c r="Q216" s="37"/>
       <c r="R216" s="21"/>
       <c r="S216" s="22"/>
       <c r="T216" s="21"/>
@@ -14304,7 +14314,7 @@
       <c r="N217" s="21"/>
       <c r="O217" s="21"/>
       <c r="P217" s="21"/>
-      <c r="Q217" s="21"/>
+      <c r="Q217" s="37"/>
       <c r="R217" s="21"/>
       <c r="S217" s="22"/>
       <c r="T217" s="21"/>
@@ -14355,7 +14365,7 @@
       <c r="N218" s="21"/>
       <c r="O218" s="21"/>
       <c r="P218" s="21"/>
-      <c r="Q218" s="21"/>
+      <c r="Q218" s="37"/>
       <c r="R218" s="21"/>
       <c r="S218" s="22"/>
       <c r="T218" s="21"/>
@@ -14406,7 +14416,7 @@
       <c r="N219" s="21"/>
       <c r="O219" s="21"/>
       <c r="P219" s="21"/>
-      <c r="Q219" s="21"/>
+      <c r="Q219" s="37"/>
       <c r="R219" s="21"/>
       <c r="S219" s="22"/>
       <c r="T219" s="21"/>
@@ -14457,7 +14467,7 @@
       <c r="N220" s="21"/>
       <c r="O220" s="21"/>
       <c r="P220" s="21"/>
-      <c r="Q220" s="21"/>
+      <c r="Q220" s="37"/>
       <c r="R220" s="21"/>
       <c r="S220" s="22"/>
       <c r="T220" s="21"/>
@@ -14508,7 +14518,7 @@
       <c r="N221" s="21"/>
       <c r="O221" s="21"/>
       <c r="P221" s="21"/>
-      <c r="Q221" s="21"/>
+      <c r="Q221" s="37"/>
       <c r="R221" s="21"/>
       <c r="S221" s="22"/>
       <c r="T221" s="21"/>
@@ -14559,7 +14569,7 @@
       <c r="N222" s="21"/>
       <c r="O222" s="21"/>
       <c r="P222" s="21"/>
-      <c r="Q222" s="21"/>
+      <c r="Q222" s="37"/>
       <c r="R222" s="21"/>
       <c r="S222" s="22"/>
       <c r="T222" s="21"/>
@@ -14610,7 +14620,7 @@
       <c r="N223" s="21"/>
       <c r="O223" s="21"/>
       <c r="P223" s="21"/>
-      <c r="Q223" s="21"/>
+      <c r="Q223" s="37"/>
       <c r="R223" s="21"/>
       <c r="S223" s="22"/>
       <c r="T223" s="21"/>
@@ -14661,7 +14671,7 @@
       <c r="N224" s="21"/>
       <c r="O224" s="21"/>
       <c r="P224" s="21"/>
-      <c r="Q224" s="21"/>
+      <c r="Q224" s="37"/>
       <c r="R224" s="21"/>
       <c r="S224" s="22"/>
       <c r="T224" s="21"/>
@@ -14712,7 +14722,7 @@
       <c r="N225" s="21"/>
       <c r="O225" s="21"/>
       <c r="P225" s="21"/>
-      <c r="Q225" s="21"/>
+      <c r="Q225" s="37"/>
       <c r="R225" s="21"/>
       <c r="S225" s="22"/>
       <c r="T225" s="21"/>
@@ -14763,7 +14773,7 @@
       <c r="N226" s="21"/>
       <c r="O226" s="21"/>
       <c r="P226" s="21"/>
-      <c r="Q226" s="21"/>
+      <c r="Q226" s="37"/>
       <c r="R226" s="21"/>
       <c r="S226" s="22"/>
       <c r="T226" s="21"/>
@@ -14814,7 +14824,7 @@
       <c r="N227" s="21"/>
       <c r="O227" s="21"/>
       <c r="P227" s="21"/>
-      <c r="Q227" s="21"/>
+      <c r="Q227" s="37"/>
       <c r="R227" s="21"/>
       <c r="S227" s="22"/>
       <c r="T227" s="21"/>
@@ -14865,7 +14875,7 @@
       <c r="N228" s="21"/>
       <c r="O228" s="21"/>
       <c r="P228" s="21"/>
-      <c r="Q228" s="21"/>
+      <c r="Q228" s="37"/>
       <c r="R228" s="21"/>
       <c r="S228" s="22"/>
       <c r="T228" s="21"/>
@@ -14916,7 +14926,7 @@
       <c r="N229" s="21"/>
       <c r="O229" s="21"/>
       <c r="P229" s="21"/>
-      <c r="Q229" s="21"/>
+      <c r="Q229" s="37"/>
       <c r="R229" s="21"/>
       <c r="S229" s="22"/>
       <c r="T229" s="21"/>
@@ -14967,7 +14977,7 @@
       <c r="N230" s="21"/>
       <c r="O230" s="21"/>
       <c r="P230" s="21"/>
-      <c r="Q230" s="21"/>
+      <c r="Q230" s="37"/>
       <c r="R230" s="21"/>
       <c r="S230" s="22"/>
       <c r="T230" s="21"/>
@@ -15018,7 +15028,7 @@
       <c r="N231" s="21"/>
       <c r="O231" s="21"/>
       <c r="P231" s="21"/>
-      <c r="Q231" s="21"/>
+      <c r="Q231" s="37"/>
       <c r="R231" s="21"/>
       <c r="S231" s="22"/>
       <c r="T231" s="21"/>
@@ -15069,7 +15079,7 @@
       <c r="N232" s="21"/>
       <c r="O232" s="21"/>
       <c r="P232" s="21"/>
-      <c r="Q232" s="21"/>
+      <c r="Q232" s="37"/>
       <c r="R232" s="21"/>
       <c r="S232" s="22"/>
       <c r="T232" s="21"/>
@@ -15120,7 +15130,7 @@
       <c r="N233" s="21"/>
       <c r="O233" s="21"/>
       <c r="P233" s="21"/>
-      <c r="Q233" s="21"/>
+      <c r="Q233" s="37"/>
       <c r="R233" s="21"/>
       <c r="S233" s="22"/>
       <c r="T233" s="21"/>
@@ -15171,7 +15181,7 @@
       <c r="N234" s="21"/>
       <c r="O234" s="21"/>
       <c r="P234" s="21"/>
-      <c r="Q234" s="21"/>
+      <c r="Q234" s="37"/>
       <c r="R234" s="21"/>
       <c r="S234" s="22"/>
       <c r="T234" s="21"/>
@@ -15222,7 +15232,7 @@
       <c r="N235" s="21"/>
       <c r="O235" s="21"/>
       <c r="P235" s="21"/>
-      <c r="Q235" s="21"/>
+      <c r="Q235" s="37"/>
       <c r="R235" s="21"/>
       <c r="S235" s="22"/>
       <c r="T235" s="21"/>
@@ -15273,7 +15283,7 @@
       <c r="N236" s="21"/>
       <c r="O236" s="21"/>
       <c r="P236" s="21"/>
-      <c r="Q236" s="21"/>
+      <c r="Q236" s="37"/>
       <c r="R236" s="21"/>
       <c r="S236" s="22"/>
       <c r="T236" s="21"/>
@@ -15324,7 +15334,7 @@
       <c r="N237" s="21"/>
       <c r="O237" s="21"/>
       <c r="P237" s="21"/>
-      <c r="Q237" s="21"/>
+      <c r="Q237" s="37"/>
       <c r="R237" s="21"/>
       <c r="S237" s="22"/>
       <c r="T237" s="21"/>
@@ -15375,7 +15385,7 @@
       <c r="N238" s="21"/>
       <c r="O238" s="21"/>
       <c r="P238" s="21"/>
-      <c r="Q238" s="21"/>
+      <c r="Q238" s="37"/>
       <c r="R238" s="21"/>
       <c r="S238" s="22"/>
       <c r="T238" s="21"/>
@@ -15426,7 +15436,7 @@
       <c r="N239" s="21"/>
       <c r="O239" s="21"/>
       <c r="P239" s="21"/>
-      <c r="Q239" s="21"/>
+      <c r="Q239" s="37"/>
       <c r="R239" s="21"/>
       <c r="S239" s="22"/>
       <c r="T239" s="21"/>
@@ -15477,7 +15487,7 @@
       <c r="N240" s="21"/>
       <c r="O240" s="21"/>
       <c r="P240" s="21"/>
-      <c r="Q240" s="21"/>
+      <c r="Q240" s="37"/>
       <c r="R240" s="21"/>
       <c r="S240" s="22"/>
       <c r="T240" s="21"/>
@@ -15528,7 +15538,7 @@
       <c r="N241" s="21"/>
       <c r="O241" s="21"/>
       <c r="P241" s="21"/>
-      <c r="Q241" s="21"/>
+      <c r="Q241" s="37"/>
       <c r="R241" s="21"/>
       <c r="S241" s="22"/>
       <c r="T241" s="21"/>
@@ -15579,7 +15589,7 @@
       <c r="N242" s="21"/>
       <c r="O242" s="21"/>
       <c r="P242" s="21"/>
-      <c r="Q242" s="21"/>
+      <c r="Q242" s="37"/>
       <c r="R242" s="21"/>
       <c r="S242" s="22"/>
       <c r="T242" s="21"/>
@@ -15630,7 +15640,7 @@
       <c r="N243" s="21"/>
       <c r="O243" s="21"/>
       <c r="P243" s="21"/>
-      <c r="Q243" s="21"/>
+      <c r="Q243" s="37"/>
       <c r="R243" s="21"/>
       <c r="S243" s="22"/>
       <c r="T243" s="21"/>
@@ -15681,7 +15691,7 @@
       <c r="N244" s="21"/>
       <c r="O244" s="21"/>
       <c r="P244" s="21"/>
-      <c r="Q244" s="21"/>
+      <c r="Q244" s="37"/>
       <c r="R244" s="21"/>
       <c r="S244" s="22"/>
       <c r="T244" s="21"/>
@@ -15732,7 +15742,7 @@
       <c r="N245" s="21"/>
       <c r="O245" s="21"/>
       <c r="P245" s="21"/>
-      <c r="Q245" s="21"/>
+      <c r="Q245" s="37"/>
       <c r="R245" s="21"/>
       <c r="S245" s="22"/>
       <c r="T245" s="21"/>
@@ -15783,7 +15793,7 @@
       <c r="N246" s="21"/>
       <c r="O246" s="21"/>
       <c r="P246" s="21"/>
-      <c r="Q246" s="21"/>
+      <c r="Q246" s="37"/>
       <c r="R246" s="21"/>
       <c r="S246" s="22"/>
       <c r="T246" s="21"/>
@@ -15834,7 +15844,7 @@
       <c r="N247" s="21"/>
       <c r="O247" s="21"/>
       <c r="P247" s="21"/>
-      <c r="Q247" s="21"/>
+      <c r="Q247" s="37"/>
       <c r="R247" s="21"/>
       <c r="S247" s="22"/>
       <c r="T247" s="21"/>
@@ -15885,7 +15895,7 @@
       <c r="N248" s="21"/>
       <c r="O248" s="21"/>
       <c r="P248" s="21"/>
-      <c r="Q248" s="21"/>
+      <c r="Q248" s="37"/>
       <c r="R248" s="21"/>
       <c r="S248" s="22"/>
       <c r="T248" s="21"/>
@@ -15936,7 +15946,7 @@
       <c r="N249" s="21"/>
       <c r="O249" s="21"/>
       <c r="P249" s="21"/>
-      <c r="Q249" s="21"/>
+      <c r="Q249" s="37"/>
       <c r="R249" s="21"/>
       <c r="S249" s="22"/>
       <c r="T249" s="21"/>
@@ -15987,7 +15997,7 @@
       <c r="N250" s="21"/>
       <c r="O250" s="21"/>
       <c r="P250" s="21"/>
-      <c r="Q250" s="21"/>
+      <c r="Q250" s="37"/>
       <c r="R250" s="21"/>
       <c r="S250" s="22"/>
       <c r="T250" s="21"/>
@@ -16038,7 +16048,7 @@
       <c r="N251" s="21"/>
       <c r="O251" s="21"/>
       <c r="P251" s="21"/>
-      <c r="Q251" s="21"/>
+      <c r="Q251" s="37"/>
       <c r="R251" s="21"/>
       <c r="S251" s="22"/>
       <c r="T251" s="21"/>
@@ -16089,7 +16099,7 @@
       <c r="N252" s="21"/>
       <c r="O252" s="21"/>
       <c r="P252" s="21"/>
-      <c r="Q252" s="21"/>
+      <c r="Q252" s="37"/>
       <c r="R252" s="21"/>
       <c r="S252" s="22"/>
       <c r="T252" s="21"/>
@@ -16140,7 +16150,7 @@
       <c r="N253" s="21"/>
       <c r="O253" s="21"/>
       <c r="P253" s="21"/>
-      <c r="Q253" s="21"/>
+      <c r="Q253" s="37"/>
       <c r="R253" s="21"/>
       <c r="S253" s="22"/>
       <c r="T253" s="21"/>
@@ -16191,7 +16201,7 @@
       <c r="N254" s="21"/>
       <c r="O254" s="21"/>
       <c r="P254" s="21"/>
-      <c r="Q254" s="21"/>
+      <c r="Q254" s="37"/>
       <c r="R254" s="21"/>
       <c r="S254" s="22"/>
       <c r="T254" s="21"/>
@@ -16242,7 +16252,7 @@
       <c r="N255" s="21"/>
       <c r="O255" s="21"/>
       <c r="P255" s="21"/>
-      <c r="Q255" s="21"/>
+      <c r="Q255" s="37"/>
       <c r="R255" s="21"/>
       <c r="S255" s="22"/>
       <c r="T255" s="21"/>
@@ -16293,7 +16303,7 @@
       <c r="N256" s="21"/>
       <c r="O256" s="21"/>
       <c r="P256" s="21"/>
-      <c r="Q256" s="21"/>
+      <c r="Q256" s="37"/>
       <c r="R256" s="21"/>
       <c r="S256" s="22"/>
       <c r="T256" s="21"/>
@@ -16344,7 +16354,7 @@
       <c r="N257" s="21"/>
       <c r="O257" s="21"/>
       <c r="P257" s="21"/>
-      <c r="Q257" s="21"/>
+      <c r="Q257" s="37"/>
       <c r="R257" s="21"/>
       <c r="S257" s="22"/>
       <c r="T257" s="21"/>
@@ -16395,7 +16405,7 @@
       <c r="N258" s="21"/>
       <c r="O258" s="21"/>
       <c r="P258" s="21"/>
-      <c r="Q258" s="21"/>
+      <c r="Q258" s="37"/>
       <c r="R258" s="21"/>
       <c r="S258" s="22"/>
       <c r="T258" s="21"/>
@@ -16446,7 +16456,7 @@
       <c r="N259" s="21"/>
       <c r="O259" s="21"/>
       <c r="P259" s="21"/>
-      <c r="Q259" s="21"/>
+      <c r="Q259" s="37"/>
       <c r="R259" s="21"/>
       <c r="S259" s="22"/>
       <c r="T259" s="21"/>
@@ -16497,7 +16507,7 @@
       <c r="N260" s="21"/>
       <c r="O260" s="21"/>
       <c r="P260" s="21"/>
-      <c r="Q260" s="21"/>
+      <c r="Q260" s="37"/>
       <c r="R260" s="21"/>
       <c r="S260" s="22"/>
       <c r="T260" s="21"/>
@@ -16548,7 +16558,7 @@
       <c r="N261" s="21"/>
       <c r="O261" s="21"/>
       <c r="P261" s="21"/>
-      <c r="Q261" s="21"/>
+      <c r="Q261" s="37"/>
       <c r="R261" s="21"/>
       <c r="S261" s="22"/>
       <c r="T261" s="21"/>
@@ -16599,7 +16609,7 @@
       <c r="N262" s="21"/>
       <c r="O262" s="21"/>
       <c r="P262" s="21"/>
-      <c r="Q262" s="21"/>
+      <c r="Q262" s="37"/>
       <c r="R262" s="21"/>
       <c r="S262" s="22"/>
       <c r="T262" s="21"/>
@@ -16650,7 +16660,7 @@
       <c r="N263" s="21"/>
       <c r="O263" s="21"/>
       <c r="P263" s="21"/>
-      <c r="Q263" s="21"/>
+      <c r="Q263" s="37"/>
       <c r="R263" s="21"/>
       <c r="S263" s="22"/>
       <c r="T263" s="21"/>
@@ -16701,7 +16711,7 @@
       <c r="N264" s="21"/>
       <c r="O264" s="21"/>
       <c r="P264" s="21"/>
-      <c r="Q264" s="21"/>
+      <c r="Q264" s="37"/>
       <c r="R264" s="21"/>
       <c r="S264" s="22"/>
       <c r="T264" s="21"/>
@@ -16752,7 +16762,7 @@
       <c r="N265" s="21"/>
       <c r="O265" s="21"/>
       <c r="P265" s="21"/>
-      <c r="Q265" s="21"/>
+      <c r="Q265" s="37"/>
       <c r="R265" s="21"/>
       <c r="S265" s="22"/>
       <c r="T265" s="21"/>
@@ -16803,7 +16813,7 @@
       <c r="N266" s="21"/>
       <c r="O266" s="21"/>
       <c r="P266" s="21"/>
-      <c r="Q266" s="21"/>
+      <c r="Q266" s="37"/>
       <c r="R266" s="21"/>
       <c r="S266" s="22"/>
       <c r="T266" s="21"/>
@@ -16854,7 +16864,7 @@
       <c r="N267" s="21"/>
       <c r="O267" s="21"/>
       <c r="P267" s="21"/>
-      <c r="Q267" s="21"/>
+      <c r="Q267" s="37"/>
       <c r="R267" s="21"/>
       <c r="S267" s="22"/>
       <c r="T267" s="21"/>
@@ -16905,7 +16915,7 @@
       <c r="N268" s="21"/>
       <c r="O268" s="21"/>
       <c r="P268" s="21"/>
-      <c r="Q268" s="21"/>
+      <c r="Q268" s="37"/>
       <c r="R268" s="21"/>
       <c r="S268" s="22"/>
       <c r="T268" s="21"/>
@@ -16956,7 +16966,7 @@
       <c r="N269" s="21"/>
       <c r="O269" s="21"/>
       <c r="P269" s="21"/>
-      <c r="Q269" s="21"/>
+      <c r="Q269" s="37"/>
       <c r="R269" s="21"/>
       <c r="S269" s="22"/>
       <c r="T269" s="21"/>
@@ -17007,7 +17017,7 @@
       <c r="N270" s="21"/>
       <c r="O270" s="21"/>
       <c r="P270" s="21"/>
-      <c r="Q270" s="21"/>
+      <c r="Q270" s="37"/>
       <c r="R270" s="21"/>
       <c r="S270" s="22"/>
       <c r="T270" s="21"/>
@@ -17058,7 +17068,7 @@
       <c r="N271" s="21"/>
       <c r="O271" s="21"/>
       <c r="P271" s="21"/>
-      <c r="Q271" s="21"/>
+      <c r="Q271" s="37"/>
       <c r="R271" s="21"/>
       <c r="S271" s="22"/>
       <c r="T271" s="21"/>
@@ -17109,7 +17119,7 @@
       <c r="N272" s="21"/>
       <c r="O272" s="21"/>
       <c r="P272" s="21"/>
-      <c r="Q272" s="21"/>
+      <c r="Q272" s="37"/>
       <c r="R272" s="21"/>
       <c r="S272" s="22"/>
       <c r="T272" s="21"/>
@@ -17160,7 +17170,7 @@
       <c r="N273" s="21"/>
       <c r="O273" s="21"/>
       <c r="P273" s="21"/>
-      <c r="Q273" s="21"/>
+      <c r="Q273" s="37"/>
       <c r="R273" s="21"/>
       <c r="S273" s="22"/>
       <c r="T273" s="21"/>
@@ -17211,7 +17221,7 @@
       <c r="N274" s="21"/>
       <c r="O274" s="21"/>
       <c r="P274" s="21"/>
-      <c r="Q274" s="21"/>
+      <c r="Q274" s="37"/>
       <c r="R274" s="21"/>
       <c r="S274" s="22"/>
       <c r="T274" s="21"/>
@@ -17262,7 +17272,7 @@
       <c r="N275" s="21"/>
       <c r="O275" s="21"/>
       <c r="P275" s="21"/>
-      <c r="Q275" s="21"/>
+      <c r="Q275" s="37"/>
       <c r="R275" s="21"/>
       <c r="S275" s="22"/>
       <c r="T275" s="21"/>
@@ -17313,7 +17323,7 @@
       <c r="N276" s="21"/>
       <c r="O276" s="21"/>
       <c r="P276" s="21"/>
-      <c r="Q276" s="21"/>
+      <c r="Q276" s="37"/>
       <c r="R276" s="21"/>
       <c r="S276" s="22"/>
       <c r="T276" s="21"/>
@@ -17364,7 +17374,7 @@
       <c r="N277" s="21"/>
       <c r="O277" s="21"/>
       <c r="P277" s="21"/>
-      <c r="Q277" s="21"/>
+      <c r="Q277" s="37"/>
       <c r="R277" s="21"/>
       <c r="S277" s="22"/>
       <c r="T277" s="21"/>
@@ -17415,7 +17425,7 @@
       <c r="N278" s="21"/>
       <c r="O278" s="21"/>
       <c r="P278" s="21"/>
-      <c r="Q278" s="21"/>
+      <c r="Q278" s="37"/>
       <c r="R278" s="21"/>
       <c r="S278" s="22"/>
       <c r="T278" s="21"/>
@@ -17466,7 +17476,7 @@
       <c r="N279" s="21"/>
       <c r="O279" s="21"/>
       <c r="P279" s="21"/>
-      <c r="Q279" s="21"/>
+      <c r="Q279" s="37"/>
       <c r="R279" s="21"/>
       <c r="S279" s="22"/>
       <c r="T279" s="21"/>
@@ -17517,7 +17527,7 @@
       <c r="N280" s="21"/>
       <c r="O280" s="21"/>
       <c r="P280" s="21"/>
-      <c r="Q280" s="21"/>
+      <c r="Q280" s="37"/>
       <c r="R280" s="21"/>
       <c r="S280" s="22"/>
       <c r="T280" s="21"/>
@@ -17568,7 +17578,7 @@
       <c r="N281" s="21"/>
       <c r="O281" s="21"/>
       <c r="P281" s="21"/>
-      <c r="Q281" s="21"/>
+      <c r="Q281" s="37"/>
       <c r="R281" s="21"/>
       <c r="S281" s="22"/>
       <c r="T281" s="21"/>
@@ -17619,7 +17629,7 @@
       <c r="N282" s="21"/>
       <c r="O282" s="21"/>
       <c r="P282" s="21"/>
-      <c r="Q282" s="21"/>
+      <c r="Q282" s="37"/>
       <c r="R282" s="21"/>
       <c r="S282" s="22"/>
       <c r="T282" s="21"/>
@@ -17670,7 +17680,7 @@
       <c r="N283" s="21"/>
       <c r="O283" s="21"/>
       <c r="P283" s="21"/>
-      <c r="Q283" s="21"/>
+      <c r="Q283" s="37"/>
       <c r="R283" s="21"/>
       <c r="S283" s="22"/>
       <c r="T283" s="21"/>
@@ -17721,7 +17731,7 @@
       <c r="N284" s="21"/>
       <c r="O284" s="21"/>
       <c r="P284" s="21"/>
-      <c r="Q284" s="21"/>
+      <c r="Q284" s="37"/>
       <c r="R284" s="21"/>
       <c r="S284" s="22"/>
       <c r="T284" s="21"/>
@@ -17772,7 +17782,7 @@
       <c r="N285" s="21"/>
       <c r="O285" s="21"/>
       <c r="P285" s="21"/>
-      <c r="Q285" s="21"/>
+      <c r="Q285" s="37"/>
       <c r="R285" s="21"/>
       <c r="S285" s="22"/>
       <c r="T285" s="21"/>
@@ -17823,7 +17833,7 @@
       <c r="N286" s="21"/>
       <c r="O286" s="21"/>
       <c r="P286" s="21"/>
-      <c r="Q286" s="21"/>
+      <c r="Q286" s="37"/>
       <c r="R286" s="21"/>
       <c r="S286" s="22"/>
       <c r="T286" s="21"/>
@@ -17874,7 +17884,7 @@
       <c r="N287" s="21"/>
       <c r="O287" s="21"/>
       <c r="P287" s="21"/>
-      <c r="Q287" s="21"/>
+      <c r="Q287" s="37"/>
       <c r="R287" s="21"/>
       <c r="S287" s="22"/>
       <c r="T287" s="21"/>
@@ -17925,7 +17935,7 @@
       <c r="N288" s="21"/>
       <c r="O288" s="21"/>
       <c r="P288" s="21"/>
-      <c r="Q288" s="21"/>
+      <c r="Q288" s="37"/>
       <c r="R288" s="21"/>
       <c r="S288" s="22"/>
       <c r="T288" s="21"/>
@@ -17976,7 +17986,7 @@
       <c r="N289" s="21"/>
       <c r="O289" s="21"/>
       <c r="P289" s="21"/>
-      <c r="Q289" s="21"/>
+      <c r="Q289" s="37"/>
       <c r="R289" s="21"/>
       <c r="S289" s="22"/>
       <c r="T289" s="21"/>
@@ -18027,7 +18037,7 @@
       <c r="N290" s="21"/>
       <c r="O290" s="21"/>
       <c r="P290" s="21"/>
-      <c r="Q290" s="21"/>
+      <c r="Q290" s="37"/>
       <c r="R290" s="21"/>
       <c r="S290" s="22"/>
       <c r="T290" s="21"/>
@@ -18078,7 +18088,7 @@
       <c r="N291" s="21"/>
       <c r="O291" s="21"/>
       <c r="P291" s="21"/>
-      <c r="Q291" s="21"/>
+      <c r="Q291" s="37"/>
       <c r="R291" s="21"/>
       <c r="S291" s="22"/>
       <c r="T291" s="21"/>
@@ -18129,7 +18139,7 @@
       <c r="N292" s="21"/>
       <c r="O292" s="21"/>
       <c r="P292" s="21"/>
-      <c r="Q292" s="21"/>
+      <c r="Q292" s="37"/>
       <c r="R292" s="21"/>
       <c r="S292" s="22"/>
       <c r="T292" s="21"/>
@@ -18180,7 +18190,7 @@
       <c r="N293" s="21"/>
       <c r="O293" s="21"/>
       <c r="P293" s="21"/>
-      <c r="Q293" s="21"/>
+      <c r="Q293" s="37"/>
       <c r="R293" s="21"/>
       <c r="S293" s="22"/>
       <c r="T293" s="21"/>
@@ -18231,7 +18241,7 @@
       <c r="N294" s="21"/>
       <c r="O294" s="21"/>
       <c r="P294" s="21"/>
-      <c r="Q294" s="21"/>
+      <c r="Q294" s="37"/>
       <c r="R294" s="21"/>
       <c r="S294" s="22"/>
       <c r="T294" s="21"/>
@@ -18282,7 +18292,7 @@
       <c r="N295" s="21"/>
       <c r="O295" s="21"/>
       <c r="P295" s="21"/>
-      <c r="Q295" s="21"/>
+      <c r="Q295" s="37"/>
       <c r="R295" s="21"/>
       <c r="S295" s="22"/>
       <c r="T295" s="21"/>
@@ -18333,7 +18343,7 @@
       <c r="N296" s="21"/>
       <c r="O296" s="21"/>
       <c r="P296" s="21"/>
-      <c r="Q296" s="21"/>
+      <c r="Q296" s="37"/>
       <c r="R296" s="21"/>
       <c r="S296" s="22"/>
       <c r="T296" s="21"/>
@@ -18384,7 +18394,7 @@
       <c r="N297" s="21"/>
       <c r="O297" s="21"/>
       <c r="P297" s="21"/>
-      <c r="Q297" s="21"/>
+      <c r="Q297" s="37"/>
       <c r="R297" s="21"/>
       <c r="S297" s="22"/>
       <c r="T297" s="21"/>
@@ -18435,7 +18445,7 @@
       <c r="N298" s="21"/>
       <c r="O298" s="21"/>
       <c r="P298" s="21"/>
-      <c r="Q298" s="21"/>
+      <c r="Q298" s="37"/>
       <c r="R298" s="21"/>
       <c r="S298" s="22"/>
       <c r="T298" s="21"/>
@@ -18486,7 +18496,7 @@
       <c r="N299" s="21"/>
       <c r="O299" s="21"/>
       <c r="P299" s="21"/>
-      <c r="Q299" s="21"/>
+      <c r="Q299" s="37"/>
       <c r="R299" s="21"/>
       <c r="S299" s="22"/>
       <c r="T299" s="21"/>
@@ -18537,7 +18547,7 @@
       <c r="N300" s="21"/>
       <c r="O300" s="21"/>
       <c r="P300" s="21"/>
-      <c r="Q300" s="21"/>
+      <c r="Q300" s="37"/>
       <c r="R300" s="21"/>
       <c r="S300" s="22"/>
       <c r="T300" s="21"/>
@@ -18588,7 +18598,7 @@
       <c r="N301" s="21"/>
       <c r="O301" s="21"/>
       <c r="P301" s="21"/>
-      <c r="Q301" s="21"/>
+      <c r="Q301" s="37"/>
       <c r="R301" s="21"/>
       <c r="S301" s="22"/>
       <c r="T301" s="21"/>
@@ -18639,7 +18649,7 @@
       <c r="N302" s="21"/>
       <c r="O302" s="21"/>
       <c r="P302" s="21"/>
-      <c r="Q302" s="21"/>
+      <c r="Q302" s="37"/>
       <c r="R302" s="21"/>
       <c r="S302" s="22"/>
       <c r="T302" s="21"/>
@@ -18690,7 +18700,7 @@
       <c r="N303" s="21"/>
       <c r="O303" s="21"/>
       <c r="P303" s="21"/>
-      <c r="Q303" s="21"/>
+      <c r="Q303" s="37"/>
       <c r="R303" s="21"/>
       <c r="S303" s="22"/>
       <c r="T303" s="21"/>
@@ -18741,7 +18751,7 @@
       <c r="N304" s="21"/>
       <c r="O304" s="21"/>
       <c r="P304" s="21"/>
-      <c r="Q304" s="21"/>
+      <c r="Q304" s="37"/>
       <c r="R304" s="21"/>
       <c r="S304" s="22"/>
       <c r="T304" s="21"/>
@@ -18792,7 +18802,7 @@
       <c r="N305" s="21"/>
       <c r="O305" s="21"/>
       <c r="P305" s="21"/>
-      <c r="Q305" s="21"/>
+      <c r="Q305" s="37"/>
       <c r="R305" s="21"/>
       <c r="S305" s="22"/>
       <c r="T305" s="21"/>
@@ -18843,7 +18853,7 @@
       <c r="N306" s="21"/>
       <c r="O306" s="21"/>
       <c r="P306" s="21"/>
-      <c r="Q306" s="21"/>
+      <c r="Q306" s="37"/>
       <c r="R306" s="21"/>
       <c r="S306" s="22"/>
       <c r="T306" s="21"/>
@@ -18894,7 +18904,7 @@
       <c r="N307" s="21"/>
       <c r="O307" s="21"/>
       <c r="P307" s="21"/>
-      <c r="Q307" s="21"/>
+      <c r="Q307" s="37"/>
       <c r="R307" s="21"/>
       <c r="S307" s="22"/>
       <c r="T307" s="21"/>
@@ -18945,7 +18955,7 @@
       <c r="N308" s="21"/>
       <c r="O308" s="21"/>
       <c r="P308" s="21"/>
-      <c r="Q308" s="21"/>
+      <c r="Q308" s="37"/>
       <c r="R308" s="21"/>
       <c r="S308" s="22"/>
       <c r="T308" s="21"/>
@@ -18996,7 +19006,7 @@
       <c r="N309" s="21"/>
       <c r="O309" s="21"/>
       <c r="P309" s="21"/>
-      <c r="Q309" s="21"/>
+      <c r="Q309" s="37"/>
       <c r="R309" s="21"/>
       <c r="S309" s="22"/>
       <c r="T309" s="21"/>
@@ -19047,7 +19057,7 @@
       <c r="N310" s="21"/>
       <c r="O310" s="21"/>
       <c r="P310" s="21"/>
-      <c r="Q310" s="21"/>
+      <c r="Q310" s="37"/>
       <c r="R310" s="21"/>
       <c r="S310" s="22"/>
       <c r="T310" s="21"/>
@@ -19098,7 +19108,7 @@
       <c r="N311" s="21"/>
       <c r="O311" s="21"/>
       <c r="P311" s="21"/>
-      <c r="Q311" s="21"/>
+      <c r="Q311" s="37"/>
       <c r="R311" s="21"/>
       <c r="S311" s="22"/>
       <c r="T311" s="21"/>
@@ -19149,7 +19159,7 @@
       <c r="N312" s="21"/>
       <c r="O312" s="21"/>
       <c r="P312" s="21"/>
-      <c r="Q312" s="21"/>
+      <c r="Q312" s="37"/>
       <c r="R312" s="21"/>
       <c r="S312" s="22"/>
       <c r="T312" s="21"/>
@@ -19200,7 +19210,7 @@
       <c r="N313" s="21"/>
       <c r="O313" s="21"/>
       <c r="P313" s="21"/>
-      <c r="Q313" s="21"/>
+      <c r="Q313" s="37"/>
       <c r="R313" s="21"/>
       <c r="S313" s="22"/>
       <c r="T313" s="21"/>
@@ -19251,7 +19261,7 @@
       <c r="N314" s="21"/>
       <c r="O314" s="21"/>
       <c r="P314" s="21"/>
-      <c r="Q314" s="21"/>
+      <c r="Q314" s="37"/>
       <c r="R314" s="21"/>
       <c r="S314" s="22"/>
       <c r="T314" s="21"/>
@@ -19302,7 +19312,7 @@
       <c r="N315" s="21"/>
       <c r="O315" s="21"/>
       <c r="P315" s="21"/>
-      <c r="Q315" s="21"/>
+      <c r="Q315" s="37"/>
       <c r="R315" s="21"/>
       <c r="S315" s="22"/>
       <c r="T315" s="21"/>
@@ -19353,7 +19363,7 @@
       <c r="N316" s="21"/>
       <c r="O316" s="21"/>
       <c r="P316" s="21"/>
-      <c r="Q316" s="21"/>
+      <c r="Q316" s="37"/>
       <c r="R316" s="21"/>
       <c r="S316" s="22"/>
       <c r="T316" s="21"/>
@@ -19404,7 +19414,7 @@
       <c r="N317" s="21"/>
       <c r="O317" s="21"/>
       <c r="P317" s="21"/>
-      <c r="Q317" s="21"/>
+      <c r="Q317" s="37"/>
       <c r="R317" s="21"/>
       <c r="S317" s="22"/>
       <c r="T317" s="21"/>
@@ -19455,7 +19465,7 @@
       <c r="N318" s="21"/>
       <c r="O318" s="21"/>
       <c r="P318" s="21"/>
-      <c r="Q318" s="21"/>
+      <c r="Q318" s="37"/>
       <c r="R318" s="21"/>
       <c r="S318" s="22"/>
       <c r="T318" s="21"/>
@@ -19506,7 +19516,7 @@
       <c r="N319" s="21"/>
       <c r="O319" s="21"/>
       <c r="P319" s="21"/>
-      <c r="Q319" s="21"/>
+      <c r="Q319" s="37"/>
       <c r="R319" s="21"/>
       <c r="S319" s="22"/>
       <c r="T319" s="21"/>
@@ -19557,7 +19567,7 @@
       <c r="N320" s="21"/>
       <c r="O320" s="21"/>
       <c r="P320" s="21"/>
-      <c r="Q320" s="21"/>
+      <c r="Q320" s="37"/>
       <c r="R320" s="21"/>
       <c r="S320" s="22"/>
       <c r="T320" s="21"/>
@@ -19608,7 +19618,7 @@
       <c r="N321" s="21"/>
       <c r="O321" s="21"/>
       <c r="P321" s="21"/>
-      <c r="Q321" s="21"/>
+      <c r="Q321" s="37"/>
       <c r="R321" s="21"/>
       <c r="S321" s="22"/>
       <c r="T321" s="21"/>
@@ -19659,7 +19669,7 @@
       <c r="N322" s="21"/>
       <c r="O322" s="21"/>
       <c r="P322" s="21"/>
-      <c r="Q322" s="21"/>
+      <c r="Q322" s="37"/>
       <c r="R322" s="21"/>
       <c r="S322" s="22"/>
       <c r="T322" s="21"/>
@@ -19710,7 +19720,7 @@
       <c r="N323" s="21"/>
       <c r="O323" s="21"/>
       <c r="P323" s="21"/>
-      <c r="Q323" s="21"/>
+      <c r="Q323" s="37"/>
       <c r="R323" s="21"/>
       <c r="S323" s="22"/>
       <c r="T323" s="21"/>
@@ -19761,7 +19771,7 @@
       <c r="N324" s="21"/>
       <c r="O324" s="21"/>
       <c r="P324" s="21"/>
-      <c r="Q324" s="21"/>
+      <c r="Q324" s="37"/>
       <c r="R324" s="21"/>
       <c r="S324" s="22"/>
       <c r="T324" s="21"/>
@@ -19812,7 +19822,7 @@
       <c r="N325" s="21"/>
       <c r="O325" s="21"/>
       <c r="P325" s="21"/>
-      <c r="Q325" s="21"/>
+      <c r="Q325" s="37"/>
       <c r="R325" s="21"/>
       <c r="S325" s="22"/>
       <c r="T325" s="21"/>
@@ -19863,7 +19873,7 @@
       <c r="N326" s="21"/>
       <c r="O326" s="21"/>
       <c r="P326" s="21"/>
-      <c r="Q326" s="21"/>
+      <c r="Q326" s="37"/>
       <c r="R326" s="21"/>
       <c r="S326" s="22"/>
       <c r="T326" s="21"/>
@@ -19914,7 +19924,7 @@
       <c r="N327" s="21"/>
       <c r="O327" s="21"/>
       <c r="P327" s="21"/>
-      <c r="Q327" s="21"/>
+      <c r="Q327" s="37"/>
       <c r="R327" s="21"/>
       <c r="S327" s="22"/>
       <c r="T327" s="21"/>
@@ -19965,7 +19975,7 @@
       <c r="N328" s="21"/>
       <c r="O328" s="21"/>
       <c r="P328" s="21"/>
-      <c r="Q328" s="21"/>
+      <c r="Q328" s="37"/>
       <c r="R328" s="21"/>
       <c r="S328" s="22"/>
       <c r="T328" s="21"/>
@@ -20016,7 +20026,7 @@
       <c r="N329" s="21"/>
       <c r="O329" s="21"/>
       <c r="P329" s="21"/>
-      <c r="Q329" s="21"/>
+      <c r="Q329" s="37"/>
       <c r="R329" s="21"/>
       <c r="S329" s="22"/>
       <c r="T329" s="21"/>
@@ -20067,7 +20077,7 @@
       <c r="N330" s="21"/>
       <c r="O330" s="21"/>
       <c r="P330" s="21"/>
-      <c r="Q330" s="21"/>
+      <c r="Q330" s="37"/>
       <c r="R330" s="21"/>
       <c r="S330" s="22"/>
       <c r="T330" s="21"/>
@@ -20118,7 +20128,7 @@
       <c r="N331" s="21"/>
       <c r="O331" s="21"/>
       <c r="P331" s="21"/>
-      <c r="Q331" s="21"/>
+      <c r="Q331" s="37"/>
       <c r="R331" s="21"/>
       <c r="S331" s="22"/>
       <c r="T331" s="21"/>
@@ -20169,7 +20179,7 @@
       <c r="N332" s="21"/>
       <c r="O332" s="21"/>
       <c r="P332" s="21"/>
-      <c r="Q332" s="21"/>
+      <c r="Q332" s="37"/>
       <c r="R332" s="21"/>
       <c r="S332" s="22"/>
       <c r="T332" s="21"/>
@@ -20220,7 +20230,7 @@
       <c r="N333" s="21"/>
       <c r="O333" s="21"/>
       <c r="P333" s="21"/>
-      <c r="Q333" s="21"/>
+      <c r="Q333" s="37"/>
       <c r="R333" s="21"/>
       <c r="S333" s="22"/>
       <c r="T333" s="21"/>
@@ -20271,7 +20281,7 @@
       <c r="N334" s="21"/>
       <c r="O334" s="21"/>
       <c r="P334" s="21"/>
-      <c r="Q334" s="21"/>
+      <c r="Q334" s="37"/>
       <c r="R334" s="21"/>
       <c r="S334" s="22"/>
       <c r="T334" s="21"/>
@@ -20322,7 +20332,7 @@
       <c r="N335" s="21"/>
       <c r="O335" s="21"/>
       <c r="P335" s="21"/>
-      <c r="Q335" s="21"/>
+      <c r="Q335" s="37"/>
       <c r="R335" s="21"/>
       <c r="S335" s="22"/>
       <c r="T335" s="21"/>
@@ -20373,7 +20383,7 @@
       <c r="N336" s="21"/>
       <c r="O336" s="21"/>
       <c r="P336" s="21"/>
-      <c r="Q336" s="21"/>
+      <c r="Q336" s="37"/>
       <c r="R336" s="21"/>
       <c r="S336" s="22"/>
       <c r="T336" s="21"/>
@@ -20424,7 +20434,7 @@
       <c r="N337" s="21"/>
       <c r="O337" s="21"/>
       <c r="P337" s="21"/>
-      <c r="Q337" s="21"/>
+      <c r="Q337" s="37"/>
       <c r="R337" s="21"/>
       <c r="S337" s="22"/>
       <c r="T337" s="21"/>
@@ -20475,7 +20485,7 @@
       <c r="N338" s="21"/>
       <c r="O338" s="21"/>
       <c r="P338" s="21"/>
-      <c r="Q338" s="21"/>
+      <c r="Q338" s="37"/>
       <c r="R338" s="21"/>
       <c r="S338" s="22"/>
       <c r="T338" s="21"/>
@@ -20526,7 +20536,7 @@
       <c r="N339" s="21"/>
       <c r="O339" s="21"/>
       <c r="P339" s="21"/>
-      <c r="Q339" s="21"/>
+      <c r="Q339" s="37"/>
       <c r="R339" s="21"/>
       <c r="S339" s="22"/>
       <c r="T339" s="21"/>
@@ -20577,7 +20587,7 @@
       <c r="N340" s="21"/>
       <c r="O340" s="21"/>
       <c r="P340" s="21"/>
-      <c r="Q340" s="21"/>
+      <c r="Q340" s="37"/>
       <c r="R340" s="21"/>
       <c r="S340" s="22"/>
       <c r="T340" s="21"/>
@@ -20628,7 +20638,7 @@
       <c r="N341" s="21"/>
       <c r="O341" s="21"/>
       <c r="P341" s="21"/>
-      <c r="Q341" s="21"/>
+      <c r="Q341" s="37"/>
       <c r="R341" s="22"/>
       <c r="S341" s="22"/>
       <c r="T341" s="21"/>
@@ -20679,7 +20689,7 @@
       <c r="N342" s="21"/>
       <c r="O342" s="21"/>
       <c r="P342" s="21"/>
-      <c r="Q342" s="21"/>
+      <c r="Q342" s="37"/>
       <c r="R342" s="22"/>
       <c r="S342" s="22"/>
       <c r="T342" s="21"/>
@@ -20730,7 +20740,7 @@
       <c r="N343" s="21"/>
       <c r="O343" s="21"/>
       <c r="P343" s="21"/>
-      <c r="Q343" s="21"/>
+      <c r="Q343" s="37"/>
       <c r="R343" s="22"/>
       <c r="S343" s="22"/>
       <c r="T343" s="21"/>
@@ -20781,7 +20791,7 @@
       <c r="N344" s="21"/>
       <c r="O344" s="21"/>
       <c r="P344" s="21"/>
-      <c r="Q344" s="21"/>
+      <c r="Q344" s="37"/>
       <c r="R344" s="22"/>
       <c r="S344" s="22"/>
       <c r="T344" s="21"/>
@@ -20832,7 +20842,7 @@
       <c r="N345" s="21"/>
       <c r="O345" s="21"/>
       <c r="P345" s="21"/>
-      <c r="Q345" s="21"/>
+      <c r="Q345" s="37"/>
       <c r="R345" s="22"/>
       <c r="S345" s="22"/>
       <c r="T345" s="21"/>
@@ -20883,7 +20893,7 @@
       <c r="N346" s="21"/>
       <c r="O346" s="21"/>
       <c r="P346" s="21"/>
-      <c r="Q346" s="21"/>
+      <c r="Q346" s="37"/>
       <c r="R346" s="22"/>
       <c r="S346" s="22"/>
       <c r="T346" s="21"/>
@@ -20934,7 +20944,7 @@
       <c r="N347" s="21"/>
       <c r="O347" s="21"/>
       <c r="P347" s="21"/>
-      <c r="Q347" s="21"/>
+      <c r="Q347" s="37"/>
       <c r="R347" s="22"/>
       <c r="S347" s="22"/>
       <c r="T347" s="21"/>
@@ -20985,7 +20995,7 @@
       <c r="N348" s="21"/>
       <c r="O348" s="21"/>
       <c r="P348" s="21"/>
-      <c r="Q348" s="21"/>
+      <c r="Q348" s="37"/>
       <c r="R348" s="22"/>
       <c r="S348" s="22"/>
       <c r="T348" s="21"/>
@@ -21036,7 +21046,7 @@
       <c r="N349" s="21"/>
       <c r="O349" s="21"/>
       <c r="P349" s="21"/>
-      <c r="Q349" s="21"/>
+      <c r="Q349" s="37"/>
       <c r="R349" s="22"/>
       <c r="S349" s="22"/>
       <c r="T349" s="21"/>
@@ -21087,7 +21097,7 @@
       <c r="N350" s="21"/>
       <c r="O350" s="21"/>
       <c r="P350" s="21"/>
-      <c r="Q350" s="21"/>
+      <c r="Q350" s="37"/>
       <c r="R350" s="22"/>
       <c r="S350" s="22"/>
       <c r="T350" s="21"/>
@@ -21138,7 +21148,7 @@
       <c r="N351" s="21"/>
       <c r="O351" s="21"/>
       <c r="P351" s="21"/>
-      <c r="Q351" s="21"/>
+      <c r="Q351" s="37"/>
       <c r="R351" s="22"/>
       <c r="S351" s="22"/>
       <c r="T351" s="21"/>
@@ -21189,7 +21199,7 @@
       <c r="N352" s="21"/>
       <c r="O352" s="21"/>
       <c r="P352" s="21"/>
-      <c r="Q352" s="21"/>
+      <c r="Q352" s="37"/>
       <c r="R352" s="22"/>
       <c r="S352" s="22"/>
       <c r="T352" s="21"/>
@@ -21240,7 +21250,7 @@
       <c r="N353" s="21"/>
       <c r="O353" s="21"/>
       <c r="P353" s="21"/>
-      <c r="Q353" s="21"/>
+      <c r="Q353" s="37"/>
       <c r="R353" s="22"/>
       <c r="S353" s="22"/>
       <c r="T353" s="21"/>
@@ -21291,7 +21301,7 @@
       <c r="N354" s="21"/>
       <c r="O354" s="21"/>
       <c r="P354" s="21"/>
-      <c r="Q354" s="21"/>
+      <c r="Q354" s="37"/>
       <c r="R354" s="22"/>
       <c r="S354" s="22"/>
       <c r="T354" s="21"/>
@@ -21342,7 +21352,7 @@
       <c r="N355" s="21"/>
       <c r="O355" s="21"/>
       <c r="P355" s="21"/>
-      <c r="Q355" s="21"/>
+      <c r="Q355" s="37"/>
       <c r="R355" s="22"/>
       <c r="S355" s="22"/>
       <c r="T355" s="21"/>
@@ -21393,7 +21403,7 @@
       <c r="N356" s="21"/>
       <c r="O356" s="21"/>
       <c r="P356" s="21"/>
-      <c r="Q356" s="21"/>
+      <c r="Q356" s="37"/>
       <c r="R356" s="22"/>
       <c r="S356" s="22"/>
       <c r="T356" s="21"/>
@@ -21444,7 +21454,7 @@
       <c r="N357" s="21"/>
       <c r="O357" s="21"/>
       <c r="P357" s="21"/>
-      <c r="Q357" s="21"/>
+      <c r="Q357" s="37"/>
       <c r="R357" s="22"/>
       <c r="S357" s="22"/>
       <c r="T357" s="21"/>
@@ -21495,7 +21505,7 @@
       <c r="N358" s="21"/>
       <c r="O358" s="21"/>
       <c r="P358" s="21"/>
-      <c r="Q358" s="21"/>
+      <c r="Q358" s="37"/>
       <c r="R358" s="22"/>
       <c r="S358" s="22"/>
       <c r="T358" s="21"/>
@@ -21546,7 +21556,7 @@
       <c r="N359" s="21"/>
       <c r="O359" s="21"/>
       <c r="P359" s="21"/>
-      <c r="Q359" s="21"/>
+      <c r="Q359" s="37"/>
       <c r="R359" s="22"/>
       <c r="S359" s="22"/>
       <c r="T359" s="21"/>
@@ -21597,7 +21607,7 @@
       <c r="N360" s="21"/>
       <c r="O360" s="21"/>
       <c r="P360" s="21"/>
-      <c r="Q360" s="21"/>
+      <c r="Q360" s="37"/>
       <c r="R360" s="22"/>
       <c r="S360" s="22"/>
       <c r="T360" s="21"/>
@@ -21648,7 +21658,7 @@
       <c r="N361" s="21"/>
       <c r="O361" s="21"/>
       <c r="P361" s="21"/>
-      <c r="Q361" s="21"/>
+      <c r="Q361" s="37"/>
       <c r="R361" s="22"/>
       <c r="S361" s="22"/>
       <c r="T361" s="21"/>
@@ -21699,7 +21709,7 @@
       <c r="N362" s="21"/>
       <c r="O362" s="21"/>
       <c r="P362" s="21"/>
-      <c r="Q362" s="21"/>
+      <c r="Q362" s="37"/>
       <c r="R362" s="22"/>
       <c r="S362" s="22"/>
       <c r="T362" s="21"/>
@@ -21750,7 +21760,7 @@
       <c r="N363" s="21"/>
       <c r="O363" s="21"/>
       <c r="P363" s="21"/>
-      <c r="Q363" s="21"/>
+      <c r="Q363" s="37"/>
       <c r="R363" s="22"/>
       <c r="S363" s="22"/>
       <c r="T363" s="21"/>
@@ -21801,7 +21811,7 @@
       <c r="N364" s="21"/>
       <c r="O364" s="21"/>
       <c r="P364" s="21"/>
-      <c r="Q364" s="21"/>
+      <c r="Q364" s="37"/>
       <c r="R364" s="22"/>
       <c r="S364" s="22"/>
       <c r="T364" s="21"/>
@@ -21852,7 +21862,7 @@
       <c r="N365" s="21"/>
       <c r="O365" s="21"/>
       <c r="P365" s="21"/>
-      <c r="Q365" s="21"/>
+      <c r="Q365" s="37"/>
       <c r="R365" s="22"/>
       <c r="S365" s="22"/>
       <c r="T365" s="21"/>
@@ -21903,7 +21913,7 @@
       <c r="N366" s="21"/>
       <c r="O366" s="21"/>
       <c r="P366" s="21"/>
-      <c r="Q366" s="21"/>
+      <c r="Q366" s="37"/>
       <c r="R366" s="22"/>
       <c r="S366" s="22"/>
       <c r="T366" s="21"/>
@@ -21954,7 +21964,7 @@
       <c r="N367" s="21"/>
       <c r="O367" s="21"/>
       <c r="P367" s="21"/>
-      <c r="Q367" s="21"/>
+      <c r="Q367" s="37"/>
       <c r="R367" s="22"/>
       <c r="S367" s="22"/>
       <c r="T367" s="21"/>
@@ -22005,7 +22015,7 @@
       <c r="N368" s="21"/>
       <c r="O368" s="21"/>
       <c r="P368" s="21"/>
-      <c r="Q368" s="21"/>
+      <c r="Q368" s="37"/>
       <c r="R368" s="22"/>
       <c r="S368" s="22"/>
       <c r="T368" s="21"/>
@@ -22056,7 +22066,7 @@
       <c r="N369" s="21"/>
       <c r="O369" s="21"/>
       <c r="P369" s="21"/>
-      <c r="Q369" s="21"/>
+      <c r="Q369" s="37"/>
       <c r="R369" s="22"/>
       <c r="S369" s="22"/>
       <c r="T369" s="21"/>
@@ -22107,7 +22117,7 @@
       <c r="N370" s="21"/>
       <c r="O370" s="21"/>
       <c r="P370" s="21"/>
-      <c r="Q370" s="21"/>
+      <c r="Q370" s="37"/>
       <c r="R370" s="22"/>
       <c r="S370" s="22"/>
       <c r="T370" s="21"/>
@@ -22158,7 +22168,7 @@
       <c r="N371" s="21"/>
       <c r="O371" s="21"/>
       <c r="P371" s="21"/>
-      <c r="Q371" s="21"/>
+      <c r="Q371" s="37"/>
       <c r="R371" s="22"/>
       <c r="S371" s="22"/>
       <c r="T371" s="21"/>
@@ -22209,7 +22219,7 @@
       <c r="N372" s="21"/>
       <c r="O372" s="21"/>
       <c r="P372" s="21"/>
-      <c r="Q372" s="21"/>
+      <c r="Q372" s="37"/>
       <c r="R372" s="22"/>
       <c r="S372" s="22"/>
       <c r="T372" s="21"/>
@@ -22260,7 +22270,7 @@
       <c r="N373" s="21"/>
       <c r="O373" s="21"/>
       <c r="P373" s="21"/>
-      <c r="Q373" s="21"/>
+      <c r="Q373" s="37"/>
       <c r="R373" s="22"/>
       <c r="S373" s="22"/>
       <c r="T373" s="21"/>
@@ -22311,7 +22321,7 @@
       <c r="N374" s="21"/>
       <c r="O374" s="21"/>
       <c r="P374" s="21"/>
-      <c r="Q374" s="21"/>
+      <c r="Q374" s="37"/>
       <c r="R374" s="22"/>
       <c r="S374" s="22"/>
       <c r="T374" s="21"/>
@@ -22362,7 +22372,7 @@
       <c r="N375" s="21"/>
       <c r="O375" s="21"/>
       <c r="P375" s="21"/>
-      <c r="Q375" s="21"/>
+      <c r="Q375" s="37"/>
       <c r="R375" s="22"/>
       <c r="S375" s="22"/>
       <c r="T375" s="21"/>
@@ -22413,7 +22423,7 @@
       <c r="N376" s="21"/>
       <c r="O376" s="21"/>
       <c r="P376" s="21"/>
-      <c r="Q376" s="21"/>
+      <c r="Q376" s="37"/>
       <c r="R376" s="22"/>
       <c r="S376" s="22"/>
       <c r="T376" s="21"/>
@@ -22464,7 +22474,7 @@
       <c r="N377" s="21"/>
       <c r="O377" s="21"/>
       <c r="P377" s="21"/>
-      <c r="Q377" s="21"/>
+      <c r="Q377" s="37"/>
       <c r="R377" s="22"/>
       <c r="S377" s="22"/>
       <c r="T377" s="21"/>
@@ -22515,7 +22525,7 @@
       <c r="N378" s="21"/>
       <c r="O378" s="21"/>
       <c r="P378" s="21"/>
-      <c r="Q378" s="21"/>
+      <c r="Q378" s="37"/>
       <c r="R378" s="22"/>
       <c r="S378" s="22"/>
       <c r="T378" s="21"/>
@@ -22566,7 +22576,7 @@
       <c r="N379" s="21"/>
       <c r="O379" s="21"/>
       <c r="P379" s="21"/>
-      <c r="Q379" s="21"/>
+      <c r="Q379" s="37"/>
       <c r="R379" s="22"/>
       <c r="S379" s="22"/>
       <c r="T379" s="21"/>
@@ -22617,7 +22627,7 @@
       <c r="N380" s="21"/>
       <c r="O380" s="21"/>
       <c r="P380" s="21"/>
-      <c r="Q380" s="21"/>
+      <c r="Q380" s="37"/>
       <c r="R380" s="22"/>
       <c r="S380" s="22"/>
       <c r="T380" s="21"/>
@@ -22668,7 +22678,7 @@
       <c r="N381" s="21"/>
       <c r="O381" s="21"/>
       <c r="P381" s="21"/>
-      <c r="Q381" s="21"/>
+      <c r="Q381" s="37"/>
       <c r="R381" s="22"/>
       <c r="S381" s="22"/>
       <c r="T381" s="21"/>
@@ -22719,7 +22729,7 @@
       <c r="N382" s="21"/>
       <c r="O382" s="21"/>
       <c r="P382" s="21"/>
-      <c r="Q382" s="21"/>
+      <c r="Q382" s="37"/>
       <c r="R382" s="22"/>
       <c r="S382" s="22"/>
       <c r="T382" s="21"/>
@@ -22770,7 +22780,7 @@
       <c r="N383" s="21"/>
       <c r="O383" s="21"/>
       <c r="P383" s="21"/>
-      <c r="Q383" s="21"/>
+      <c r="Q383" s="37"/>
       <c r="R383" s="22"/>
       <c r="S383" s="22"/>
       <c r="T383" s="21"/>
@@ -22821,7 +22831,7 @@
       <c r="N384" s="21"/>
       <c r="O384" s="21"/>
       <c r="P384" s="21"/>
-      <c r="Q384" s="21"/>
+      <c r="Q384" s="37"/>
       <c r="R384" s="22"/>
       <c r="S384" s="22"/>
       <c r="T384" s="21"/>
@@ -22872,7 +22882,7 @@
       <c r="N385" s="21"/>
       <c r="O385" s="21"/>
       <c r="P385" s="21"/>
-      <c r="Q385" s="21"/>
+      <c r="Q385" s="37"/>
       <c r="R385" s="22"/>
       <c r="S385" s="22"/>
       <c r="T385" s="21"/>
@@ -22923,7 +22933,7 @@
       <c r="N386" s="21"/>
       <c r="O386" s="21"/>
       <c r="P386" s="21"/>
-      <c r="Q386" s="21"/>
+      <c r="Q386" s="37"/>
       <c r="R386" s="22"/>
       <c r="S386" s="22"/>
       <c r="T386" s="21"/>
@@ -22974,7 +22984,7 @@
       <c r="N387" s="21"/>
       <c r="O387" s="21"/>
       <c r="P387" s="21"/>
-      <c r="Q387" s="21"/>
+      <c r="Q387" s="37"/>
       <c r="R387" s="22"/>
       <c r="S387" s="22"/>
       <c r="T387" s="21"/>
@@ -23025,7 +23035,7 @@
       <c r="N388" s="21"/>
       <c r="O388" s="21"/>
       <c r="P388" s="21"/>
-      <c r="Q388" s="21"/>
+      <c r="Q388" s="37"/>
       <c r="R388" s="22"/>
       <c r="S388" s="22"/>
       <c r="T388" s="21"/>
@@ -23076,7 +23086,7 @@
       <c r="N389" s="21"/>
       <c r="O389" s="21"/>
       <c r="P389" s="21"/>
-      <c r="Q389" s="21"/>
+      <c r="Q389" s="37"/>
       <c r="R389" s="22"/>
       <c r="S389" s="22"/>
       <c r="T389" s="21"/>
@@ -23127,7 +23137,7 @@
       <c r="N390" s="21"/>
       <c r="O390" s="21"/>
       <c r="P390" s="21"/>
-      <c r="Q390" s="21"/>
+      <c r="Q390" s="37"/>
       <c r="R390" s="22"/>
       <c r="S390" s="22"/>
       <c r="T390" s="21"/>
@@ -23178,7 +23188,7 @@
       <c r="N391" s="21"/>
       <c r="O391" s="21"/>
       <c r="P391" s="21"/>
-      <c r="Q391" s="21"/>
+      <c r="Q391" s="37"/>
       <c r="R391" s="22"/>
       <c r="S391" s="22"/>
       <c r="T391" s="21"/>
@@ -23229,7 +23239,7 @@
       <c r="N392" s="21"/>
       <c r="O392" s="21"/>
       <c r="P392" s="21"/>
-      <c r="Q392" s="21"/>
+      <c r="Q392" s="37"/>
       <c r="R392" s="22"/>
       <c r="S392" s="22"/>
       <c r="T392" s="21"/>
@@ -23280,7 +23290,7 @@
       <c r="N393" s="21"/>
       <c r="O393" s="21"/>
       <c r="P393" s="21"/>
-      <c r="Q393" s="21"/>
+      <c r="Q393" s="37"/>
       <c r="R393" s="22"/>
       <c r="S393" s="22"/>
       <c r="T393" s="21"/>
@@ -23331,7 +23341,7 @@
       <c r="N394" s="21"/>
       <c r="O394" s="21"/>
       <c r="P394" s="21"/>
-      <c r="Q394" s="21"/>
+      <c r="Q394" s="37"/>
       <c r="R394" s="22"/>
       <c r="S394" s="22"/>
       <c r="T394" s="21"/>
@@ -23382,7 +23392,7 @@
       <c r="N395" s="21"/>
       <c r="O395" s="21"/>
       <c r="P395" s="21"/>
-      <c r="Q395" s="21"/>
+      <c r="Q395" s="37"/>
       <c r="R395" s="22"/>
       <c r="S395" s="22"/>
       <c r="T395" s="21"/>
@@ -23433,7 +23443,7 @@
       <c r="N396" s="21"/>
       <c r="O396" s="21"/>
       <c r="P396" s="21"/>
-      <c r="Q396" s="21"/>
+      <c r="Q396" s="37"/>
       <c r="R396" s="22"/>
       <c r="S396" s="22"/>
       <c r="T396" s="21"/>
@@ -23484,7 +23494,7 @@
       <c r="N397" s="21"/>
       <c r="O397" s="21"/>
       <c r="P397" s="21"/>
-      <c r="Q397" s="21"/>
+      <c r="Q397" s="37"/>
       <c r="R397" s="22"/>
       <c r="S397" s="22"/>
       <c r="T397" s="21"/>
@@ -23535,7 +23545,7 @@
       <c r="N398" s="21"/>
       <c r="O398" s="21"/>
       <c r="P398" s="21"/>
-      <c r="Q398" s="21"/>
+      <c r="Q398" s="37"/>
       <c r="R398" s="22"/>
       <c r="S398" s="22"/>
       <c r="T398" s="21"/>
@@ -23586,7 +23596,7 @@
       <c r="N399" s="21"/>
       <c r="O399" s="21"/>
       <c r="P399" s="21"/>
-      <c r="Q399" s="21"/>
+      <c r="Q399" s="37"/>
       <c r="R399" s="22"/>
       <c r="S399" s="22"/>
       <c r="T399" s="21"/>
@@ -23637,7 +23647,7 @@
       <c r="N400" s="21"/>
       <c r="O400" s="21"/>
       <c r="P400" s="21"/>
-      <c r="Q400" s="21"/>
+      <c r="Q400" s="37"/>
       <c r="R400" s="22"/>
       <c r="S400" s="22"/>
       <c r="T400" s="21"/>
@@ -23688,7 +23698,7 @@
       <c r="N401" s="21"/>
       <c r="O401" s="21"/>
       <c r="P401" s="21"/>
-      <c r="Q401" s="21"/>
+      <c r="Q401" s="37"/>
       <c r="R401" s="22"/>
       <c r="S401" s="22"/>
       <c r="T401" s="21"/>
@@ -23739,7 +23749,7 @@
       <c r="N402" s="21"/>
       <c r="O402" s="21"/>
       <c r="P402" s="21"/>
-      <c r="Q402" s="21"/>
+      <c r="Q402" s="37"/>
       <c r="R402" s="22"/>
       <c r="S402" s="22"/>
       <c r="T402" s="21"/>
@@ -23790,7 +23800,7 @@
       <c r="N403" s="21"/>
       <c r="O403" s="21"/>
       <c r="P403" s="21"/>
-      <c r="Q403" s="21"/>
+      <c r="Q403" s="37"/>
       <c r="R403" s="22"/>
       <c r="S403" s="22"/>
       <c r="T403" s="21"/>
@@ -23841,7 +23851,7 @@
       <c r="N404" s="21"/>
       <c r="O404" s="21"/>
       <c r="P404" s="21"/>
-      <c r="Q404" s="21"/>
+      <c r="Q404" s="37"/>
       <c r="R404" s="22"/>
       <c r="S404" s="22"/>
       <c r="T404" s="21"/>
@@ -23892,7 +23902,7 @@
       <c r="N405" s="21"/>
       <c r="O405" s="21"/>
       <c r="P405" s="21"/>
-      <c r="Q405" s="21"/>
+      <c r="Q405" s="37"/>
       <c r="R405" s="22"/>
       <c r="S405" s="22"/>
       <c r="T405" s="21"/>
@@ -23943,7 +23953,7 @@
       <c r="N406" s="21"/>
       <c r="O406" s="21"/>
       <c r="P406" s="21"/>
-      <c r="Q406" s="21"/>
+      <c r="Q406" s="37"/>
       <c r="R406" s="22"/>
       <c r="S406" s="22"/>
       <c r="T406" s="21"/>
@@ -23994,7 +24004,7 @@
       <c r="N407" s="21"/>
       <c r="O407" s="21"/>
       <c r="P407" s="21"/>
-      <c r="Q407" s="21"/>
+      <c r="Q407" s="37"/>
       <c r="R407" s="22"/>
       <c r="S407" s="22"/>
       <c r="T407" s="21"/>
@@ -24045,7 +24055,7 @@
       <c r="N408" s="21"/>
       <c r="O408" s="21"/>
       <c r="P408" s="21"/>
-      <c r="Q408" s="21"/>
+      <c r="Q408" s="37"/>
       <c r="R408" s="22"/>
       <c r="S408" s="22"/>
       <c r="T408" s="21"/>
@@ -24096,7 +24106,7 @@
       <c r="N409" s="21"/>
       <c r="O409" s="21"/>
       <c r="P409" s="21"/>
-      <c r="Q409" s="21"/>
+      <c r="Q409" s="37"/>
       <c r="R409" s="22"/>
       <c r="S409" s="22"/>
       <c r="T409" s="21"/>
@@ -24147,7 +24157,7 @@
       <c r="N410" s="21"/>
       <c r="O410" s="21"/>
       <c r="P410" s="21"/>
-      <c r="Q410" s="21"/>
+      <c r="Q410" s="37"/>
       <c r="R410" s="22"/>
       <c r="S410" s="22"/>
       <c r="T410" s="21"/>
@@ -24198,7 +24208,7 @@
       <c r="N411" s="21"/>
       <c r="O411" s="21"/>
       <c r="P411" s="21"/>
-      <c r="Q411" s="21"/>
+      <c r="Q411" s="37"/>
       <c r="R411" s="22"/>
       <c r="S411" s="22"/>
       <c r="T411" s="21"/>
@@ -24249,7 +24259,7 @@
       <c r="N412" s="21"/>
       <c r="O412" s="21"/>
       <c r="P412" s="21"/>
-      <c r="Q412" s="21"/>
+      <c r="Q412" s="37"/>
       <c r="R412" s="22"/>
       <c r="S412" s="22"/>
       <c r="T412" s="21"/>
@@ -24300,7 +24310,7 @@
       <c r="N413" s="21"/>
       <c r="O413" s="21"/>
       <c r="P413" s="21"/>
-      <c r="Q413" s="21"/>
+      <c r="Q413" s="37"/>
       <c r="R413" s="22"/>
       <c r="S413" s="22"/>
       <c r="T413" s="21"/>
@@ -24351,7 +24361,7 @@
       <c r="N414" s="21"/>
       <c r="O414" s="21"/>
       <c r="P414" s="21"/>
-      <c r="Q414" s="21"/>
+      <c r="Q414" s="37"/>
       <c r="R414" s="22"/>
       <c r="S414" s="22"/>
       <c r="T414" s="21"/>
@@ -24402,7 +24412,7 @@
       <c r="N415" s="21"/>
       <c r="O415" s="21"/>
       <c r="P415" s="21"/>
-      <c r="Q415" s="21"/>
+      <c r="Q415" s="37"/>
       <c r="R415" s="22"/>
       <c r="S415" s="22"/>
       <c r="T415" s="21"/>
@@ -24453,7 +24463,7 @@
       <c r="N416" s="21"/>
       <c r="O416" s="21"/>
       <c r="P416" s="21"/>
-      <c r="Q416" s="21"/>
+      <c r="Q416" s="37"/>
       <c r="R416" s="22"/>
       <c r="S416" s="22"/>
       <c r="T416" s="21"/>
@@ -24504,7 +24514,7 @@
       <c r="N417" s="21"/>
       <c r="O417" s="21"/>
       <c r="P417" s="21"/>
-      <c r="Q417" s="21"/>
+      <c r="Q417" s="37"/>
       <c r="R417" s="22"/>
       <c r="S417" s="22"/>
       <c r="T417" s="21"/>
@@ -24555,7 +24565,7 @@
       <c r="N418" s="21"/>
       <c r="O418" s="21"/>
       <c r="P418" s="21"/>
-      <c r="Q418" s="21"/>
+      <c r="Q418" s="37"/>
       <c r="R418" s="22"/>
       <c r="S418" s="22"/>
       <c r="T418" s="21"/>
@@ -24606,7 +24616,7 @@
       <c r="N419" s="21"/>
       <c r="O419" s="21"/>
       <c r="P419" s="21"/>
-      <c r="Q419" s="21"/>
+      <c r="Q419" s="37"/>
       <c r="R419" s="22"/>
       <c r="S419" s="22"/>
       <c r="T419" s="21"/>
@@ -24657,7 +24667,7 @@
       <c r="N420" s="21"/>
       <c r="O420" s="21"/>
       <c r="P420" s="21"/>
-      <c r="Q420" s="21"/>
+      <c r="Q420" s="37"/>
       <c r="R420" s="22"/>
       <c r="S420" s="22"/>
       <c r="T420" s="21"/>
@@ -24708,7 +24718,7 @@
       <c r="N421" s="21"/>
       <c r="O421" s="21"/>
       <c r="P421" s="21"/>
-      <c r="Q421" s="21"/>
+      <c r="Q421" s="37"/>
       <c r="R421" s="22"/>
       <c r="S421" s="22"/>
       <c r="T421" s="21"/>
@@ -24759,7 +24769,7 @@
       <c r="N422" s="21"/>
       <c r="O422" s="21"/>
       <c r="P422" s="21"/>
-      <c r="Q422" s="21"/>
+      <c r="Q422" s="37"/>
       <c r="R422" s="22"/>
       <c r="S422" s="22"/>
       <c r="T422" s="21"/>
@@ -24810,7 +24820,7 @@
       <c r="N423" s="21"/>
       <c r="O423" s="21"/>
       <c r="P423" s="21"/>
-      <c r="Q423" s="21"/>
+      <c r="Q423" s="37"/>
       <c r="R423" s="22"/>
       <c r="S423" s="22"/>
       <c r="T423" s="21"/>
@@ -24861,7 +24871,7 @@
       <c r="N424" s="21"/>
       <c r="O424" s="21"/>
       <c r="P424" s="21"/>
-      <c r="Q424" s="21"/>
+      <c r="Q424" s="37"/>
       <c r="R424" s="22"/>
       <c r="S424" s="22"/>
       <c r="T424" s="21"/>
@@ -24912,7 +24922,7 @@
       <c r="N425" s="21"/>
       <c r="O425" s="21"/>
       <c r="P425" s="21"/>
-      <c r="Q425" s="21"/>
+      <c r="Q425" s="37"/>
       <c r="R425" s="22"/>
       <c r="S425" s="22"/>
       <c r="T425" s="21"/>
@@ -24963,7 +24973,7 @@
       <c r="N426" s="21"/>
       <c r="O426" s="21"/>
       <c r="P426" s="21"/>
-      <c r="Q426" s="21"/>
+      <c r="Q426" s="37"/>
       <c r="R426" s="22"/>
       <c r="S426" s="22"/>
       <c r="T426" s="21"/>
@@ -25014,7 +25024,7 @@
       <c r="N427" s="21"/>
       <c r="O427" s="21"/>
       <c r="P427" s="21"/>
-      <c r="Q427" s="21"/>
+      <c r="Q427" s="37"/>
       <c r="R427" s="22"/>
       <c r="S427" s="22"/>
       <c r="T427" s="21"/>
@@ -25065,7 +25075,7 @@
       <c r="N428" s="21"/>
       <c r="O428" s="21"/>
       <c r="P428" s="21"/>
-      <c r="Q428" s="21"/>
+      <c r="Q428" s="37"/>
       <c r="R428" s="22"/>
       <c r="S428" s="22"/>
       <c r="T428" s="21"/>
@@ -25116,7 +25126,7 @@
       <c r="N429" s="21"/>
       <c r="O429" s="21"/>
       <c r="P429" s="21"/>
-      <c r="Q429" s="21"/>
+      <c r="Q429" s="37"/>
       <c r="R429" s="22"/>
       <c r="S429" s="22"/>
       <c r="T429" s="21"/>
@@ -25167,7 +25177,7 @@
       <c r="N430" s="21"/>
       <c r="O430" s="21"/>
       <c r="P430" s="21"/>
-      <c r="Q430" s="21"/>
+      <c r="Q430" s="37"/>
       <c r="R430" s="22"/>
       <c r="S430" s="22"/>
       <c r="T430" s="21"/>
@@ -25218,7 +25228,7 @@
       <c r="N431" s="21"/>
       <c r="O431" s="21"/>
       <c r="P431" s="21"/>
-      <c r="Q431" s="21"/>
+      <c r="Q431" s="37"/>
       <c r="R431" s="22"/>
       <c r="S431" s="22"/>
       <c r="T431" s="21"/>
@@ -25269,7 +25279,7 @@
       <c r="N432" s="21"/>
       <c r="O432" s="21"/>
       <c r="P432" s="21"/>
-      <c r="Q432" s="21"/>
+      <c r="Q432" s="37"/>
       <c r="R432" s="22"/>
       <c r="S432" s="22"/>
       <c r="T432" s="21"/>
@@ -25320,7 +25330,7 @@
       <c r="N433" s="21"/>
       <c r="O433" s="21"/>
       <c r="P433" s="21"/>
-      <c r="Q433" s="21"/>
+      <c r="Q433" s="37"/>
       <c r="R433" s="22"/>
       <c r="S433" s="22"/>
       <c r="T433" s="21"/>
@@ -25371,7 +25381,7 @@
       <c r="N434" s="21"/>
       <c r="O434" s="21"/>
       <c r="P434" s="21"/>
-      <c r="Q434" s="21"/>
+      <c r="Q434" s="37"/>
       <c r="R434" s="22"/>
       <c r="S434" s="22"/>
       <c r="T434" s="21"/>
@@ -25422,7 +25432,7 @@
       <c r="N435" s="21"/>
       <c r="O435" s="21"/>
       <c r="P435" s="21"/>
-      <c r="Q435" s="21"/>
+      <c r="Q435" s="37"/>
       <c r="R435" s="22"/>
       <c r="S435" s="22"/>
       <c r="T435" s="21"/>
@@ -25473,7 +25483,7 @@
       <c r="N436" s="21"/>
       <c r="O436" s="21"/>
       <c r="P436" s="21"/>
-      <c r="Q436" s="21"/>
+      <c r="Q436" s="37"/>
       <c r="R436" s="22"/>
       <c r="S436" s="22"/>
       <c r="T436" s="21"/>
@@ -25524,7 +25534,7 @@
       <c r="N437" s="21"/>
       <c r="O437" s="21"/>
       <c r="P437" s="21"/>
-      <c r="Q437" s="21"/>
+      <c r="Q437" s="37"/>
       <c r="R437" s="22"/>
       <c r="S437" s="22"/>
       <c r="T437" s="21"/>
@@ -25575,7 +25585,7 @@
       <c r="N438" s="21"/>
       <c r="O438" s="21"/>
       <c r="P438" s="21"/>
-      <c r="Q438" s="21"/>
+      <c r="Q438" s="37"/>
       <c r="R438" s="22"/>
       <c r="S438" s="22"/>
       <c r="T438" s="21"/>
@@ -25626,7 +25636,7 @@
       <c r="N439" s="21"/>
       <c r="O439" s="21"/>
       <c r="P439" s="21"/>
-      <c r="Q439" s="21"/>
+      <c r="Q439" s="37"/>
       <c r="R439" s="22"/>
       <c r="S439" s="22"/>
       <c r="T439" s="21"/>
@@ -25677,7 +25687,7 @@
       <c r="N440" s="21"/>
       <c r="O440" s="21"/>
       <c r="P440" s="21"/>
-      <c r="Q440" s="21"/>
+      <c r="Q440" s="37"/>
       <c r="R440" s="22"/>
       <c r="S440" s="22"/>
       <c r="T440" s="21"/>
@@ -25728,7 +25738,7 @@
       <c r="N441" s="21"/>
       <c r="O441" s="21"/>
       <c r="P441" s="21"/>
-      <c r="Q441" s="21"/>
+      <c r="Q441" s="37"/>
       <c r="R441" s="22"/>
       <c r="S441" s="22"/>
       <c r="T441" s="21"/>
@@ -25779,7 +25789,7 @@
       <c r="N442" s="21"/>
       <c r="O442" s="21"/>
       <c r="P442" s="21"/>
-      <c r="Q442" s="21"/>
+      <c r="Q442" s="37"/>
       <c r="R442" s="22"/>
       <c r="S442" s="22"/>
       <c r="T442" s="21"/>
@@ -25830,7 +25840,7 @@
       <c r="N443" s="21"/>
       <c r="O443" s="21"/>
       <c r="P443" s="21"/>
-      <c r="Q443" s="21"/>
+      <c r="Q443" s="37"/>
       <c r="R443" s="22"/>
       <c r="S443" s="22"/>
       <c r="T443" s="21"/>
@@ -25881,7 +25891,7 @@
       <c r="N444" s="21"/>
       <c r="O444" s="21"/>
       <c r="P444" s="21"/>
-      <c r="Q444" s="21"/>
+      <c r="Q444" s="37"/>
       <c r="R444" s="22"/>
       <c r="S444" s="22"/>
       <c r="T444" s="21"/>
@@ -25932,7 +25942,7 @@
       <c r="N445" s="21"/>
       <c r="O445" s="21"/>
       <c r="P445" s="21"/>
-      <c r="Q445" s="21"/>
+      <c r="Q445" s="37"/>
       <c r="R445" s="22"/>
       <c r="S445" s="22"/>
       <c r="T445" s="21"/>
@@ -25983,7 +25993,7 @@
       <c r="N446" s="21"/>
       <c r="O446" s="21"/>
       <c r="P446" s="21"/>
-      <c r="Q446" s="21"/>
+      <c r="Q446" s="37"/>
       <c r="R446" s="22"/>
       <c r="S446" s="22"/>
       <c r="T446" s="21"/>
@@ -26034,7 +26044,7 @@
       <c r="N447" s="21"/>
       <c r="O447" s="21"/>
       <c r="P447" s="21"/>
-      <c r="Q447" s="21"/>
+      <c r="Q447" s="37"/>
       <c r="R447" s="22"/>
       <c r="S447" s="22"/>
       <c r="T447" s="21"/>
@@ -26085,7 +26095,7 @@
       <c r="N448" s="21"/>
       <c r="O448" s="21"/>
       <c r="P448" s="21"/>
-      <c r="Q448" s="21"/>
+      <c r="Q448" s="37"/>
       <c r="R448" s="22"/>
       <c r="S448" s="22"/>
       <c r="T448" s="21"/>
@@ -26136,7 +26146,7 @@
       <c r="N449" s="21"/>
       <c r="O449" s="21"/>
       <c r="P449" s="21"/>
-      <c r="Q449" s="21"/>
+      <c r="Q449" s="37"/>
       <c r="R449" s="22"/>
       <c r="S449" s="22"/>
       <c r="T449" s="21"/>
@@ -26187,7 +26197,7 @@
       <c r="N450" s="21"/>
       <c r="O450" s="21"/>
       <c r="P450" s="21"/>
-      <c r="Q450" s="21"/>
+      <c r="Q450" s="37"/>
       <c r="R450" s="22"/>
       <c r="S450" s="22"/>
       <c r="T450" s="21"/>
@@ -26238,7 +26248,7 @@
       <c r="N451" s="21"/>
       <c r="O451" s="21"/>
       <c r="P451" s="21"/>
-      <c r="Q451" s="21"/>
+      <c r="Q451" s="37"/>
       <c r="R451" s="22"/>
       <c r="S451" s="22"/>
       <c r="T451" s="21"/>
@@ -26289,7 +26299,7 @@
       <c r="N452" s="21"/>
       <c r="O452" s="21"/>
       <c r="P452" s="21"/>
-      <c r="Q452" s="21"/>
+      <c r="Q452" s="37"/>
       <c r="R452" s="22"/>
       <c r="S452" s="22"/>
       <c r="T452" s="21"/>
@@ -26340,7 +26350,7 @@
       <c r="N453" s="21"/>
       <c r="O453" s="21"/>
       <c r="P453" s="21"/>
-      <c r="Q453" s="21"/>
+      <c r="Q453" s="37"/>
       <c r="R453" s="22"/>
       <c r="S453" s="22"/>
       <c r="T453" s="21"/>
@@ -26391,7 +26401,7 @@
       <c r="N454" s="21"/>
       <c r="O454" s="21"/>
       <c r="P454" s="21"/>
-      <c r="Q454" s="21"/>
+      <c r="Q454" s="37"/>
       <c r="R454" s="22"/>
       <c r="S454" s="22"/>
       <c r="T454" s="21"/>
@@ -26442,7 +26452,7 @@
       <c r="N455" s="21"/>
       <c r="O455" s="21"/>
       <c r="P455" s="21"/>
-      <c r="Q455" s="21"/>
+      <c r="Q455" s="37"/>
       <c r="R455" s="22"/>
       <c r="S455" s="22"/>
       <c r="T455" s="21"/>
@@ -26493,7 +26503,7 @@
       <c r="N456" s="21"/>
       <c r="O456" s="21"/>
       <c r="P456" s="21"/>
-      <c r="Q456" s="21"/>
+      <c r="Q456" s="37"/>
       <c r="R456" s="22"/>
       <c r="S456" s="22"/>
       <c r="T456" s="21"/>
@@ -26544,7 +26554,7 @@
       <c r="N457" s="21"/>
       <c r="O457" s="21"/>
       <c r="P457" s="21"/>
-      <c r="Q457" s="21"/>
+      <c r="Q457" s="37"/>
       <c r="R457" s="22"/>
       <c r="S457" s="22"/>
       <c r="T457" s="21"/>
@@ -26595,7 +26605,7 @@
       <c r="N458" s="21"/>
       <c r="O458" s="21"/>
       <c r="P458" s="21"/>
-      <c r="Q458" s="21"/>
+      <c r="Q458" s="37"/>
       <c r="R458" s="22"/>
       <c r="S458" s="22"/>
       <c r="T458" s="21"/>
@@ -26646,7 +26656,7 @@
       <c r="N459" s="21"/>
       <c r="O459" s="21"/>
       <c r="P459" s="21"/>
-      <c r="Q459" s="21"/>
+      <c r="Q459" s="37"/>
       <c r="R459" s="22"/>
       <c r="S459" s="22"/>
       <c r="T459" s="21"/>
@@ -26697,7 +26707,7 @@
       <c r="N460" s="21"/>
       <c r="O460" s="21"/>
       <c r="P460" s="21"/>
-      <c r="Q460" s="21"/>
+      <c r="Q460" s="37"/>
       <c r="R460" s="22"/>
       <c r="S460" s="22"/>
       <c r="T460" s="21"/>
@@ -26748,7 +26758,7 @@
       <c r="N461" s="21"/>
       <c r="O461" s="21"/>
       <c r="P461" s="21"/>
-      <c r="Q461" s="21"/>
+      <c r="Q461" s="37"/>
       <c r="R461" s="22"/>
       <c r="S461" s="22"/>
       <c r="T461" s="21"/>
@@ -26799,7 +26809,7 @@
       <c r="N462" s="21"/>
       <c r="O462" s="21"/>
       <c r="P462" s="21"/>
-      <c r="Q462" s="21"/>
+      <c r="Q462" s="37"/>
       <c r="R462" s="22"/>
       <c r="S462" s="22"/>
       <c r="T462" s="21"/>
@@ -26850,7 +26860,7 @@
       <c r="N463" s="21"/>
       <c r="O463" s="21"/>
       <c r="P463" s="21"/>
-      <c r="Q463" s="21"/>
+      <c r="Q463" s="37"/>
       <c r="R463" s="22"/>
       <c r="S463" s="22"/>
       <c r="T463" s="21"/>
@@ -26901,7 +26911,7 @@
       <c r="N464" s="21"/>
       <c r="O464" s="21"/>
       <c r="P464" s="21"/>
-      <c r="Q464" s="21"/>
+      <c r="Q464" s="37"/>
       <c r="R464" s="22"/>
       <c r="S464" s="22"/>
       <c r="T464" s="21"/>
@@ -26952,7 +26962,7 @@
       <c r="N465" s="21"/>
       <c r="O465" s="21"/>
       <c r="P465" s="21"/>
-      <c r="Q465" s="21"/>
+      <c r="Q465" s="37"/>
       <c r="R465" s="22"/>
       <c r="S465" s="22"/>
       <c r="T465" s="21"/>
@@ -27003,7 +27013,7 @@
       <c r="N466" s="21"/>
       <c r="O466" s="21"/>
       <c r="P466" s="21"/>
-      <c r="Q466" s="21"/>
+      <c r="Q466" s="37"/>
       <c r="R466" s="22"/>
       <c r="S466" s="22"/>
       <c r="T466" s="21"/>
@@ -27054,7 +27064,7 @@
       <c r="N467" s="21"/>
       <c r="O467" s="21"/>
       <c r="P467" s="21"/>
-      <c r="Q467" s="21"/>
+      <c r="Q467" s="37"/>
       <c r="R467" s="22"/>
       <c r="S467" s="22"/>
       <c r="T467" s="21"/>
@@ -27105,7 +27115,7 @@
       <c r="N468" s="21"/>
       <c r="O468" s="21"/>
       <c r="P468" s="21"/>
-      <c r="Q468" s="21"/>
+      <c r="Q468" s="37"/>
       <c r="R468" s="22"/>
       <c r="S468" s="22"/>
       <c r="T468" s="21"/>
@@ -27156,7 +27166,7 @@
       <c r="N469" s="21"/>
       <c r="O469" s="21"/>
       <c r="P469" s="21"/>
-      <c r="Q469" s="21"/>
+      <c r="Q469" s="37"/>
       <c r="R469" s="22"/>
       <c r="S469" s="22"/>
       <c r="T469" s="21"/>
@@ -27207,7 +27217,7 @@
       <c r="N470" s="21"/>
       <c r="O470" s="21"/>
       <c r="P470" s="21"/>
-      <c r="Q470" s="21"/>
+      <c r="Q470" s="37"/>
       <c r="R470" s="22"/>
       <c r="S470" s="22"/>
       <c r="T470" s="21"/>
@@ -27258,7 +27268,7 @@
       <c r="N471" s="21"/>
       <c r="O471" s="21"/>
       <c r="P471" s="21"/>
-      <c r="Q471" s="21"/>
+      <c r="Q471" s="37"/>
       <c r="R471" s="22"/>
       <c r="S471" s="22"/>
       <c r="T471" s="21"/>
@@ -27309,7 +27319,7 @@
       <c r="N472" s="21"/>
       <c r="O472" s="21"/>
       <c r="P472" s="21"/>
-      <c r="Q472" s="21"/>
+      <c r="Q472" s="37"/>
       <c r="R472" s="22"/>
       <c r="S472" s="22"/>
       <c r="T472" s="21"/>
@@ -27360,7 +27370,7 @@
       <c r="N473" s="21"/>
       <c r="O473" s="21"/>
       <c r="P473" s="21"/>
-      <c r="Q473" s="21"/>
+      <c r="Q473" s="37"/>
       <c r="R473" s="22"/>
       <c r="S473" s="22"/>
       <c r="T473" s="21"/>
@@ -27411,7 +27421,7 @@
       <c r="N474" s="21"/>
       <c r="O474" s="21"/>
       <c r="P474" s="21"/>
-      <c r="Q474" s="21"/>
+      <c r="Q474" s="37"/>
       <c r="R474" s="22"/>
       <c r="S474" s="22"/>
       <c r="T474" s="21"/>
@@ -27462,7 +27472,7 @@
       <c r="N475" s="21"/>
       <c r="O475" s="21"/>
       <c r="P475" s="21"/>
-      <c r="Q475" s="21"/>
+      <c r="Q475" s="37"/>
       <c r="R475" s="22"/>
       <c r="S475" s="22"/>
       <c r="T475" s="21"/>
@@ -27513,7 +27523,7 @@
       <c r="N476" s="21"/>
       <c r="O476" s="21"/>
       <c r="P476" s="21"/>
-      <c r="Q476" s="21"/>
+      <c r="Q476" s="37"/>
       <c r="R476" s="22"/>
       <c r="S476" s="22"/>
       <c r="T476" s="21"/>
@@ -27564,7 +27574,7 @@
       <c r="N477" s="21"/>
       <c r="O477" s="21"/>
       <c r="P477" s="21"/>
-      <c r="Q477" s="21"/>
+      <c r="Q477" s="37"/>
       <c r="R477" s="22"/>
       <c r="S477" s="22"/>
       <c r="T477" s="21"/>
@@ -27615,7 +27625,7 @@
       <c r="N478" s="21"/>
       <c r="O478" s="21"/>
       <c r="P478" s="21"/>
-      <c r="Q478" s="21"/>
+      <c r="Q478" s="37"/>
       <c r="R478" s="22"/>
       <c r="S478" s="22"/>
       <c r="T478" s="21"/>
@@ -27666,7 +27676,7 @@
       <c r="N479" s="21"/>
       <c r="O479" s="21"/>
       <c r="P479" s="21"/>
-      <c r="Q479" s="21"/>
+      <c r="Q479" s="37"/>
       <c r="R479" s="22"/>
       <c r="S479" s="22"/>
       <c r="T479" s="21"/>
@@ -27717,7 +27727,7 @@
       <c r="N480" s="21"/>
       <c r="O480" s="21"/>
       <c r="P480" s="21"/>
-      <c r="Q480" s="21"/>
+      <c r="Q480" s="37"/>
       <c r="R480" s="22"/>
       <c r="S480" s="22"/>
       <c r="T480" s="21"/>
@@ -27768,7 +27778,7 @@
       <c r="N481" s="21"/>
       <c r="O481" s="21"/>
       <c r="P481" s="21"/>
-      <c r="Q481" s="21"/>
+      <c r="Q481" s="37"/>
       <c r="R481" s="22"/>
       <c r="S481" s="22"/>
       <c r="T481" s="21"/>
@@ -27819,7 +27829,7 @@
       <c r="N482" s="21"/>
       <c r="O482" s="21"/>
       <c r="P482" s="21"/>
-      <c r="Q482" s="21"/>
+      <c r="Q482" s="37"/>
       <c r="R482" s="22"/>
       <c r="S482" s="22"/>
       <c r="T482" s="21"/>
@@ -27870,7 +27880,7 @@
       <c r="N483" s="21"/>
       <c r="O483" s="21"/>
       <c r="P483" s="21"/>
-      <c r="Q483" s="21"/>
+      <c r="Q483" s="37"/>
       <c r="R483" s="22"/>
       <c r="S483" s="22"/>
       <c r="T483" s="21"/>
@@ -27921,7 +27931,7 @@
       <c r="N484" s="21"/>
       <c r="O484" s="21"/>
       <c r="P484" s="21"/>
-      <c r="Q484" s="21"/>
+      <c r="Q484" s="37"/>
       <c r="R484" s="22"/>
       <c r="S484" s="22"/>
       <c r="T484" s="21"/>
@@ -27972,7 +27982,7 @@
       <c r="N485" s="21"/>
       <c r="O485" s="21"/>
       <c r="P485" s="21"/>
-      <c r="Q485" s="21"/>
+      <c r="Q485" s="37"/>
       <c r="R485" s="22"/>
       <c r="S485" s="22"/>
       <c r="T485" s="21"/>
@@ -28023,7 +28033,7 @@
       <c r="N486" s="21"/>
       <c r="O486" s="21"/>
       <c r="P486" s="21"/>
-      <c r="Q486" s="21"/>
+      <c r="Q486" s="37"/>
       <c r="R486" s="22"/>
       <c r="S486" s="22"/>
       <c r="T486" s="21"/>
@@ -28074,7 +28084,7 @@
       <c r="N487" s="21"/>
       <c r="O487" s="21"/>
       <c r="P487" s="21"/>
-      <c r="Q487" s="21"/>
+      <c r="Q487" s="37"/>
       <c r="R487" s="22"/>
       <c r="S487" s="22"/>
       <c r="T487" s="21"/>
@@ -28125,7 +28135,7 @@
       <c r="N488" s="21"/>
       <c r="O488" s="21"/>
       <c r="P488" s="21"/>
-      <c r="Q488" s="21"/>
+      <c r="Q488" s="37"/>
       <c r="R488" s="22"/>
       <c r="S488" s="22"/>
       <c r="T488" s="21"/>
@@ -28176,7 +28186,7 @@
       <c r="N489" s="21"/>
       <c r="O489" s="21"/>
       <c r="P489" s="21"/>
-      <c r="Q489" s="21"/>
+      <c r="Q489" s="37"/>
       <c r="R489" s="22"/>
       <c r="S489" s="22"/>
       <c r="T489" s="21"/>
@@ -28227,7 +28237,7 @@
       <c r="N490" s="21"/>
       <c r="O490" s="21"/>
       <c r="P490" s="21"/>
-      <c r="Q490" s="21"/>
+      <c r="Q490" s="37"/>
       <c r="R490" s="22"/>
       <c r="S490" s="22"/>
       <c r="T490" s="21"/>
@@ -28278,7 +28288,7 @@
       <c r="N491" s="21"/>
       <c r="O491" s="21"/>
       <c r="P491" s="21"/>
-      <c r="Q491" s="21"/>
+      <c r="Q491" s="37"/>
       <c r="R491" s="22"/>
       <c r="S491" s="22"/>
       <c r="T491" s="21"/>
@@ -28329,7 +28339,7 @@
       <c r="N492" s="21"/>
       <c r="O492" s="21"/>
       <c r="P492" s="21"/>
-      <c r="Q492" s="21"/>
+      <c r="Q492" s="37"/>
       <c r="R492" s="22"/>
       <c r="S492" s="22"/>
       <c r="T492" s="21"/>
@@ -28380,7 +28390,7 @@
       <c r="N493" s="21"/>
       <c r="O493" s="21"/>
       <c r="P493" s="21"/>
-      <c r="Q493" s="21"/>
+      <c r="Q493" s="37"/>
       <c r="R493" s="22"/>
       <c r="S493" s="22"/>
       <c r="T493" s="21"/>
@@ -28431,7 +28441,7 @@
       <c r="N494" s="21"/>
       <c r="O494" s="21"/>
       <c r="P494" s="21"/>
-      <c r="Q494" s="21"/>
+      <c r="Q494" s="37"/>
       <c r="R494" s="22"/>
       <c r="S494" s="22"/>
       <c r="T494" s="21"/>
@@ -28482,7 +28492,7 @@
       <c r="N495" s="21"/>
       <c r="O495" s="21"/>
       <c r="P495" s="21"/>
-      <c r="Q495" s="21"/>
+      <c r="Q495" s="37"/>
       <c r="R495" s="22"/>
       <c r="S495" s="22"/>
       <c r="T495" s="21"/>
@@ -28533,7 +28543,7 @@
       <c r="N496" s="21"/>
       <c r="O496" s="21"/>
       <c r="P496" s="21"/>
-      <c r="Q496" s="21"/>
+      <c r="Q496" s="37"/>
       <c r="R496" s="22"/>
       <c r="S496" s="22"/>
       <c r="T496" s="21"/>
@@ -28584,7 +28594,7 @@
       <c r="N497" s="21"/>
       <c r="O497" s="21"/>
       <c r="P497" s="21"/>
-      <c r="Q497" s="21"/>
+      <c r="Q497" s="37"/>
       <c r="R497" s="22"/>
       <c r="S497" s="22"/>
       <c r="T497" s="21"/>
@@ -28635,7 +28645,7 @@
       <c r="N498" s="21"/>
       <c r="O498" s="21"/>
       <c r="P498" s="21"/>
-      <c r="Q498" s="21"/>
+      <c r="Q498" s="37"/>
       <c r="R498" s="22"/>
       <c r="S498" s="22"/>
       <c r="T498" s="21"/>
@@ -28686,7 +28696,7 @@
       <c r="N499" s="21"/>
       <c r="O499" s="21"/>
       <c r="P499" s="21"/>
-      <c r="Q499" s="21"/>
+      <c r="Q499" s="37"/>
       <c r="R499" s="22"/>
       <c r="S499" s="22"/>
       <c r="T499" s="21"/>
@@ -28737,7 +28747,7 @@
       <c r="N500" s="21"/>
       <c r="O500" s="21"/>
       <c r="P500" s="21"/>
-      <c r="Q500" s="21"/>
+      <c r="Q500" s="37"/>
       <c r="R500" s="22"/>
       <c r="S500" s="22"/>
       <c r="T500" s="21"/>
@@ -28788,7 +28798,7 @@
       <c r="N501" s="21"/>
       <c r="O501" s="21"/>
       <c r="P501" s="21"/>
-      <c r="Q501" s="21"/>
+      <c r="Q501" s="37"/>
       <c r="R501" s="22"/>
       <c r="S501" s="22"/>
       <c r="T501" s="21"/>
@@ -28839,7 +28849,7 @@
       <c r="N502" s="21"/>
       <c r="O502" s="21"/>
       <c r="P502" s="21"/>
-      <c r="Q502" s="21"/>
+      <c r="Q502" s="37"/>
       <c r="R502" s="22"/>
       <c r="S502" s="22"/>
       <c r="T502" s="21"/>
@@ -28890,7 +28900,7 @@
       <c r="N503" s="21"/>
       <c r="O503" s="21"/>
       <c r="P503" s="21"/>
-      <c r="Q503" s="21"/>
+      <c r="Q503" s="37"/>
       <c r="R503" s="22"/>
       <c r="S503" s="22"/>
       <c r="T503" s="21"/>
@@ -28941,7 +28951,7 @@
       <c r="N504" s="21"/>
       <c r="O504" s="21"/>
       <c r="P504" s="21"/>
-      <c r="Q504" s="21"/>
+      <c r="Q504" s="37"/>
       <c r="R504" s="22"/>
       <c r="S504" s="22"/>
       <c r="T504" s="21"/>
@@ -28992,7 +29002,7 @@
       <c r="N505" s="21"/>
       <c r="O505" s="21"/>
       <c r="P505" s="21"/>
-      <c r="Q505" s="21"/>
+      <c r="Q505" s="37"/>
       <c r="R505" s="22"/>
       <c r="S505" s="22"/>
       <c r="T505" s="21"/>
@@ -29043,7 +29053,7 @@
       <c r="N506" s="21"/>
       <c r="O506" s="21"/>
       <c r="P506" s="21"/>
-      <c r="Q506" s="21"/>
+      <c r="Q506" s="37"/>
       <c r="R506" s="22"/>
       <c r="S506" s="22"/>
       <c r="T506" s="21"/>
@@ -29094,7 +29104,7 @@
       <c r="N507" s="21"/>
       <c r="O507" s="21"/>
       <c r="P507" s="21"/>
-      <c r="Q507" s="21"/>
+      <c r="Q507" s="37"/>
       <c r="R507" s="22"/>
       <c r="S507" s="22"/>
       <c r="T507" s="21"/>
@@ -29145,7 +29155,7 @@
       <c r="N508" s="21"/>
       <c r="O508" s="21"/>
       <c r="P508" s="21"/>
-      <c r="Q508" s="21"/>
+      <c r="Q508" s="37"/>
       <c r="R508" s="22"/>
       <c r="S508" s="22"/>
       <c r="T508" s="21"/>
@@ -29196,7 +29206,7 @@
       <c r="N509" s="21"/>
       <c r="O509" s="21"/>
       <c r="P509" s="21"/>
-      <c r="Q509" s="21"/>
+      <c r="Q509" s="37"/>
       <c r="R509" s="22"/>
       <c r="S509" s="22"/>
       <c r="T509" s="21"/>
@@ -29247,7 +29257,7 @@
       <c r="N510" s="21"/>
       <c r="O510" s="21"/>
       <c r="P510" s="21"/>
-      <c r="Q510" s="21"/>
+      <c r="Q510" s="37"/>
       <c r="R510" s="22"/>
       <c r="S510" s="22"/>
       <c r="T510" s="21"/>
@@ -29298,7 +29308,7 @@
       <c r="N511" s="21"/>
       <c r="O511" s="21"/>
       <c r="P511" s="21"/>
-      <c r="Q511" s="21"/>
+      <c r="Q511" s="37"/>
       <c r="R511" s="22"/>
       <c r="S511" s="22"/>
       <c r="T511" s="21"/>
@@ -29349,7 +29359,7 @@
       <c r="N512" s="21"/>
       <c r="O512" s="21"/>
       <c r="P512" s="21"/>
-      <c r="Q512" s="21"/>
+      <c r="Q512" s="37"/>
       <c r="R512" s="22"/>
       <c r="S512" s="22"/>
       <c r="T512" s="21"/>
@@ -29400,7 +29410,7 @@
       <c r="N513" s="21"/>
       <c r="O513" s="21"/>
       <c r="P513" s="21"/>
-      <c r="Q513" s="21"/>
+      <c r="Q513" s="37"/>
       <c r="R513" s="22"/>
       <c r="S513" s="22"/>
       <c r="T513" s="21"/>
@@ -29451,7 +29461,7 @@
       <c r="N514" s="21"/>
       <c r="O514" s="21"/>
       <c r="P514" s="21"/>
-      <c r="Q514" s="21"/>
+      <c r="Q514" s="37"/>
       <c r="R514" s="22"/>
       <c r="S514" s="22"/>
       <c r="T514" s="21"/>
@@ -29502,7 +29512,7 @@
       <c r="N515" s="21"/>
       <c r="O515" s="21"/>
       <c r="P515" s="21"/>
-      <c r="Q515" s="21"/>
+      <c r="Q515" s="37"/>
       <c r="R515" s="22"/>
       <c r="S515" s="22"/>
       <c r="T515" s="21"/>
@@ -29553,7 +29563,7 @@
       <c r="N516" s="21"/>
       <c r="O516" s="21"/>
       <c r="P516" s="21"/>
-      <c r="Q516" s="21"/>
+      <c r="Q516" s="37"/>
       <c r="R516" s="22"/>
       <c r="S516" s="22"/>
       <c r="T516" s="21"/>
@@ -29604,7 +29614,7 @@
       <c r="N517" s="21"/>
       <c r="O517" s="21"/>
       <c r="P517" s="21"/>
-      <c r="Q517" s="21"/>
+      <c r="Q517" s="37"/>
       <c r="R517" s="22"/>
       <c r="S517" s="22"/>
       <c r="T517" s="21"/>
@@ -29655,7 +29665,7 @@
       <c r="N518" s="21"/>
       <c r="O518" s="21"/>
       <c r="P518" s="21"/>
-      <c r="Q518" s="21"/>
+      <c r="Q518" s="37"/>
       <c r="R518" s="22"/>
       <c r="S518" s="22"/>
       <c r="T518" s="21"/>
@@ -29706,7 +29716,7 @@
       <c r="N519" s="21"/>
       <c r="O519" s="21"/>
       <c r="P519" s="21"/>
-      <c r="Q519" s="21"/>
+      <c r="Q519" s="37"/>
       <c r="R519" s="22"/>
       <c r="S519" s="22"/>
       <c r="T519" s="21"/>
@@ -29757,7 +29767,7 @@
       <c r="N520" s="21"/>
       <c r="O520" s="21"/>
       <c r="P520" s="21"/>
-      <c r="Q520" s="21"/>
+      <c r="Q520" s="37"/>
       <c r="R520" s="22"/>
       <c r="S520" s="22"/>
       <c r="T520" s="21"/>
@@ -29808,7 +29818,7 @@
       <c r="N521" s="21"/>
       <c r="O521" s="21"/>
       <c r="P521" s="21"/>
-      <c r="Q521" s="21"/>
+      <c r="Q521" s="37"/>
       <c r="R521" s="22"/>
       <c r="S521" s="22"/>
       <c r="T521" s="21"/>
@@ -29859,7 +29869,7 @@
       <c r="N522" s="21"/>
       <c r="O522" s="21"/>
       <c r="P522" s="21"/>
-      <c r="Q522" s="21"/>
+      <c r="Q522" s="37"/>
       <c r="R522" s="22"/>
       <c r="S522" s="22"/>
       <c r="T522" s="21"/>
@@ -29910,7 +29920,7 @@
       <c r="N523" s="21"/>
       <c r="O523" s="21"/>
       <c r="P523" s="21"/>
-      <c r="Q523" s="21"/>
+      <c r="Q523" s="37"/>
       <c r="R523" s="22"/>
       <c r="S523" s="22"/>
       <c r="T523" s="21"/>
@@ -29961,7 +29971,7 @@
       <c r="N524" s="21"/>
       <c r="O524" s="21"/>
       <c r="P524" s="21"/>
-      <c r="Q524" s="21"/>
+      <c r="Q524" s="37"/>
       <c r="R524" s="22"/>
       <c r="S524" s="22"/>
       <c r="T524" s="21"/>
@@ -30012,7 +30022,7 @@
       <c r="N525" s="21"/>
       <c r="O525" s="21"/>
       <c r="P525" s="21"/>
-      <c r="Q525" s="21"/>
+      <c r="Q525" s="37"/>
       <c r="R525" s="22"/>
       <c r="S525" s="22"/>
       <c r="T525" s="21"/>
@@ -30063,7 +30073,7 @@
       <c r="N526" s="21"/>
       <c r="O526" s="21"/>
       <c r="P526" s="21"/>
-      <c r="Q526" s="21"/>
+      <c r="Q526" s="37"/>
       <c r="R526" s="22"/>
       <c r="S526" s="22"/>
       <c r="T526" s="21"/>
@@ -30114,7 +30124,7 @@
       <c r="N527" s="21"/>
       <c r="O527" s="21"/>
       <c r="P527" s="21"/>
-      <c r="Q527" s="21"/>
+      <c r="Q527" s="37"/>
       <c r="R527" s="22"/>
       <c r="S527" s="22"/>
       <c r="T527" s="21"/>
@@ -30165,7 +30175,7 @@
       <c r="N528" s="21"/>
       <c r="O528" s="21"/>
       <c r="P528" s="21"/>
-      <c r="Q528" s="21"/>
+      <c r="Q528" s="37"/>
       <c r="R528" s="22"/>
       <c r="S528" s="22"/>
       <c r="T528" s="21"/>
@@ -30216,7 +30226,7 @@
       <c r="N529" s="21"/>
       <c r="O529" s="21"/>
       <c r="P529" s="21"/>
-      <c r="Q529" s="21"/>
+      <c r="Q529" s="37"/>
       <c r="R529" s="22"/>
       <c r="S529" s="22"/>
       <c r="T529" s="21"/>
@@ -30267,7 +30277,7 @@
       <c r="N530" s="21"/>
       <c r="O530" s="21"/>
       <c r="P530" s="21"/>
-      <c r="Q530" s="21"/>
+      <c r="Q530" s="37"/>
       <c r="R530" s="22"/>
       <c r="S530" s="22"/>
       <c r="T530" s="21"/>
@@ -30318,7 +30328,7 @@
       <c r="N531" s="21"/>
       <c r="O531" s="21"/>
       <c r="P531" s="21"/>
-      <c r="Q531" s="21"/>
+      <c r="Q531" s="37"/>
       <c r="R531" s="22"/>
       <c r="S531" s="22"/>
       <c r="T531" s="21"/>
@@ -30369,7 +30379,7 @@
       <c r="N532" s="21"/>
       <c r="O532" s="21"/>
       <c r="P532" s="21"/>
-      <c r="Q532" s="21"/>
+      <c r="Q532" s="37"/>
       <c r="R532" s="22"/>
       <c r="S532" s="22"/>
       <c r="T532" s="21"/>
@@ -30420,7 +30430,7 @@
       <c r="N533" s="21"/>
       <c r="O533" s="21"/>
       <c r="P533" s="21"/>
-      <c r="Q533" s="21"/>
+      <c r="Q533" s="37"/>
       <c r="R533" s="22"/>
       <c r="S533" s="22"/>
       <c r="T533" s="21"/>
@@ -30471,7 +30481,7 @@
       <c r="N534" s="21"/>
       <c r="O534" s="21"/>
       <c r="P534" s="21"/>
-      <c r="Q534" s="21"/>
+      <c r="Q534" s="37"/>
       <c r="R534" s="22"/>
       <c r="S534" s="22"/>
       <c r="T534" s="21"/>
@@ -30522,7 +30532,7 @@
       <c r="N535" s="21"/>
       <c r="O535" s="21"/>
       <c r="P535" s="21"/>
-      <c r="Q535" s="21"/>
+      <c r="Q535" s="37"/>
       <c r="R535" s="22"/>
       <c r="S535" s="22"/>
       <c r="T535" s="21"/>
@@ -30573,7 +30583,7 @@
       <c r="N536" s="21"/>
       <c r="O536" s="21"/>
       <c r="P536" s="21"/>
-      <c r="Q536" s="21"/>
+      <c r="Q536" s="37"/>
       <c r="R536" s="22"/>
       <c r="S536" s="22"/>
       <c r="T536" s="21"/>
@@ -30624,7 +30634,7 @@
       <c r="N537" s="21"/>
       <c r="O537" s="21"/>
       <c r="P537" s="21"/>
-      <c r="Q537" s="21"/>
+      <c r="Q537" s="37"/>
       <c r="R537" s="22"/>
       <c r="S537" s="22"/>
       <c r="T537" s="21"/>
@@ -30675,7 +30685,7 @@
       <c r="N538" s="21"/>
       <c r="O538" s="21"/>
       <c r="P538" s="21"/>
-      <c r="Q538" s="21"/>
+      <c r="Q538" s="37"/>
       <c r="R538" s="22"/>
       <c r="S538" s="22"/>
       <c r="T538" s="21"/>
@@ -30726,7 +30736,7 @@
       <c r="N539" s="21"/>
       <c r="O539" s="21"/>
       <c r="P539" s="21"/>
-      <c r="Q539" s="21"/>
+      <c r="Q539" s="37"/>
       <c r="R539" s="22"/>
       <c r="S539" s="22"/>
       <c r="T539" s="21"/>
@@ -30777,7 +30787,7 @@
       <c r="N540" s="21"/>
       <c r="O540" s="21"/>
       <c r="P540" s="21"/>
-      <c r="Q540" s="21"/>
+      <c r="Q540" s="37"/>
       <c r="R540" s="22"/>
       <c r="S540" s="22"/>
       <c r="T540" s="21"/>
@@ -30828,7 +30838,7 @@
       <c r="N541" s="21"/>
       <c r="O541" s="21"/>
       <c r="P541" s="21"/>
-      <c r="Q541" s="21"/>
+      <c r="Q541" s="37"/>
       <c r="R541" s="22"/>
       <c r="S541" s="22"/>
       <c r="T541" s="21"/>
@@ -30879,7 +30889,7 @@
       <c r="N542" s="21"/>
       <c r="O542" s="21"/>
       <c r="P542" s="21"/>
-      <c r="Q542" s="21"/>
+      <c r="Q542" s="37"/>
       <c r="R542" s="22"/>
       <c r="S542" s="22"/>
       <c r="T542" s="21"/>
@@ -30930,7 +30940,7 @@
       <c r="N543" s="21"/>
       <c r="O543" s="21"/>
       <c r="P543" s="21"/>
-      <c r="Q543" s="21"/>
+      <c r="Q543" s="37"/>
       <c r="R543" s="22"/>
       <c r="S543" s="22"/>
       <c r="T543" s="21"/>
@@ -30981,7 +30991,7 @@
       <c r="N544" s="21"/>
       <c r="O544" s="21"/>
       <c r="P544" s="21"/>
-      <c r="Q544" s="21"/>
+      <c r="Q544" s="37"/>
       <c r="R544" s="22"/>
       <c r="S544" s="22"/>
       <c r="T544" s="21"/>
@@ -31032,7 +31042,7 @@
       <c r="N545" s="21"/>
       <c r="O545" s="21"/>
       <c r="P545" s="21"/>
-      <c r="Q545" s="21"/>
+      <c r="Q545" s="37"/>
       <c r="R545" s="22"/>
       <c r="S545" s="22"/>
       <c r="T545" s="21"/>
@@ -31083,7 +31093,7 @@
       <c r="N546" s="21"/>
       <c r="O546" s="21"/>
       <c r="P546" s="21"/>
-      <c r="Q546" s="21"/>
+      <c r="Q546" s="37"/>
       <c r="R546" s="22"/>
       <c r="S546" s="22"/>
       <c r="T546" s="21"/>
@@ -31134,7 +31144,7 @@
       <c r="N547" s="21"/>
       <c r="O547" s="21"/>
       <c r="P547" s="21"/>
-      <c r="Q547" s="21"/>
+      <c r="Q547" s="37"/>
       <c r="R547" s="22"/>
       <c r="S547" s="22"/>
       <c r="T547" s="21"/>
@@ -31185,7 +31195,7 @@
       <c r="N548" s="21"/>
       <c r="O548" s="21"/>
       <c r="P548" s="21"/>
-      <c r="Q548" s="21"/>
+      <c r="Q548" s="37"/>
       <c r="R548" s="22"/>
       <c r="S548" s="22"/>
       <c r="T548" s="21"/>
@@ -31236,7 +31246,7 @@
       <c r="N549" s="21"/>
       <c r="O549" s="21"/>
       <c r="P549" s="21"/>
-      <c r="Q549" s="21"/>
+      <c r="Q549" s="37"/>
       <c r="R549" s="22"/>
       <c r="S549" s="22"/>
       <c r="T549" s="21"/>
@@ -31287,7 +31297,7 @@
       <c r="N550" s="21"/>
       <c r="O550" s="21"/>
       <c r="P550" s="21"/>
-      <c r="Q550" s="21"/>
+      <c r="Q550" s="37"/>
       <c r="R550" s="22"/>
       <c r="S550" s="22"/>
       <c r="T550" s="21"/>
@@ -31338,7 +31348,7 @@
       <c r="N551" s="21"/>
       <c r="O551" s="21"/>
       <c r="P551" s="21"/>
-      <c r="Q551" s="21"/>
+      <c r="Q551" s="37"/>
       <c r="R551" s="22"/>
       <c r="S551" s="22"/>
       <c r="T551" s="21"/>
@@ -31389,7 +31399,7 @@
       <c r="N552" s="21"/>
       <c r="O552" s="21"/>
       <c r="P552" s="21"/>
-      <c r="Q552" s="21"/>
+      <c r="Q552" s="37"/>
       <c r="R552" s="22"/>
       <c r="S552" s="22"/>
       <c r="T552" s="21"/>
@@ -31440,7 +31450,7 @@
       <c r="N553" s="21"/>
       <c r="O553" s="21"/>
       <c r="P553" s="21"/>
-      <c r="Q553" s="21"/>
+      <c r="Q553" s="37"/>
       <c r="R553" s="22"/>
       <c r="S553" s="22"/>
       <c r="T553" s="21"/>
@@ -31491,7 +31501,7 @@
       <c r="N554" s="21"/>
       <c r="O554" s="21"/>
       <c r="P554" s="21"/>
-      <c r="Q554" s="21"/>
+      <c r="Q554" s="37"/>
       <c r="R554" s="22"/>
       <c r="S554" s="22"/>
       <c r="T554" s="21"/>
@@ -31542,7 +31552,7 @@
       <c r="N555" s="21"/>
       <c r="O555" s="21"/>
       <c r="P555" s="21"/>
-      <c r="Q555" s="21"/>
+      <c r="Q555" s="37"/>
       <c r="R555" s="22"/>
       <c r="S555" s="22"/>
       <c r="T555" s="21"/>
@@ -31593,7 +31603,7 @@
       <c r="N556" s="21"/>
       <c r="O556" s="21"/>
       <c r="P556" s="21"/>
-      <c r="Q556" s="21"/>
+      <c r="Q556" s="37"/>
       <c r="R556" s="22"/>
       <c r="S556" s="22"/>
       <c r="T556" s="21"/>
@@ -31644,7 +31654,7 @@
       <c r="N557" s="21"/>
       <c r="O557" s="21"/>
       <c r="P557" s="21"/>
-      <c r="Q557" s="21"/>
+      <c r="Q557" s="37"/>
       <c r="R557" s="22"/>
       <c r="S557" s="22"/>
       <c r="T557" s="21"/>
@@ -31695,7 +31705,7 @@
       <c r="N558" s="21"/>
       <c r="O558" s="21"/>
       <c r="P558" s="21"/>
-      <c r="Q558" s="21"/>
+      <c r="Q558" s="37"/>
       <c r="R558" s="22"/>
       <c r="S558" s="22"/>
       <c r="T558" s="21"/>
@@ -31746,7 +31756,7 @@
       <c r="N559" s="21"/>
       <c r="O559" s="21"/>
       <c r="P559" s="21"/>
-      <c r="Q559" s="21"/>
+      <c r="Q559" s="37"/>
       <c r="R559" s="22"/>
       <c r="S559" s="22"/>
       <c r="T559" s="21"/>
@@ -31797,7 +31807,7 @@
       <c r="N560" s="21"/>
       <c r="O560" s="21"/>
       <c r="P560" s="21"/>
-      <c r="Q560" s="21"/>
+      <c r="Q560" s="37"/>
       <c r="R560" s="22"/>
       <c r="S560" s="22"/>
       <c r="T560" s="21"/>
@@ -31848,7 +31858,7 @@
       <c r="N561" s="21"/>
       <c r="O561" s="21"/>
       <c r="P561" s="21"/>
-      <c r="Q561" s="21"/>
+      <c r="Q561" s="37"/>
       <c r="R561" s="22"/>
       <c r="S561" s="22"/>
       <c r="T561" s="21"/>
@@ -31899,7 +31909,7 @@
       <c r="N562" s="21"/>
       <c r="O562" s="21"/>
       <c r="P562" s="21"/>
-      <c r="Q562" s="21"/>
+      <c r="Q562" s="37"/>
       <c r="R562" s="22"/>
       <c r="S562" s="22"/>
       <c r="T562" s="21"/>
@@ -31950,7 +31960,7 @@
       <c r="N563" s="21"/>
       <c r="O563" s="21"/>
       <c r="P563" s="21"/>
-      <c r="Q563" s="21"/>
+      <c r="Q563" s="37"/>
       <c r="R563" s="22"/>
       <c r="S563" s="22"/>
       <c r="T563" s="21"/>
@@ -32001,7 +32011,7 @@
       <c r="N564" s="21"/>
       <c r="O564" s="21"/>
       <c r="P564" s="21"/>
-      <c r="Q564" s="21"/>
+      <c r="Q564" s="37"/>
       <c r="R564" s="22"/>
       <c r="S564" s="22"/>
       <c r="T564" s="21"/>
@@ -32052,7 +32062,7 @@
       <c r="N565" s="21"/>
       <c r="O565" s="21"/>
       <c r="P565" s="21"/>
-      <c r="Q565" s="21"/>
+      <c r="Q565" s="37"/>
       <c r="R565" s="22"/>
       <c r="S565" s="22"/>
       <c r="T565" s="21"/>
@@ -32103,7 +32113,7 @@
       <c r="N566" s="21"/>
       <c r="O566" s="21"/>
       <c r="P566" s="21"/>
-      <c r="Q566" s="21"/>
+      <c r="Q566" s="37"/>
       <c r="R566" s="22"/>
       <c r="S566" s="22"/>
       <c r="T566" s="21"/>
@@ -32154,7 +32164,7 @@
       <c r="N567" s="21"/>
       <c r="O567" s="21"/>
       <c r="P567" s="21"/>
-      <c r="Q567" s="21"/>
+      <c r="Q567" s="37"/>
       <c r="R567" s="22"/>
       <c r="S567" s="22"/>
       <c r="T567" s="21"/>
@@ -32205,7 +32215,7 @@
       <c r="N568" s="21"/>
       <c r="O568" s="21"/>
       <c r="P568" s="21"/>
-      <c r="Q568" s="21"/>
+      <c r="Q568" s="37"/>
       <c r="R568" s="22"/>
       <c r="S568" s="22"/>
       <c r="T568" s="21"/>
@@ -32256,7 +32266,7 @@
       <c r="N569" s="21"/>
       <c r="O569" s="21"/>
       <c r="P569" s="21"/>
-      <c r="Q569" s="21"/>
+      <c r="Q569" s="37"/>
       <c r="R569" s="22"/>
       <c r="S569" s="22"/>
       <c r="T569" s="21"/>
@@ -32307,7 +32317,7 @@
       <c r="N570" s="21"/>
       <c r="O570" s="21"/>
       <c r="P570" s="21"/>
-      <c r="Q570" s="21"/>
+      <c r="Q570" s="37"/>
       <c r="R570" s="22"/>
       <c r="S570" s="22"/>
       <c r="T570" s="21"/>
@@ -32358,7 +32368,7 @@
       <c r="N571" s="21"/>
       <c r="O571" s="21"/>
       <c r="P571" s="21"/>
-      <c r="Q571" s="21"/>
+      <c r="Q571" s="37"/>
       <c r="R571" s="22"/>
       <c r="S571" s="22"/>
       <c r="T571" s="21"/>
@@ -32409,7 +32419,7 @@
       <c r="N572" s="21"/>
       <c r="O572" s="21"/>
       <c r="P572" s="21"/>
-      <c r="Q572" s="21"/>
+      <c r="Q572" s="37"/>
       <c r="R572" s="22"/>
       <c r="S572" s="22"/>
       <c r="T572" s="21"/>
@@ -32460,7 +32470,7 @@
       <c r="N573" s="21"/>
       <c r="O573" s="21"/>
       <c r="P573" s="21"/>
-      <c r="Q573" s="21"/>
+      <c r="Q573" s="37"/>
       <c r="R573" s="22"/>
       <c r="S573" s="22"/>
       <c r="T573" s="21"/>
@@ -32511,7 +32521,7 @@
       <c r="N574" s="21"/>
       <c r="O574" s="21"/>
       <c r="P574" s="21"/>
-      <c r="Q574" s="21"/>
+      <c r="Q574" s="37"/>
       <c r="R574" s="22"/>
       <c r="S574" s="22"/>
       <c r="T574" s="21"/>
@@ -32562,7 +32572,7 @@
       <c r="N575" s="21"/>
       <c r="O575" s="21"/>
       <c r="P575" s="21"/>
-      <c r="Q575" s="21"/>
+      <c r="Q575" s="37"/>
       <c r="R575" s="22"/>
       <c r="S575" s="22"/>
       <c r="T575" s="21"/>
@@ -32613,7 +32623,7 @@
       <c r="N576" s="21"/>
       <c r="O576" s="21"/>
       <c r="P576" s="21"/>
-      <c r="Q576" s="21"/>
+      <c r="Q576" s="37"/>
       <c r="R576" s="22"/>
       <c r="S576" s="22"/>
       <c r="T576" s="21"/>
@@ -32664,7 +32674,7 @@
       <c r="N577" s="21"/>
       <c r="O577" s="21"/>
       <c r="P577" s="21"/>
-      <c r="Q577" s="21"/>
+      <c r="Q577" s="37"/>
       <c r="R577" s="22"/>
       <c r="S577" s="22"/>
       <c r="T577" s="21"/>
@@ -32715,7 +32725,7 @@
       <c r="N578" s="21"/>
       <c r="O578" s="21"/>
       <c r="P578" s="21"/>
-      <c r="Q578" s="21"/>
+      <c r="Q578" s="37"/>
       <c r="R578" s="22"/>
       <c r="S578" s="22"/>
       <c r="T578" s="21"/>
@@ -32766,7 +32776,7 @@
       <c r="N579" s="21"/>
       <c r="O579" s="21"/>
       <c r="P579" s="21"/>
-      <c r="Q579" s="21"/>
+      <c r="Q579" s="37"/>
       <c r="R579" s="22"/>
       <c r="S579" s="22"/>
       <c r="T579" s="21"/>
@@ -32817,7 +32827,7 @@
       <c r="N580" s="21"/>
       <c r="O580" s="21"/>
       <c r="P580" s="21"/>
-      <c r="Q580" s="21"/>
+      <c r="Q580" s="37"/>
       <c r="R580" s="22"/>
       <c r="S580" s="22"/>
       <c r="T580" s="21"/>
@@ -32868,7 +32878,7 @@
       <c r="N581" s="21"/>
       <c r="O581" s="21"/>
       <c r="P581" s="21"/>
-      <c r="Q581" s="21"/>
+      <c r="Q581" s="37"/>
       <c r="R581" s="22"/>
       <c r="S581" s="22"/>
       <c r="T581" s="21"/>
@@ -32919,7 +32929,7 @@
       <c r="N582" s="21"/>
       <c r="O582" s="21"/>
       <c r="P582" s="21"/>
-      <c r="Q582" s="21"/>
+      <c r="Q582" s="37"/>
       <c r="R582" s="22"/>
       <c r="S582" s="22"/>
       <c r="T582" s="21"/>
@@ -32970,7 +32980,7 @@
       <c r="N583" s="21"/>
       <c r="O583" s="21"/>
       <c r="P583" s="21"/>
-      <c r="Q583" s="21"/>
+      <c r="Q583" s="37"/>
       <c r="R583" s="22"/>
       <c r="S583" s="22"/>
       <c r="T583" s="21"/>
@@ -33021,7 +33031,7 @@
       <c r="N584" s="21"/>
       <c r="O584" s="21"/>
       <c r="P584" s="21"/>
-      <c r="Q584" s="21"/>
+      <c r="Q584" s="37"/>
       <c r="R584" s="22"/>
       <c r="S584" s="22"/>
       <c r="T584" s="21"/>
@@ -33072,7 +33082,7 @@
       <c r="N585" s="21"/>
       <c r="O585" s="21"/>
       <c r="P585" s="21"/>
-      <c r="Q585" s="21"/>
+      <c r="Q585" s="37"/>
       <c r="R585" s="22"/>
       <c r="S585" s="22"/>
       <c r="T585" s="21"/>
@@ -33123,7 +33133,7 @@
       <c r="N586" s="21"/>
       <c r="O586" s="21"/>
       <c r="P586" s="21"/>
-      <c r="Q586" s="21"/>
+      <c r="Q586" s="37"/>
       <c r="R586" s="22"/>
       <c r="S586" s="22"/>
       <c r="T586" s="21"/>
@@ -33174,7 +33184,7 @@
       <c r="N587" s="21"/>
       <c r="O587" s="21"/>
       <c r="P587" s="21"/>
-      <c r="Q587" s="21"/>
+      <c r="Q587" s="37"/>
       <c r="R587" s="22"/>
       <c r="S587" s="22"/>
       <c r="T587" s="21"/>
@@ -33225,7 +33235,7 @@
       <c r="N588" s="21"/>
       <c r="O588" s="21"/>
       <c r="P588" s="21"/>
-      <c r="Q588" s="21"/>
+      <c r="Q588" s="37"/>
       <c r="R588" s="22"/>
       <c r="S588" s="22"/>
       <c r="T588" s="21"/>
@@ -33276,7 +33286,7 @@
       <c r="N589" s="21"/>
       <c r="O589" s="21"/>
       <c r="P589" s="21"/>
-      <c r="Q589" s="21"/>
+      <c r="Q589" s="37"/>
       <c r="R589" s="22"/>
       <c r="S589" s="22"/>
       <c r="T589" s="21"/>
@@ -33327,7 +33337,7 @@
       <c r="N590" s="21"/>
       <c r="O590" s="21"/>
       <c r="P590" s="21"/>
-      <c r="Q590" s="21"/>
+      <c r="Q590" s="37"/>
       <c r="R590" s="22"/>
       <c r="S590" s="22"/>
       <c r="T590" s="21"/>
@@ -33378,7 +33388,7 @@
       <c r="N591" s="21"/>
       <c r="O591" s="21"/>
       <c r="P591" s="21"/>
-      <c r="Q591" s="21"/>
+      <c r="Q591" s="37"/>
       <c r="R591" s="22"/>
       <c r="S591" s="22"/>
       <c r="T591" s="21"/>
@@ -33429,7 +33439,7 @@
       <c r="N592" s="21"/>
       <c r="O592" s="21"/>
       <c r="P592" s="21"/>
-      <c r="Q592" s="21"/>
+      <c r="Q592" s="37"/>
       <c r="R592" s="22"/>
       <c r="S592" s="22"/>
       <c r="T592" s="21"/>
@@ -33480,7 +33490,7 @@
       <c r="N593" s="21"/>
       <c r="O593" s="21"/>
       <c r="P593" s="21"/>
-      <c r="Q593" s="21"/>
+      <c r="Q593" s="37"/>
       <c r="R593" s="22"/>
       <c r="S593" s="22"/>
       <c r="T593" s="21"/>
@@ -33531,7 +33541,7 @@
       <c r="N594" s="21"/>
       <c r="O594" s="21"/>
       <c r="P594" s="21"/>
-      <c r="Q594" s="21"/>
+      <c r="Q594" s="37"/>
       <c r="R594" s="22"/>
       <c r="S594" s="22"/>
       <c r="T594" s="21"/>
@@ -33582,7 +33592,7 @@
       <c r="N595" s="21"/>
       <c r="O595" s="21"/>
       <c r="P595" s="21"/>
-      <c r="Q595" s="21"/>
+      <c r="Q595" s="37"/>
       <c r="R595" s="22"/>
       <c r="S595" s="22"/>
       <c r="T595" s="21"/>
@@ -33633,7 +33643,7 @@
       <c r="N596" s="21"/>
       <c r="O596" s="21"/>
       <c r="P596" s="21"/>
-      <c r="Q596" s="21"/>
+      <c r="Q596" s="37"/>
       <c r="R596" s="22"/>
       <c r="S596" s="22"/>
       <c r="T596" s="21"/>
@@ -33684,7 +33694,7 @@
       <c r="N597" s="21"/>
       <c r="O597" s="21"/>
       <c r="P597" s="21"/>
-      <c r="Q597" s="21"/>
+      <c r="Q597" s="37"/>
       <c r="R597" s="22"/>
       <c r="S597" s="22"/>
       <c r="T597" s="21"/>
@@ -33735,7 +33745,7 @@
       <c r="N598" s="21"/>
       <c r="O598" s="21"/>
       <c r="P598" s="21"/>
-      <c r="Q598" s="21"/>
+      <c r="Q598" s="37"/>
       <c r="R598" s="22"/>
       <c r="S598" s="22"/>
       <c r="T598" s="21"/>
@@ -33786,7 +33796,7 @@
       <c r="N599" s="21"/>
       <c r="O599" s="21"/>
       <c r="P599" s="21"/>
-      <c r="Q599" s="21"/>
+      <c r="Q599" s="37"/>
       <c r="R599" s="22"/>
       <c r="S599" s="22"/>
       <c r="T599" s="21"/>
@@ -33837,7 +33847,7 @@
       <c r="N600" s="21"/>
       <c r="O600" s="21"/>
       <c r="P600" s="21"/>
-      <c r="Q600" s="21"/>
+      <c r="Q600" s="37"/>
       <c r="R600" s="22"/>
       <c r="S600" s="22"/>
       <c r="T600" s="21"/>
@@ -33888,7 +33898,7 @@
       <c r="N601" s="21"/>
       <c r="O601" s="21"/>
       <c r="P601" s="21"/>
-      <c r="Q601" s="21"/>
+      <c r="Q601" s="37"/>
       <c r="R601" s="22"/>
       <c r="S601" s="22"/>
       <c r="T601" s="21"/>
@@ -33939,7 +33949,7 @@
       <c r="N602" s="21"/>
       <c r="O602" s="21"/>
       <c r="P602" s="21"/>
-      <c r="Q602" s="21"/>
+      <c r="Q602" s="37"/>
       <c r="R602" s="22"/>
       <c r="S602" s="22"/>
       <c r="T602" s="21"/>
@@ -33990,7 +34000,7 @@
       <c r="N603" s="21"/>
       <c r="O603" s="21"/>
       <c r="P603" s="21"/>
-      <c r="Q603" s="21"/>
+      <c r="Q603" s="37"/>
       <c r="R603" s="22"/>
       <c r="S603" s="22"/>
       <c r="T603" s="21"/>
@@ -34041,7 +34051,7 @@
       <c r="N604" s="21"/>
       <c r="O604" s="21"/>
       <c r="P604" s="21"/>
-      <c r="Q604" s="21"/>
+      <c r="Q604" s="37"/>
       <c r="R604" s="22"/>
       <c r="S604" s="22"/>
       <c r="T604" s="21"/>
@@ -34092,7 +34102,7 @@
       <c r="N605" s="21"/>
       <c r="O605" s="21"/>
       <c r="P605" s="21"/>
-      <c r="Q605" s="21"/>
+      <c r="Q605" s="37"/>
       <c r="R605" s="22"/>
       <c r="S605" s="22"/>
       <c r="T605" s="21"/>
@@ -34143,7 +34153,7 @@
       <c r="N606" s="21"/>
       <c r="O606" s="21"/>
       <c r="P606" s="21"/>
-      <c r="Q606" s="21"/>
+      <c r="Q606" s="37"/>
       <c r="R606" s="22"/>
       <c r="S606" s="22"/>
       <c r="T606" s="21"/>
@@ -34194,7 +34204,7 @@
       <c r="N607" s="21"/>
       <c r="O607" s="21"/>
       <c r="P607" s="21"/>
-      <c r="Q607" s="21"/>
+      <c r="Q607" s="37"/>
       <c r="R607" s="22"/>
       <c r="S607" s="22"/>
       <c r="T607" s="21"/>
@@ -34245,7 +34255,7 @@
       <c r="N608" s="21"/>
       <c r="O608" s="21"/>
       <c r="P608" s="21"/>
-      <c r="Q608" s="21"/>
+      <c r="Q608" s="37"/>
       <c r="R608" s="22"/>
       <c r="S608" s="22"/>
       <c r="T608" s="21"/>
@@ -34296,7 +34306,7 @@
       <c r="N609" s="21"/>
       <c r="O609" s="21"/>
       <c r="P609" s="21"/>
-      <c r="Q609" s="21"/>
+      <c r="Q609" s="37"/>
       <c r="R609" s="22"/>
       <c r="S609" s="22"/>
       <c r="T609" s="21"/>
@@ -34347,7 +34357,7 @@
       <c r="N610" s="21"/>
       <c r="O610" s="21"/>
       <c r="P610" s="21"/>
-      <c r="Q610" s="21"/>
+      <c r="Q610" s="37"/>
       <c r="R610" s="22"/>
       <c r="S610" s="22"/>
       <c r="T610" s="21"/>
@@ -34398,7 +34408,7 @@
       <c r="N611" s="21"/>
       <c r="O611" s="21"/>
       <c r="P611" s="21"/>
-      <c r="Q611" s="21"/>
+      <c r="Q611" s="37"/>
       <c r="R611" s="22"/>
       <c r="S611" s="22"/>
       <c r="T611" s="21"/>
@@ -34449,7 +34459,7 @@
       <c r="N612" s="21"/>
       <c r="O612" s="21"/>
       <c r="P612" s="21"/>
-      <c r="Q612" s="21"/>
+      <c r="Q612" s="37"/>
       <c r="R612" s="22"/>
       <c r="S612" s="22"/>
       <c r="T612" s="21"/>
@@ -34500,7 +34510,7 @@
       <c r="N613" s="21"/>
       <c r="O613" s="21"/>
       <c r="P613" s="21"/>
-      <c r="Q613" s="21"/>
+      <c r="Q613" s="37"/>
       <c r="R613" s="22"/>
       <c r="S613" s="22"/>
       <c r="T613" s="21"/>
@@ -34551,7 +34561,7 @@
       <c r="N614" s="21"/>
       <c r="O614" s="21"/>
       <c r="P614" s="21"/>
-      <c r="Q614" s="21"/>
+      <c r="Q614" s="37"/>
       <c r="R614" s="22"/>
       <c r="S614" s="22"/>
       <c r="T614" s="21"/>
@@ -34602,7 +34612,7 @@
       <c r="N615" s="21"/>
       <c r="O615" s="21"/>
       <c r="P615" s="21"/>
-      <c r="Q615" s="21"/>
+      <c r="Q615" s="37"/>
       <c r="R615" s="22"/>
       <c r="S615" s="22"/>
       <c r="T615" s="21"/>
@@ -34653,7 +34663,7 @@
       <c r="N616" s="21"/>
       <c r="O616" s="21"/>
       <c r="P616" s="21"/>
-      <c r="Q616" s="21"/>
+      <c r="Q616" s="37"/>
       <c r="R616" s="22"/>
       <c r="S616" s="22"/>
       <c r="T616" s="21"/>
@@ -34704,7 +34714,7 @@
       <c r="N617" s="21"/>
       <c r="O617" s="21"/>
       <c r="P617" s="21"/>
-      <c r="Q617" s="21"/>
+      <c r="Q617" s="37"/>
       <c r="R617" s="22"/>
       <c r="S617" s="22"/>
       <c r="T617" s="21"/>
@@ -34755,7 +34765,7 @@
       <c r="N618" s="21"/>
       <c r="O618" s="21"/>
       <c r="P618" s="21"/>
-      <c r="Q618" s="21"/>
+      <c r="Q618" s="37"/>
       <c r="R618" s="22"/>
       <c r="S618" s="22"/>
       <c r="T618" s="21"/>
@@ -34806,7 +34816,7 @@
       <c r="N619" s="21"/>
       <c r="O619" s="21"/>
       <c r="P619" s="21"/>
-      <c r="Q619" s="21"/>
+      <c r="Q619" s="37"/>
       <c r="R619" s="22"/>
       <c r="S619" s="22"/>
       <c r="T619" s="21"/>
@@ -34857,7 +34867,7 @@
       <c r="N620" s="21"/>
       <c r="O620" s="21"/>
       <c r="P620" s="21"/>
-      <c r="Q620" s="21"/>
+      <c r="Q620" s="37"/>
       <c r="R620" s="22"/>
       <c r="S620" s="22"/>
       <c r="T620" s="21"/>
@@ -34908,7 +34918,7 @@
       <c r="N621" s="21"/>
       <c r="O621" s="21"/>
       <c r="P621" s="21"/>
-      <c r="Q621" s="21"/>
+      <c r="Q621" s="37"/>
       <c r="R621" s="22"/>
       <c r="S621" s="22"/>
       <c r="T621" s="21"/>
@@ -34959,7 +34969,7 @@
       <c r="N622" s="21"/>
       <c r="O622" s="21"/>
       <c r="P622" s="21"/>
-      <c r="Q622" s="21"/>
+      <c r="Q622" s="37"/>
       <c r="R622" s="22"/>
       <c r="S622" s="22"/>
       <c r="T622" s="21"/>
@@ -35010,7 +35020,7 @@
       <c r="N623" s="21"/>
       <c r="O623" s="21"/>
       <c r="P623" s="21"/>
-      <c r="Q623" s="21"/>
+      <c r="Q623" s="37"/>
       <c r="R623" s="22"/>
       <c r="S623" s="22"/>
       <c r="T623" s="21"/>
@@ -35061,7 +35071,7 @@
       <c r="N624" s="21"/>
       <c r="O624" s="21"/>
       <c r="P624" s="21"/>
-      <c r="Q624" s="21"/>
+      <c r="Q624" s="37"/>
       <c r="R624" s="22"/>
       <c r="S624" s="22"/>
       <c r="T624" s="21"/>
@@ -35112,7 +35122,7 @@
       <c r="N625" s="21"/>
       <c r="O625" s="21"/>
       <c r="P625" s="21"/>
-      <c r="Q625" s="21"/>
+      <c r="Q625" s="37"/>
       <c r="R625" s="22"/>
       <c r="S625" s="22"/>
       <c r="T625" s="21"/>
@@ -35163,7 +35173,7 @@
       <c r="N626" s="21"/>
       <c r="O626" s="21"/>
       <c r="P626" s="21"/>
-      <c r="Q626" s="21"/>
+      <c r="Q626" s="37"/>
       <c r="R626" s="22"/>
       <c r="S626" s="22"/>
       <c r="T626" s="21"/>
@@ -35214,7 +35224,7 @@
       <c r="N627" s="21"/>
       <c r="O627" s="21"/>
       <c r="P627" s="21"/>
-      <c r="Q627" s="21"/>
+      <c r="Q627" s="37"/>
       <c r="R627" s="22"/>
       <c r="S627" s="22"/>
       <c r="T627" s="21"/>
@@ -35265,7 +35275,7 @@
       <c r="N628" s="21"/>
       <c r="O628" s="21"/>
       <c r="P628" s="21"/>
-      <c r="Q628" s="21"/>
+      <c r="Q628" s="37"/>
       <c r="R628" s="22"/>
       <c r="S628" s="22"/>
       <c r="T628" s="21"/>
@@ -35316,7 +35326,7 @@
       <c r="N629" s="21"/>
       <c r="O629" s="21"/>
       <c r="P629" s="21"/>
-      <c r="Q629" s="21"/>
+      <c r="Q629" s="37"/>
       <c r="R629" s="22"/>
       <c r="S629" s="22"/>
       <c r="T629" s="21"/>
@@ -35367,7 +35377,7 @@
       <c r="N630" s="21"/>
       <c r="O630" s="21"/>
       <c r="P630" s="21"/>
-      <c r="Q630" s="21"/>
+      <c r="Q630" s="37"/>
       <c r="R630" s="22"/>
       <c r="S630" s="22"/>
       <c r="T630" s="21"/>
@@ -35418,7 +35428,7 @@
       <c r="N631" s="21"/>
       <c r="O631" s="21"/>
       <c r="P631" s="21"/>
-      <c r="Q631" s="21"/>
+      <c r="Q631" s="37"/>
       <c r="R631" s="22"/>
       <c r="S631" s="22"/>
       <c r="T631" s="21"/>
@@ -35469,7 +35479,7 @@
       <c r="N632" s="21"/>
       <c r="O632" s="21"/>
       <c r="P632" s="21"/>
-      <c r="Q632" s="21"/>
+      <c r="Q632" s="37"/>
       <c r="R632" s="22"/>
       <c r="S632" s="22"/>
       <c r="T632" s="21"/>
@@ -35520,7 +35530,7 @@
       <c r="N633" s="21"/>
       <c r="O633" s="21"/>
       <c r="P633" s="21"/>
-      <c r="Q633" s="21"/>
+      <c r="Q633" s="37"/>
       <c r="R633" s="22"/>
       <c r="S633" s="22"/>
       <c r="T633" s="21"/>
@@ -35571,7 +35581,7 @@
       <c r="N634" s="21"/>
       <c r="O634" s="21"/>
       <c r="P634" s="21"/>
-      <c r="Q634" s="21"/>
+      <c r="Q634" s="37"/>
       <c r="R634" s="22"/>
       <c r="S634" s="22"/>
       <c r="T634" s="21"/>
@@ -35622,7 +35632,7 @@
       <c r="N635" s="21"/>
       <c r="O635" s="21"/>
       <c r="P635" s="21"/>
-      <c r="Q635" s="21"/>
+      <c r="Q635" s="37"/>
       <c r="R635" s="22"/>
       <c r="S635" s="22"/>
       <c r="T635" s="21"/>
@@ -35673,7 +35683,7 @@
       <c r="N636" s="21"/>
       <c r="O636" s="21"/>
       <c r="P636" s="21"/>
-      <c r="Q636" s="21"/>
+      <c r="Q636" s="37"/>
       <c r="R636" s="22"/>
       <c r="S636" s="22"/>
       <c r="T636" s="21"/>
@@ -35724,7 +35734,7 @@
       <c r="N637" s="21"/>
       <c r="O637" s="21"/>
       <c r="P637" s="21"/>
-      <c r="Q637" s="21"/>
+      <c r="Q637" s="37"/>
       <c r="R637" s="22"/>
       <c r="S637" s="22"/>
       <c r="T637" s="21"/>
@@ -35775,7 +35785,7 @@
       <c r="N638" s="21"/>
       <c r="O638" s="21"/>
       <c r="P638" s="21"/>
-      <c r="Q638" s="21"/>
+      <c r="Q638" s="37"/>
       <c r="R638" s="22"/>
       <c r="S638" s="22"/>
       <c r="T638" s="21"/>
@@ -35826,7 +35836,7 @@
       <c r="N639" s="21"/>
       <c r="O639" s="21"/>
       <c r="P639" s="21"/>
-      <c r="Q639" s="21"/>
+      <c r="Q639" s="37"/>
       <c r="R639" s="22"/>
       <c r="S639" s="22"/>
       <c r="T639" s="21"/>
@@ -35877,7 +35887,7 @@
       <c r="N640" s="21"/>
       <c r="O640" s="21"/>
       <c r="P640" s="21"/>
-      <c r="Q640" s="21"/>
+      <c r="Q640" s="37"/>
       <c r="R640" s="22"/>
       <c r="S640" s="22"/>
       <c r="T640" s="21"/>
@@ -35928,7 +35938,7 @@
       <c r="N641" s="21"/>
       <c r="O641" s="21"/>
       <c r="P641" s="21"/>
-      <c r="Q641" s="21"/>
+      <c r="Q641" s="37"/>
       <c r="R641" s="22"/>
       <c r="S641" s="22"/>
       <c r="T641" s="21"/>
@@ -35979,7 +35989,7 @@
       <c r="N642" s="21"/>
       <c r="O642" s="21"/>
       <c r="P642" s="21"/>
-      <c r="Q642" s="21"/>
+      <c r="Q642" s="37"/>
       <c r="R642" s="22"/>
       <c r="S642" s="22"/>
       <c r="T642" s="21"/>
@@ -36030,7 +36040,7 @@
       <c r="N643" s="21"/>
       <c r="O643" s="21"/>
       <c r="P643" s="21"/>
-      <c r="Q643" s="21"/>
+      <c r="Q643" s="37"/>
       <c r="R643" s="22"/>
       <c r="S643" s="22"/>
       <c r="T643" s="21"/>
@@ -36081,7 +36091,7 @@
       <c r="N644" s="21"/>
       <c r="O644" s="21"/>
       <c r="P644" s="21"/>
-      <c r="Q644" s="21"/>
+      <c r="Q644" s="37"/>
       <c r="R644" s="22"/>
       <c r="S644" s="22"/>
       <c r="T644" s="21"/>
@@ -36132,7 +36142,7 @@
       <c r="N645" s="21"/>
       <c r="O645" s="21"/>
       <c r="P645" s="21"/>
-      <c r="Q645" s="21"/>
+      <c r="Q645" s="37"/>
       <c r="R645" s="22"/>
       <c r="S645" s="22"/>
       <c r="T645" s="21"/>
@@ -36183,7 +36193,7 @@
       <c r="N646" s="21"/>
       <c r="O646" s="21"/>
       <c r="P646" s="21"/>
-      <c r="Q646" s="21"/>
+      <c r="Q646" s="37"/>
       <c r="R646" s="22"/>
       <c r="S646" s="22"/>
       <c r="T646" s="21"/>
@@ -36234,7 +36244,7 @@
       <c r="N647" s="21"/>
       <c r="O647" s="21"/>
       <c r="P647" s="21"/>
-      <c r="Q647" s="21"/>
+      <c r="Q647" s="37"/>
       <c r="R647" s="22"/>
       <c r="S647" s="22"/>
       <c r="T647" s="21"/>
@@ -36285,7 +36295,7 @@
       <c r="N648" s="21"/>
       <c r="O648" s="21"/>
       <c r="P648" s="21"/>
-      <c r="Q648" s="21"/>
+      <c r="Q648" s="37"/>
       <c r="R648" s="22"/>
       <c r="S648" s="22"/>
       <c r="T648" s="21"/>
@@ -36336,7 +36346,7 @@
       <c r="N649" s="21"/>
       <c r="O649" s="21"/>
       <c r="P649" s="21"/>
-      <c r="Q649" s="21"/>
+      <c r="Q649" s="37"/>
       <c r="R649" s="22"/>
       <c r="S649" s="22"/>
       <c r="T649" s="21"/>
@@ -36387,7 +36397,7 @@
       <c r="N650" s="21"/>
       <c r="O650" s="21"/>
       <c r="P650" s="21"/>
-      <c r="Q650" s="21"/>
+      <c r="Q650" s="37"/>
       <c r="R650" s="22"/>
       <c r="S650" s="22"/>
       <c r="T650" s="21"/>
@@ -36438,7 +36448,7 @@
       <c r="N651" s="21"/>
       <c r="O651" s="21"/>
       <c r="P651" s="21"/>
-      <c r="Q651" s="21"/>
+      <c r="Q651" s="37"/>
       <c r="R651" s="22"/>
       <c r="S651" s="22"/>
       <c r="T651" s="21"/>
@@ -36489,7 +36499,7 @@
       <c r="N652" s="21"/>
       <c r="O652" s="21"/>
       <c r="P652" s="21"/>
-      <c r="Q652" s="21"/>
+      <c r="Q652" s="37"/>
       <c r="R652" s="22"/>
       <c r="S652" s="22"/>
       <c r="T652" s="21"/>
@@ -36540,7 +36550,7 @@
       <c r="N653" s="21"/>
       <c r="O653" s="21"/>
       <c r="P653" s="21"/>
-      <c r="Q653" s="21"/>
+      <c r="Q653" s="37"/>
       <c r="R653" s="22"/>
       <c r="S653" s="22"/>
       <c r="T653" s="21"/>
@@ -36591,7 +36601,7 @@
       <c r="N654" s="21"/>
       <c r="O654" s="21"/>
       <c r="P654" s="21"/>
-      <c r="Q654" s="21"/>
+      <c r="Q654" s="37"/>
       <c r="R654" s="22"/>
       <c r="S654" s="22"/>
       <c r="T654" s="21"/>
@@ -36642,7 +36652,7 @@
       <c r="N655" s="21"/>
       <c r="O655" s="21"/>
       <c r="P655" s="21"/>
-      <c r="Q655" s="21"/>
+      <c r="Q655" s="37"/>
       <c r="R655" s="22"/>
       <c r="S655" s="22"/>
       <c r="T655" s="21"/>
@@ -36693,7 +36703,7 @@
       <c r="N656" s="21"/>
       <c r="O656" s="21"/>
       <c r="P656" s="21"/>
-      <c r="Q656" s="21"/>
+      <c r="Q656" s="37"/>
       <c r="R656" s="22"/>
       <c r="S656" s="22"/>
       <c r="T656" s="21"/>
@@ -36744,7 +36754,7 @@
       <c r="N657" s="21"/>
       <c r="O657" s="21"/>
       <c r="P657" s="21"/>
-      <c r="Q657" s="21"/>
+      <c r="Q657" s="37"/>
       <c r="R657" s="22"/>
       <c r="S657" s="22"/>
       <c r="T657" s="21"/>
@@ -36795,7 +36805,7 @@
       <c r="N658" s="21"/>
       <c r="O658" s="21"/>
       <c r="P658" s="21"/>
-      <c r="Q658" s="21"/>
+      <c r="Q658" s="37"/>
       <c r="R658" s="22"/>
       <c r="S658" s="22"/>
       <c r="T658" s="21"/>
@@ -36846,7 +36856,7 @@
       <c r="N659" s="21"/>
       <c r="O659" s="21"/>
       <c r="P659" s="21"/>
-      <c r="Q659" s="21"/>
+      <c r="Q659" s="37"/>
       <c r="R659" s="22"/>
       <c r="S659" s="22"/>
       <c r="T659" s="21"/>
@@ -36897,7 +36907,7 @@
       <c r="N660" s="21"/>
       <c r="O660" s="21"/>
       <c r="P660" s="21"/>
-      <c r="Q660" s="21"/>
+      <c r="Q660" s="37"/>
       <c r="R660" s="22"/>
       <c r="S660" s="22"/>
       <c r="T660" s="21"/>
@@ -36948,7 +36958,7 @@
       <c r="N661" s="21"/>
       <c r="O661" s="21"/>
       <c r="P661" s="21"/>
-      <c r="Q661" s="21"/>
+      <c r="Q661" s="37"/>
       <c r="R661" s="22"/>
       <c r="S661" s="22"/>
       <c r="T661" s="21"/>
@@ -36999,7 +37009,7 @@
       <c r="N662" s="21"/>
       <c r="O662" s="21"/>
       <c r="P662" s="21"/>
-      <c r="Q662" s="21"/>
+      <c r="Q662" s="37"/>
       <c r="R662" s="22"/>
       <c r="S662" s="22"/>
       <c r="T662" s="21"/>
@@ -37050,7 +37060,7 @@
       <c r="N663" s="21"/>
       <c r="O663" s="21"/>
       <c r="P663" s="21"/>
-      <c r="Q663" s="21"/>
+      <c r="Q663" s="37"/>
       <c r="R663" s="22"/>
       <c r="S663" s="22"/>
       <c r="T663" s="21"/>
@@ -37101,7 +37111,7 @@
       <c r="N664" s="21"/>
       <c r="O664" s="21"/>
       <c r="P664" s="21"/>
-      <c r="Q664" s="21"/>
+      <c r="Q664" s="37"/>
       <c r="R664" s="22"/>
       <c r="S664" s="22"/>
       <c r="T664" s="21"/>
@@ -37152,7 +37162,7 @@
       <c r="N665" s="21"/>
       <c r="O665" s="21"/>
       <c r="P665" s="21"/>
-      <c r="Q665" s="21"/>
+      <c r="Q665" s="37"/>
       <c r="R665" s="22"/>
       <c r="S665" s="22"/>
       <c r="T665" s="21"/>
@@ -37203,7 +37213,7 @@
       <c r="N666" s="21"/>
       <c r="O666" s="21"/>
       <c r="P666" s="21"/>
-      <c r="Q666" s="21"/>
+      <c r="Q666" s="37"/>
       <c r="R666" s="22"/>
       <c r="S666" s="22"/>
       <c r="T666" s="21"/>
@@ -37254,7 +37264,7 @@
       <c r="N667" s="21"/>
       <c r="O667" s="21"/>
       <c r="P667" s="21"/>
-      <c r="Q667" s="21"/>
+      <c r="Q667" s="37"/>
       <c r="R667" s="22"/>
       <c r="S667" s="22"/>
       <c r="T667" s="21"/>
@@ -37305,7 +37315,7 @@
       <c r="N668" s="21"/>
       <c r="O668" s="21"/>
       <c r="P668" s="21"/>
-      <c r="Q668" s="21"/>
+      <c r="Q668" s="37"/>
       <c r="R668" s="22"/>
       <c r="S668" s="22"/>
       <c r="T668" s="21"/>
@@ -37356,7 +37366,7 @@
       <c r="N669" s="21"/>
       <c r="O669" s="21"/>
       <c r="P669" s="21"/>
-      <c r="Q669" s="21"/>
+      <c r="Q669" s="37"/>
       <c r="R669" s="22"/>
       <c r="S669" s="22"/>
       <c r="T669" s="21"/>
@@ -37407,7 +37417,7 @@
       <c r="N670" s="21"/>
       <c r="O670" s="21"/>
       <c r="P670" s="21"/>
-      <c r="Q670" s="21"/>
+      <c r="Q670" s="37"/>
       <c r="R670" s="22"/>
       <c r="S670" s="22"/>
       <c r="T670" s="21"/>
@@ -37458,7 +37468,7 @@
       <c r="N671" s="21"/>
       <c r="O671" s="21"/>
       <c r="P671" s="21"/>
-      <c r="Q671" s="21"/>
+      <c r="Q671" s="37"/>
       <c r="R671" s="22"/>
       <c r="S671" s="22"/>
       <c r="T671" s="21"/>
@@ -37509,7 +37519,7 @@
       <c r="N672" s="21"/>
       <c r="O672" s="21"/>
       <c r="P672" s="21"/>
-      <c r="Q672" s="21"/>
+      <c r="Q672" s="37"/>
       <c r="R672" s="22"/>
       <c r="S672" s="22"/>
       <c r="T672" s="21"/>
@@ -37560,7 +37570,7 @@
       <c r="N673" s="21"/>
       <c r="O673" s="21"/>
       <c r="P673" s="21"/>
-      <c r="Q673" s="21"/>
+      <c r="Q673" s="37"/>
       <c r="R673" s="22"/>
       <c r="S673" s="22"/>
       <c r="T673" s="21"/>
@@ -37611,7 +37621,7 @@
       <c r="N674" s="21"/>
       <c r="O674" s="21"/>
       <c r="P674" s="21"/>
-      <c r="Q674" s="21"/>
+      <c r="Q674" s="37"/>
       <c r="R674" s="22"/>
       <c r="S674" s="22"/>
       <c r="T674" s="21"/>
@@ -37662,7 +37672,7 @@
       <c r="N675" s="21"/>
       <c r="O675" s="21"/>
       <c r="P675" s="21"/>
-      <c r="Q675" s="21"/>
+      <c r="Q675" s="37"/>
       <c r="R675" s="22"/>
       <c r="S675" s="22"/>
       <c r="T675" s="21"/>
@@ -37713,7 +37723,7 @@
       <c r="N676" s="21"/>
       <c r="O676" s="21"/>
       <c r="P676" s="21"/>
-      <c r="Q676" s="21"/>
+      <c r="Q676" s="37"/>
       <c r="R676" s="22"/>
       <c r="S676" s="22"/>
       <c r="T676" s="21"/>
@@ -37764,7 +37774,7 @@
       <c r="N677" s="21"/>
       <c r="O677" s="21"/>
       <c r="P677" s="21"/>
-      <c r="Q677" s="21"/>
+      <c r="Q677" s="37"/>
       <c r="R677" s="22"/>
       <c r="S677" s="22"/>
       <c r="T677" s="21"/>
@@ -37815,7 +37825,7 @@
       <c r="N678" s="21"/>
       <c r="O678" s="21"/>
       <c r="P678" s="21"/>
-      <c r="Q678" s="21"/>
+      <c r="Q678" s="37"/>
       <c r="R678" s="22"/>
       <c r="S678" s="22"/>
       <c r="T678" s="21"/>
@@ -37866,7 +37876,7 @@
       <c r="N679" s="21"/>
       <c r="O679" s="21"/>
       <c r="P679" s="21"/>
-      <c r="Q679" s="21"/>
+      <c r="Q679" s="37"/>
       <c r="R679" s="22"/>
       <c r="S679" s="22"/>
       <c r="T679" s="21"/>
@@ -37917,7 +37927,7 @@
       <c r="N680" s="21"/>
       <c r="O680" s="21"/>
       <c r="P680" s="21"/>
-      <c r="Q680" s="21"/>
+      <c r="Q680" s="37"/>
       <c r="R680" s="22"/>
       <c r="S680" s="22"/>
       <c r="T680" s="21"/>
@@ -37968,7 +37978,7 @@
       <c r="N681" s="21"/>
       <c r="O681" s="21"/>
       <c r="P681" s="21"/>
-      <c r="Q681" s="21"/>
+      <c r="Q681" s="37"/>
       <c r="R681" s="22"/>
       <c r="S681" s="22"/>
       <c r="T681" s="21"/>
@@ -38019,7 +38029,7 @@
       <c r="N682" s="21"/>
       <c r="O682" s="21"/>
       <c r="P682" s="21"/>
-      <c r="Q682" s="21"/>
+      <c r="Q682" s="37"/>
       <c r="R682" s="22"/>
       <c r="S682" s="22"/>
       <c r="T682" s="21"/>
@@ -38070,7 +38080,7 @@
       <c r="N683" s="21"/>
       <c r="O683" s="21"/>
       <c r="P683" s="21"/>
-      <c r="Q683" s="21"/>
+      <c r="Q683" s="37"/>
       <c r="R683" s="22"/>
       <c r="S683" s="22"/>
       <c r="T683" s="21"/>
@@ -38121,7 +38131,7 @@
       <c r="N684" s="21"/>
       <c r="O684" s="21"/>
       <c r="P684" s="21"/>
-      <c r="Q684" s="21"/>
+      <c r="Q684" s="37"/>
       <c r="R684" s="22"/>
       <c r="S684" s="22"/>
       <c r="T684" s="21"/>
@@ -38172,7 +38182,7 @@
       <c r="N685" s="21"/>
       <c r="O685" s="21"/>
       <c r="P685" s="21"/>
-      <c r="Q685" s="21"/>
+      <c r="Q685" s="37"/>
       <c r="R685" s="22"/>
       <c r="S685" s="22"/>
       <c r="T685" s="21"/>
@@ -38223,7 +38233,7 @@
       <c r="N686" s="21"/>
       <c r="O686" s="21"/>
       <c r="P686" s="21"/>
-      <c r="Q686" s="21"/>
+      <c r="Q686" s="37"/>
       <c r="R686" s="22"/>
       <c r="S686" s="22"/>
       <c r="T686" s="21"/>
@@ -38274,7 +38284,7 @@
       <c r="N687" s="21"/>
       <c r="O687" s="21"/>
       <c r="P687" s="21"/>
-      <c r="Q687" s="21"/>
+      <c r="Q687" s="37"/>
       <c r="R687" s="22"/>
       <c r="S687" s="22"/>
       <c r="T687" s="21"/>
@@ -38325,7 +38335,7 @@
       <c r="N688" s="21"/>
       <c r="O688" s="21"/>
       <c r="P688" s="21"/>
-      <c r="Q688" s="21"/>
+      <c r="Q688" s="37"/>
       <c r="R688" s="22"/>
       <c r="S688" s="22"/>
       <c r="T688" s="21"/>
@@ -38376,7 +38386,7 @@
       <c r="N689" s="21"/>
       <c r="O689" s="21"/>
       <c r="P689" s="21"/>
-      <c r="Q689" s="21"/>
+      <c r="Q689" s="37"/>
       <c r="R689" s="22"/>
       <c r="S689" s="22"/>
       <c r="T689" s="21"/>
@@ -38427,7 +38437,7 @@
       <c r="N690" s="21"/>
       <c r="O690" s="21"/>
       <c r="P690" s="21"/>
-      <c r="Q690" s="21"/>
+      <c r="Q690" s="37"/>
       <c r="R690" s="22"/>
       <c r="S690" s="22"/>
       <c r="T690" s="21"/>
@@ -38478,7 +38488,7 @@
       <c r="N691" s="21"/>
       <c r="O691" s="21"/>
       <c r="P691" s="21"/>
-      <c r="Q691" s="21"/>
+      <c r="Q691" s="37"/>
       <c r="R691" s="22"/>
       <c r="S691" s="22"/>
       <c r="T691" s="21"/>
@@ -38529,7 +38539,7 @@
       <c r="N692" s="21"/>
       <c r="O692" s="21"/>
       <c r="P692" s="21"/>
-      <c r="Q692" s="21"/>
+      <c r="Q692" s="37"/>
       <c r="R692" s="22"/>
       <c r="S692" s="22"/>
       <c r="T692" s="21"/>
@@ -38580,7 +38590,7 @@
       <c r="N693" s="21"/>
       <c r="O693" s="21"/>
       <c r="P693" s="21"/>
-      <c r="Q693" s="21"/>
+      <c r="Q693" s="37"/>
       <c r="R693" s="22"/>
       <c r="S693" s="22"/>
       <c r="T693" s="21"/>
@@ -38631,7 +38641,7 @@
       <c r="N694" s="21"/>
       <c r="O694" s="21"/>
       <c r="P694" s="21"/>
-      <c r="Q694" s="21"/>
+      <c r="Q694" s="37"/>
       <c r="R694" s="22"/>
       <c r="S694" s="22"/>
       <c r="T694" s="21"/>
@@ -38682,7 +38692,7 @@
       <c r="N695" s="21"/>
       <c r="O695" s="21"/>
       <c r="P695" s="21"/>
-      <c r="Q695" s="21"/>
+      <c r="Q695" s="37"/>
       <c r="R695" s="22"/>
       <c r="S695" s="22"/>
       <c r="T695" s="21"/>
@@ -38733,7 +38743,7 @@
       <c r="N696" s="21"/>
       <c r="O696" s="21"/>
       <c r="P696" s="21"/>
-      <c r="Q696" s="21"/>
+      <c r="Q696" s="37"/>
       <c r="R696" s="22"/>
       <c r="S696" s="22"/>
       <c r="T696" s="21"/>
@@ -38784,7 +38794,7 @@
       <c r="N697" s="21"/>
       <c r="O697" s="21"/>
       <c r="P697" s="21"/>
-      <c r="Q697" s="21"/>
+      <c r="Q697" s="37"/>
       <c r="R697" s="22"/>
       <c r="S697" s="22"/>
       <c r="T697" s="21"/>
@@ -38835,7 +38845,7 @@
       <c r="N698" s="21"/>
       <c r="O698" s="21"/>
       <c r="P698" s="21"/>
-      <c r="Q698" s="21"/>
+      <c r="Q698" s="37"/>
       <c r="R698" s="22"/>
       <c r="S698" s="22"/>
       <c r="T698" s="21"/>
@@ -38886,7 +38896,7 @@
       <c r="N699" s="21"/>
       <c r="O699" s="21"/>
       <c r="P699" s="21"/>
-      <c r="Q699" s="21"/>
+      <c r="Q699" s="37"/>
       <c r="R699" s="22"/>
       <c r="S699" s="22"/>
       <c r="T699" s="21"/>
@@ -38937,7 +38947,7 @@
       <c r="N700" s="21"/>
       <c r="O700" s="21"/>
       <c r="P700" s="21"/>
-      <c r="Q700" s="21"/>
+      <c r="Q700" s="37"/>
       <c r="R700" s="22"/>
       <c r="S700" s="22"/>
       <c r="T700" s="21"/>
@@ -38988,7 +38998,7 @@
       <c r="N701" s="21"/>
       <c r="O701" s="21"/>
       <c r="P701" s="21"/>
-      <c r="Q701" s="21"/>
+      <c r="Q701" s="37"/>
       <c r="R701" s="22"/>
       <c r="S701" s="22"/>
       <c r="T701" s="21"/>
@@ -39039,7 +39049,7 @@
       <c r="N702" s="21"/>
       <c r="O702" s="21"/>
       <c r="P702" s="21"/>
-      <c r="Q702" s="21"/>
+      <c r="Q702" s="37"/>
       <c r="R702" s="22"/>
       <c r="S702" s="22"/>
       <c r="T702" s="21"/>
@@ -39090,7 +39100,7 @@
       <c r="N703" s="21"/>
       <c r="O703" s="21"/>
       <c r="P703" s="21"/>
-      <c r="Q703" s="21"/>
+      <c r="Q703" s="37"/>
       <c r="R703" s="22"/>
       <c r="S703" s="22"/>
       <c r="T703" s="21"/>
@@ -39141,7 +39151,7 @@
       <c r="N704" s="21"/>
       <c r="O704" s="21"/>
       <c r="P704" s="21"/>
-      <c r="Q704" s="21"/>
+      <c r="Q704" s="37"/>
       <c r="R704" s="22"/>
       <c r="S704" s="22"/>
       <c r="T704" s="21"/>
@@ -39192,7 +39202,7 @@
       <c r="N705" s="21"/>
       <c r="O705" s="21"/>
       <c r="P705" s="21"/>
-      <c r="Q705" s="21"/>
+      <c r="Q705" s="37"/>
       <c r="R705" s="22"/>
       <c r="S705" s="22"/>
       <c r="T705" s="21"/>
@@ -39243,7 +39253,7 @@
       <c r="N706" s="21"/>
       <c r="O706" s="21"/>
       <c r="P706" s="21"/>
-      <c r="Q706" s="21"/>
+      <c r="Q706" s="37"/>
       <c r="R706" s="22"/>
       <c r="S706" s="22"/>
       <c r="T706" s="21"/>
@@ -39294,7 +39304,7 @@
       <c r="N707" s="21"/>
       <c r="O707" s="21"/>
       <c r="P707" s="21"/>
-      <c r="Q707" s="21"/>
+      <c r="Q707" s="37"/>
       <c r="R707" s="22"/>
       <c r="S707" s="22"/>
       <c r="T707" s="21"/>
@@ -39345,7 +39355,7 @@
       <c r="N708" s="21"/>
       <c r="O708" s="21"/>
       <c r="P708" s="21"/>
-      <c r="Q708" s="21"/>
+      <c r="Q708" s="37"/>
       <c r="R708" s="22"/>
       <c r="S708" s="22"/>
       <c r="T708" s="21"/>
@@ -39396,7 +39406,7 @@
       <c r="N709" s="21"/>
       <c r="O709" s="21"/>
       <c r="P709" s="21"/>
-      <c r="Q709" s="21"/>
+      <c r="Q709" s="37"/>
       <c r="R709" s="22"/>
       <c r="S709" s="22"/>
       <c r="T709" s="21"/>
@@ -39447,7 +39457,7 @@
       <c r="N710" s="21"/>
       <c r="O710" s="21"/>
       <c r="P710" s="21"/>
-      <c r="Q710" s="21"/>
+      <c r="Q710" s="37"/>
       <c r="R710" s="22"/>
       <c r="S710" s="22"/>
       <c r="T710" s="21"/>
@@ -39498,7 +39508,7 @@
       <c r="N711" s="21"/>
       <c r="O711" s="21"/>
       <c r="P711" s="21"/>
-      <c r="Q711" s="21"/>
+      <c r="Q711" s="37"/>
       <c r="R711" s="22"/>
       <c r="S711" s="22"/>
       <c r="T711" s="21"/>
@@ -39549,7 +39559,7 @@
       <c r="N712" s="21"/>
       <c r="O712" s="21"/>
       <c r="P712" s="21"/>
-      <c r="Q712" s="21"/>
+      <c r="Q712" s="37"/>
       <c r="R712" s="22"/>
       <c r="S712" s="22"/>
       <c r="T712" s="21"/>
@@ -39600,7 +39610,7 @@
       <c r="N713" s="21"/>
       <c r="O713" s="21"/>
       <c r="P713" s="21"/>
-      <c r="Q713" s="21"/>
+      <c r="Q713" s="37"/>
       <c r="R713" s="22"/>
       <c r="S713" s="22"/>
       <c r="T713" s="21"/>
@@ -39651,7 +39661,7 @@
       <c r="N714" s="21"/>
       <c r="O714" s="21"/>
       <c r="P714" s="21"/>
-      <c r="Q714" s="21"/>
+      <c r="Q714" s="37"/>
       <c r="R714" s="22"/>
       <c r="S714" s="22"/>
       <c r="T714" s="21"/>
@@ -39702,7 +39712,7 @@
       <c r="N715" s="21"/>
       <c r="O715" s="21"/>
       <c r="P715" s="21"/>
-      <c r="Q715" s="21"/>
+      <c r="Q715" s="37"/>
       <c r="R715" s="22"/>
       <c r="S715" s="22"/>
       <c r="T715" s="21"/>
@@ -39753,7 +39763,7 @@
       <c r="N716" s="21"/>
       <c r="O716" s="21"/>
       <c r="P716" s="21"/>
-      <c r="Q716" s="21"/>
+      <c r="Q716" s="37"/>
       <c r="R716" s="22"/>
       <c r="S716" s="22"/>
       <c r="T716" s="21"/>
@@ -39804,7 +39814,7 @@
       <c r="N717" s="21"/>
       <c r="O717" s="21"/>
       <c r="P717" s="21"/>
-      <c r="Q717" s="21"/>
+      <c r="Q717" s="37"/>
       <c r="R717" s="22"/>
       <c r="S717" s="22"/>
       <c r="T717" s="21"/>
@@ -39855,7 +39865,7 @@
       <c r="N718" s="21"/>
       <c r="O718" s="21"/>
       <c r="P718" s="21"/>
-      <c r="Q718" s="21"/>
+      <c r="Q718" s="37"/>
       <c r="R718" s="22"/>
       <c r="S718" s="22"/>
       <c r="T718" s="21"/>
@@ -39906,7 +39916,7 @@
       <c r="N719" s="21"/>
       <c r="O719" s="21"/>
       <c r="P719" s="21"/>
-      <c r="Q719" s="21"/>
+      <c r="Q719" s="37"/>
       <c r="R719" s="22"/>
       <c r="S719" s="22"/>
       <c r="T719" s="21"/>
@@ -39957,7 +39967,7 @@
       <c r="N720" s="21"/>
       <c r="O720" s="21"/>
       <c r="P720" s="21"/>
-      <c r="Q720" s="21"/>
+      <c r="Q720" s="37"/>
       <c r="R720" s="22"/>
       <c r="S720" s="22"/>
       <c r="T720" s="21"/>
@@ -40008,7 +40018,7 @@
       <c r="N721" s="21"/>
       <c r="O721" s="21"/>
       <c r="P721" s="21"/>
-      <c r="Q721" s="21"/>
+      <c r="Q721" s="37"/>
       <c r="R721" s="22"/>
       <c r="S721" s="22"/>
       <c r="T721" s="21"/>
@@ -40059,7 +40069,7 @@
       <c r="N722" s="21"/>
       <c r="O722" s="21"/>
       <c r="P722" s="21"/>
-      <c r="Q722" s="21"/>
+      <c r="Q722" s="37"/>
       <c r="R722" s="22"/>
       <c r="S722" s="22"/>
       <c r="T722" s="21"/>
@@ -40110,7 +40120,7 @@
       <c r="N723" s="21"/>
       <c r="O723" s="21"/>
       <c r="P723" s="21"/>
-      <c r="Q723" s="21"/>
+      <c r="Q723" s="37"/>
       <c r="R723" s="22"/>
       <c r="S723" s="22"/>
       <c r="T723" s="21"/>
@@ -40161,7 +40171,7 @@
       <c r="N724" s="21"/>
       <c r="O724" s="21"/>
       <c r="P724" s="21"/>
-      <c r="Q724" s="21"/>
+      <c r="Q724" s="37"/>
       <c r="R724" s="22"/>
       <c r="S724" s="22"/>
       <c r="T724" s="21"/>
@@ -40212,7 +40222,7 @@
       <c r="N725" s="21"/>
       <c r="O725" s="21"/>
       <c r="P725" s="21"/>
-      <c r="Q725" s="21"/>
+      <c r="Q725" s="37"/>
       <c r="R725" s="22"/>
       <c r="S725" s="22"/>
       <c r="T725" s="21"/>
@@ -40263,7 +40273,7 @@
       <c r="N726" s="21"/>
       <c r="O726" s="21"/>
       <c r="P726" s="21"/>
-      <c r="Q726" s="21"/>
+      <c r="Q726" s="37"/>
       <c r="R726" s="22"/>
       <c r="S726" s="22"/>
       <c r="T726" s="21"/>
@@ -40314,7 +40324,7 @@
       <c r="N727" s="21"/>
       <c r="O727" s="21"/>
       <c r="P727" s="21"/>
-      <c r="Q727" s="21"/>
+      <c r="Q727" s="37"/>
       <c r="R727" s="22"/>
       <c r="S727" s="22"/>
       <c r="T727" s="21"/>
@@ -40365,7 +40375,7 @@
       <c r="N728" s="21"/>
       <c r="O728" s="21"/>
       <c r="P728" s="21"/>
-      <c r="Q728" s="21"/>
+      <c r="Q728" s="37"/>
       <c r="R728" s="22"/>
       <c r="S728" s="22"/>
       <c r="T728" s="21"/>
@@ -40416,7 +40426,7 @@
       <c r="N729" s="21"/>
       <c r="O729" s="21"/>
       <c r="P729" s="21"/>
-      <c r="Q729" s="21"/>
+      <c r="Q729" s="37"/>
       <c r="R729" s="22"/>
       <c r="S729" s="22"/>
       <c r="T729" s="21"/>
@@ -40467,7 +40477,7 @@
       <c r="N730" s="21"/>
       <c r="O730" s="21"/>
       <c r="P730" s="21"/>
-      <c r="Q730" s="21"/>
+      <c r="Q730" s="37"/>
       <c r="R730" s="22"/>
       <c r="S730" s="22"/>
       <c r="T730" s="21"/>
@@ -40518,7 +40528,7 @@
       <c r="N731" s="21"/>
       <c r="O731" s="21"/>
       <c r="P731" s="21"/>
-      <c r="Q731" s="21"/>
+      <c r="Q731" s="37"/>
       <c r="R731" s="22"/>
       <c r="S731" s="22"/>
       <c r="T731" s="21"/>
@@ -40569,7 +40579,7 @@
       <c r="N732" s="21"/>
       <c r="O732" s="21"/>
       <c r="P732" s="21"/>
-      <c r="Q732" s="21"/>
+      <c r="Q732" s="37"/>
       <c r="R732" s="22"/>
       <c r="S732" s="22"/>
       <c r="T732" s="21"/>
@@ -40620,7 +40630,7 @@
       <c r="N733" s="21"/>
       <c r="O733" s="21"/>
       <c r="P733" s="21"/>
-      <c r="Q733" s="21"/>
+      <c r="Q733" s="37"/>
       <c r="R733" s="22"/>
       <c r="S733" s="22"/>
       <c r="T733" s="21"/>
@@ -40671,7 +40681,7 @@
       <c r="N734" s="21"/>
       <c r="O734" s="21"/>
       <c r="P734" s="21"/>
-      <c r="Q734" s="21"/>
+      <c r="Q734" s="37"/>
       <c r="R734" s="22"/>
       <c r="S734" s="22"/>
       <c r="T734" s="21"/>
@@ -40722,7 +40732,7 @@
       <c r="N735" s="21"/>
       <c r="O735" s="21"/>
       <c r="P735" s="21"/>
-      <c r="Q735" s="21"/>
+      <c r="Q735" s="37"/>
       <c r="R735" s="22"/>
       <c r="S735" s="22"/>
       <c r="T735" s="21"/>
@@ -40773,7 +40783,7 @@
       <c r="N736" s="21"/>
       <c r="O736" s="21"/>
       <c r="P736" s="21"/>
-      <c r="Q736" s="21"/>
+      <c r="Q736" s="37"/>
       <c r="R736" s="22"/>
       <c r="S736" s="22"/>
       <c r="T736" s="21"/>
@@ -40824,7 +40834,7 @@
       <c r="N737" s="21"/>
       <c r="O737" s="21"/>
       <c r="P737" s="21"/>
-      <c r="Q737" s="21"/>
+      <c r="Q737" s="37"/>
       <c r="R737" s="22"/>
       <c r="S737" s="22"/>
       <c r="T737" s="21"/>
@@ -40875,7 +40885,7 @@
       <c r="N738" s="21"/>
       <c r="O738" s="21"/>
       <c r="P738" s="21"/>
-      <c r="Q738" s="21"/>
+      <c r="Q738" s="37"/>
       <c r="R738" s="22"/>
       <c r="S738" s="22"/>
       <c r="T738" s="21"/>
@@ -40926,7 +40936,7 @@
       <c r="N739" s="21"/>
       <c r="O739" s="21"/>
       <c r="P739" s="21"/>
-      <c r="Q739" s="21"/>
+      <c r="Q739" s="37"/>
       <c r="R739" s="22"/>
       <c r="S739" s="22"/>
       <c r="T739" s="21"/>
@@ -40977,7 +40987,7 @@
       <c r="N740" s="21"/>
       <c r="O740" s="21"/>
       <c r="P740" s="21"/>
-      <c r="Q740" s="21"/>
+      <c r="Q740" s="37"/>
       <c r="R740" s="22"/>
       <c r="S740" s="22"/>
       <c r="T740" s="21"/>
@@ -41028,7 +41038,7 @@
       <c r="N741" s="21"/>
       <c r="O741" s="21"/>
       <c r="P741" s="21"/>
-      <c r="Q741" s="21"/>
+      <c r="Q741" s="37"/>
       <c r="R741" s="22"/>
       <c r="S741" s="22"/>
       <c r="T741" s="21"/>
@@ -41079,7 +41089,7 @@
       <c r="N742" s="21"/>
       <c r="O742" s="21"/>
       <c r="P742" s="21"/>
-      <c r="Q742" s="21"/>
+      <c r="Q742" s="37"/>
       <c r="R742" s="22"/>
       <c r="S742" s="22"/>
       <c r="T742" s="21"/>
@@ -41130,7 +41140,7 @@
       <c r="N743" s="21"/>
       <c r="O743" s="21"/>
       <c r="P743" s="21"/>
-      <c r="Q743" s="21"/>
+      <c r="Q743" s="37"/>
       <c r="R743" s="22"/>
       <c r="S743" s="22"/>
       <c r="T743" s="21"/>
@@ -41181,7 +41191,7 @@
       <c r="N744" s="21"/>
       <c r="O744" s="21"/>
       <c r="P744" s="21"/>
-      <c r="Q744" s="21"/>
+      <c r="Q744" s="37"/>
       <c r="R744" s="22"/>
       <c r="S744" s="22"/>
       <c r="T744" s="21"/>
@@ -41232,7 +41242,7 @@
       <c r="N745" s="21"/>
       <c r="O745" s="21"/>
       <c r="P745" s="21"/>
-      <c r="Q745" s="21"/>
+      <c r="Q745" s="37"/>
       <c r="R745" s="22"/>
       <c r="S745" s="22"/>
       <c r="T745" s="21"/>
@@ -41283,7 +41293,7 @@
       <c r="N746" s="21"/>
       <c r="O746" s="21"/>
       <c r="P746" s="21"/>
-      <c r="Q746" s="21"/>
+      <c r="Q746" s="37"/>
       <c r="R746" s="22"/>
       <c r="S746" s="22"/>
       <c r="T746" s="21"/>
@@ -41334,7 +41344,7 @@
       <c r="N747" s="21"/>
       <c r="O747" s="21"/>
       <c r="P747" s="21"/>
-      <c r="Q747" s="21"/>
+      <c r="Q747" s="37"/>
       <c r="R747" s="22"/>
       <c r="S747" s="22"/>
       <c r="T747" s="21"/>
@@ -41385,7 +41395,7 @@
       <c r="N748" s="21"/>
       <c r="O748" s="21"/>
       <c r="P748" s="21"/>
-      <c r="Q748" s="21"/>
+      <c r="Q748" s="37"/>
       <c r="R748" s="22"/>
       <c r="S748" s="22"/>
       <c r="T748" s="21"/>
@@ -41436,7 +41446,7 @@
       <c r="N749" s="21"/>
       <c r="O749" s="21"/>
       <c r="P749" s="21"/>
-      <c r="Q749" s="21"/>
+      <c r="Q749" s="37"/>
       <c r="R749" s="22"/>
       <c r="S749" s="22"/>
       <c r="T749" s="21"/>
@@ -41487,7 +41497,7 @@
       <c r="N750" s="21"/>
       <c r="O750" s="21"/>
       <c r="P750" s="21"/>
-      <c r="Q750" s="21"/>
+      <c r="Q750" s="37"/>
       <c r="R750" s="22"/>
       <c r="S750" s="22"/>
       <c r="T750" s="21"/>
@@ -41538,7 +41548,7 @@
       <c r="N751" s="21"/>
       <c r="O751" s="21"/>
       <c r="P751" s="21"/>
-      <c r="Q751" s="21"/>
+      <c r="Q751" s="37"/>
       <c r="R751" s="22"/>
       <c r="S751" s="22"/>
       <c r="T751" s="21"/>
@@ -41589,7 +41599,7 @@
       <c r="N752" s="21"/>
       <c r="O752" s="21"/>
       <c r="P752" s="21"/>
-      <c r="Q752" s="21"/>
+      <c r="Q752" s="37"/>
       <c r="R752" s="22"/>
       <c r="S752" s="22"/>
       <c r="T752" s="21"/>
@@ -41640,7 +41650,7 @@
       <c r="N753" s="21"/>
       <c r="O753" s="21"/>
       <c r="P753" s="21"/>
-      <c r="Q753" s="21"/>
+      <c r="Q753" s="37"/>
       <c r="R753" s="22"/>
       <c r="S753" s="22"/>
       <c r="T753" s="21"/>
@@ -41691,7 +41701,7 @@
       <c r="N754" s="21"/>
       <c r="O754" s="21"/>
       <c r="P754" s="21"/>
-      <c r="Q754" s="21"/>
+      <c r="Q754" s="37"/>
       <c r="R754" s="22"/>
       <c r="S754" s="22"/>
       <c r="T754" s="21"/>
@@ -41742,7 +41752,7 @@
       <c r="N755" s="21"/>
       <c r="O755" s="21"/>
       <c r="P755" s="21"/>
-      <c r="Q755" s="21"/>
+      <c r="Q755" s="37"/>
       <c r="R755" s="22"/>
       <c r="S755" s="22"/>
       <c r="T755" s="21"/>
@@ -41793,7 +41803,7 @@
       <c r="N756" s="21"/>
       <c r="O756" s="21"/>
       <c r="P756" s="21"/>
-      <c r="Q756" s="21"/>
+      <c r="Q756" s="37"/>
       <c r="R756" s="22"/>
       <c r="S756" s="22"/>
       <c r="T756" s="21"/>
@@ -41844,7 +41854,7 @@
       <c r="N757" s="21"/>
       <c r="O757" s="21"/>
       <c r="P757" s="21"/>
-      <c r="Q757" s="21"/>
+      <c r="Q757" s="37"/>
       <c r="R757" s="22"/>
       <c r="S757" s="22"/>
       <c r="T757" s="21"/>
@@ -41895,7 +41905,7 @@
       <c r="N758" s="21"/>
       <c r="O758" s="21"/>
       <c r="P758" s="21"/>
-      <c r="Q758" s="21"/>
+      <c r="Q758" s="37"/>
       <c r="R758" s="22"/>
       <c r="S758" s="22"/>
       <c r="T758" s="21"/>
@@ -41946,7 +41956,7 @@
       <c r="N759" s="21"/>
       <c r="O759" s="21"/>
       <c r="P759" s="21"/>
-      <c r="Q759" s="21"/>
+      <c r="Q759" s="37"/>
       <c r="R759" s="22"/>
       <c r="S759" s="22"/>
       <c r="T759" s="21"/>
@@ -41997,7 +42007,7 @@
       <c r="N760" s="21"/>
       <c r="O760" s="21"/>
       <c r="P760" s="21"/>
-      <c r="Q760" s="21"/>
+      <c r="Q760" s="37"/>
       <c r="R760" s="22"/>
       <c r="S760" s="22"/>
       <c r="T760" s="21"/>
@@ -42048,7 +42058,7 @@
       <c r="N761" s="21"/>
       <c r="O761" s="21"/>
       <c r="P761" s="21"/>
-      <c r="Q761" s="21"/>
+      <c r="Q761" s="37"/>
       <c r="R761" s="22"/>
       <c r="S761" s="22"/>
       <c r="T761" s="21"/>
@@ -42099,7 +42109,7 @@
       <c r="N762" s="21"/>
       <c r="O762" s="21"/>
       <c r="P762" s="21"/>
-      <c r="Q762" s="21"/>
+      <c r="Q762" s="37"/>
       <c r="R762" s="22"/>
       <c r="S762" s="22"/>
       <c r="T762" s="21"/>
@@ -42150,7 +42160,7 @@
       <c r="N763" s="21"/>
       <c r="O763" s="21"/>
       <c r="P763" s="21"/>
-      <c r="Q763" s="21"/>
+      <c r="Q763" s="37"/>
       <c r="R763" s="22"/>
       <c r="S763" s="22"/>
       <c r="T763" s="21"/>
@@ -42201,7 +42211,7 @@
       <c r="N764" s="21"/>
       <c r="O764" s="21"/>
       <c r="P764" s="21"/>
-      <c r="Q764" s="21"/>
+      <c r="Q764" s="37"/>
       <c r="R764" s="22"/>
       <c r="S764" s="22"/>
       <c r="T764" s="21"/>
@@ -42252,7 +42262,7 @@
       <c r="N765" s="21"/>
       <c r="O765" s="21"/>
       <c r="P765" s="21"/>
-      <c r="Q765" s="21"/>
+      <c r="Q765" s="37"/>
       <c r="R765" s="22"/>
       <c r="S765" s="22"/>
       <c r="T765" s="21"/>
@@ -42303,7 +42313,7 @@
       <c r="N766" s="21"/>
       <c r="O766" s="21"/>
       <c r="P766" s="21"/>
-      <c r="Q766" s="21"/>
+      <c r="Q766" s="37"/>
       <c r="R766" s="22"/>
       <c r="S766" s="22"/>
       <c r="T766" s="21"/>
@@ -42354,7 +42364,7 @@
       <c r="N767" s="21"/>
       <c r="O767" s="21"/>
       <c r="P767" s="21"/>
-      <c r="Q767" s="21"/>
+      <c r="Q767" s="37"/>
       <c r="R767" s="22"/>
       <c r="S767" s="22"/>
       <c r="T767" s="21"/>
@@ -42405,7 +42415,7 @@
       <c r="N768" s="21"/>
       <c r="O768" s="21"/>
       <c r="P768" s="21"/>
-      <c r="Q768" s="21"/>
+      <c r="Q768" s="37"/>
       <c r="R768" s="22"/>
       <c r="S768" s="22"/>
       <c r="T768" s="21"/>
@@ -42456,7 +42466,7 @@
       <c r="N769" s="21"/>
       <c r="O769" s="21"/>
       <c r="P769" s="21"/>
-      <c r="Q769" s="21"/>
+      <c r="Q769" s="37"/>
       <c r="R769" s="22"/>
       <c r="S769" s="22"/>
       <c r="T769" s="21"/>
@@ -42507,7 +42517,7 @@
       <c r="N770" s="21"/>
       <c r="O770" s="21"/>
       <c r="P770" s="21"/>
-      <c r="Q770" s="21"/>
+      <c r="Q770" s="37"/>
       <c r="R770" s="22"/>
       <c r="S770" s="22"/>
       <c r="T770" s="21"/>
@@ -42558,7 +42568,7 @@
       <c r="N771" s="21"/>
       <c r="O771" s="21"/>
       <c r="P771" s="21"/>
-      <c r="Q771" s="21"/>
+      <c r="Q771" s="37"/>
       <c r="R771" s="22"/>
       <c r="S771" s="22"/>
       <c r="T771" s="21"/>
@@ -42609,7 +42619,7 @@
       <c r="N772" s="21"/>
       <c r="O772" s="21"/>
       <c r="P772" s="21"/>
-      <c r="Q772" s="21"/>
+      <c r="Q772" s="37"/>
       <c r="R772" s="22"/>
       <c r="S772" s="22"/>
       <c r="T772" s="21"/>
@@ -42660,7 +42670,7 @@
       <c r="N773" s="21"/>
       <c r="O773" s="21"/>
       <c r="P773" s="21"/>
-      <c r="Q773" s="21"/>
+      <c r="Q773" s="37"/>
       <c r="R773" s="22"/>
       <c r="S773" s="22"/>
       <c r="T773" s="21"/>
@@ -42711,7 +42721,7 @@
       <c r="N774" s="21"/>
       <c r="O774" s="21"/>
       <c r="P774" s="21"/>
-      <c r="Q774" s="21"/>
+      <c r="Q774" s="37"/>
       <c r="R774" s="22"/>
       <c r="S774" s="22"/>
       <c r="T774" s="21"/>
@@ -42762,7 +42772,7 @@
       <c r="N775" s="21"/>
       <c r="O775" s="21"/>
       <c r="P775" s="21"/>
-      <c r="Q775" s="21"/>
+      <c r="Q775" s="37"/>
       <c r="R775" s="22"/>
       <c r="S775" s="22"/>
       <c r="T775" s="21"/>
@@ -42813,7 +42823,7 @@
       <c r="N776" s="21"/>
       <c r="O776" s="21"/>
       <c r="P776" s="21"/>
-      <c r="Q776" s="21"/>
+      <c r="Q776" s="37"/>
       <c r="R776" s="22"/>
       <c r="S776" s="22"/>
       <c r="T776" s="21"/>
@@ -42864,7 +42874,7 @@
       <c r="N777" s="21"/>
       <c r="O777" s="21"/>
       <c r="P777" s="21"/>
-      <c r="Q777" s="21"/>
+      <c r="Q777" s="37"/>
       <c r="R777" s="22"/>
       <c r="S777" s="22"/>
       <c r="T777" s="21"/>
@@ -42915,7 +42925,7 @@
       <c r="N778" s="21"/>
       <c r="O778" s="21"/>
       <c r="P778" s="21"/>
-      <c r="Q778" s="21"/>
+      <c r="Q778" s="37"/>
       <c r="R778" s="22"/>
       <c r="S778" s="22"/>
       <c r="T778" s="21"/>
@@ -42966,7 +42976,7 @@
       <c r="N779" s="21"/>
       <c r="O779" s="21"/>
       <c r="P779" s="21"/>
-      <c r="Q779" s="21"/>
+      <c r="Q779" s="37"/>
       <c r="R779" s="22"/>
       <c r="S779" s="22"/>
       <c r="T779" s="21"/>
@@ -43017,7 +43027,7 @@
       <c r="N780" s="21"/>
       <c r="O780" s="21"/>
       <c r="P780" s="21"/>
-      <c r="Q780" s="21"/>
+      <c r="Q780" s="37"/>
       <c r="R780" s="22"/>
       <c r="S780" s="22"/>
       <c r="T780" s="21"/>
@@ -43068,7 +43078,7 @@
       <c r="N781" s="21"/>
       <c r="O781" s="21"/>
       <c r="P781" s="21"/>
-      <c r="Q781" s="21"/>
+      <c r="Q781" s="37"/>
       <c r="R781" s="22"/>
       <c r="S781" s="22"/>
       <c r="T781" s="21"/>
@@ -43119,7 +43129,7 @@
       <c r="N782" s="21"/>
       <c r="O782" s="21"/>
       <c r="P782" s="21"/>
-      <c r="Q782" s="21"/>
+      <c r="Q782" s="37"/>
       <c r="R782" s="22"/>
       <c r="S782" s="22"/>
       <c r="T782" s="21"/>
@@ -43170,7 +43180,7 @@
       <c r="N783" s="21"/>
       <c r="O783" s="21"/>
       <c r="P783" s="21"/>
-      <c r="Q783" s="21"/>
+      <c r="Q783" s="37"/>
       <c r="R783" s="22"/>
       <c r="S783" s="22"/>
       <c r="T783" s="21"/>
@@ -43221,7 +43231,7 @@
       <c r="N784" s="21"/>
       <c r="O784" s="21"/>
       <c r="P784" s="21"/>
-      <c r="Q784" s="21"/>
+      <c r="Q784" s="37"/>
       <c r="R784" s="22"/>
       <c r="S784" s="22"/>
       <c r="T784" s="21"/>
@@ -43272,7 +43282,7 @@
       <c r="N785" s="21"/>
       <c r="O785" s="21"/>
       <c r="P785" s="21"/>
-      <c r="Q785" s="21"/>
+      <c r="Q785" s="37"/>
       <c r="R785" s="22"/>
       <c r="S785" s="22"/>
       <c r="T785" s="21"/>
@@ -43323,7 +43333,7 @@
       <c r="N786" s="21"/>
       <c r="O786" s="21"/>
       <c r="P786" s="21"/>
-      <c r="Q786" s="21"/>
+      <c r="Q786" s="37"/>
       <c r="R786" s="22"/>
       <c r="S786" s="22"/>
       <c r="T786" s="21"/>
@@ -43374,7 +43384,7 @@
       <c r="N787" s="21"/>
       <c r="O787" s="21"/>
       <c r="P787" s="21"/>
-      <c r="Q787" s="21"/>
+      <c r="Q787" s="37"/>
       <c r="R787" s="22"/>
       <c r="S787" s="22"/>
       <c r="T787" s="21"/>
@@ -43425,7 +43435,7 @@
       <c r="N788" s="21"/>
       <c r="O788" s="21"/>
       <c r="P788" s="21"/>
-      <c r="Q788" s="21"/>
+      <c r="Q788" s="37"/>
       <c r="R788" s="22"/>
       <c r="S788" s="22"/>
       <c r="T788" s="21"/>
@@ -43476,7 +43486,7 @@
       <c r="N789" s="21"/>
       <c r="O789" s="21"/>
       <c r="P789" s="21"/>
-      <c r="Q789" s="21"/>
+      <c r="Q789" s="37"/>
       <c r="R789" s="22"/>
       <c r="S789" s="22"/>
       <c r="T789" s="21"/>
@@ -43527,7 +43537,7 @@
       <c r="N790" s="21"/>
       <c r="O790" s="21"/>
       <c r="P790" s="21"/>
-      <c r="Q790" s="21"/>
+      <c r="Q790" s="37"/>
       <c r="R790" s="22"/>
       <c r="S790" s="22"/>
       <c r="T790" s="21"/>
@@ -43578,7 +43588,7 @@
       <c r="N791" s="21"/>
       <c r="O791" s="21"/>
       <c r="P791" s="21"/>
-      <c r="Q791" s="21"/>
+      <c r="Q791" s="37"/>
       <c r="R791" s="22"/>
       <c r="S791" s="22"/>
       <c r="T791" s="21"/>
@@ -43629,7 +43639,7 @@
       <c r="N792" s="21"/>
       <c r="O792" s="21"/>
       <c r="P792" s="21"/>
-      <c r="Q792" s="21"/>
+      <c r="Q792" s="37"/>
       <c r="R792" s="22"/>
       <c r="S792" s="22"/>
       <c r="T792" s="21"/>
@@ -43680,7 +43690,7 @@
       <c r="N793" s="21"/>
       <c r="O793" s="21"/>
       <c r="P793" s="21"/>
-      <c r="Q793" s="21"/>
+      <c r="Q793" s="37"/>
       <c r="R793" s="22"/>
       <c r="S793" s="22"/>
       <c r="T793" s="21"/>
@@ -43731,7 +43741,7 @@
       <c r="N794" s="21"/>
       <c r="O794" s="21"/>
       <c r="P794" s="21"/>
-      <c r="Q794" s="21"/>
+      <c r="Q794" s="37"/>
       <c r="R794" s="22"/>
       <c r="S794" s="22"/>
       <c r="T794" s="21"/>
@@ -43782,7 +43792,7 @@
       <c r="N795" s="21"/>
       <c r="O795" s="21"/>
       <c r="P795" s="21"/>
-      <c r="Q795" s="21"/>
+      <c r="Q795" s="37"/>
       <c r="R795" s="22"/>
       <c r="S795" s="22"/>
       <c r="T795" s="21"/>
@@ -43833,7 +43843,7 @@
       <c r="N796" s="21"/>
       <c r="O796" s="21"/>
       <c r="P796" s="21"/>
-      <c r="Q796" s="21"/>
+      <c r="Q796" s="37"/>
       <c r="R796" s="22"/>
       <c r="S796" s="22"/>
       <c r="T796" s="21"/>
@@ -43884,7 +43894,7 @@
       <c r="N797" s="21"/>
       <c r="O797" s="21"/>
       <c r="P797" s="21"/>
-      <c r="Q797" s="21"/>
+      <c r="Q797" s="37"/>
       <c r="R797" s="22"/>
       <c r="S797" s="22"/>
       <c r="T797" s="21"/>
@@ -43935,7 +43945,7 @@
       <c r="N798" s="21"/>
       <c r="O798" s="21"/>
       <c r="P798" s="21"/>
-      <c r="Q798" s="21"/>
+      <c r="Q798" s="37"/>
       <c r="R798" s="22"/>
       <c r="S798" s="22"/>
       <c r="T798" s="21"/>
@@ -43986,7 +43996,7 @@
       <c r="N799" s="21"/>
       <c r="O799" s="21"/>
       <c r="P799" s="21"/>
-      <c r="Q799" s="21"/>
+      <c r="Q799" s="37"/>
       <c r="R799" s="22"/>
       <c r="S799" s="22"/>
       <c r="T799" s="21"/>
@@ -44037,7 +44047,7 @@
       <c r="N800" s="21"/>
       <c r="O800" s="21"/>
       <c r="P800" s="21"/>
-      <c r="Q800" s="21"/>
+      <c r="Q800" s="37"/>
       <c r="R800" s="22"/>
       <c r="S800" s="22"/>
       <c r="T800" s="21"/>
@@ -44088,7 +44098,7 @@
       <c r="N801" s="21"/>
       <c r="O801" s="21"/>
       <c r="P801" s="21"/>
-      <c r="Q801" s="21"/>
+      <c r="Q801" s="37"/>
       <c r="R801" s="22"/>
       <c r="S801" s="22"/>
       <c r="T801" s="21"/>
@@ -44139,7 +44149,7 @@
       <c r="N802" s="21"/>
       <c r="O802" s="21"/>
       <c r="P802" s="21"/>
-      <c r="Q802" s="21"/>
+      <c r="Q802" s="37"/>
       <c r="R802" s="22"/>
       <c r="S802" s="22"/>
       <c r="T802" s="21"/>
@@ -44190,7 +44200,7 @@
       <c r="N803" s="21"/>
       <c r="O803" s="21"/>
       <c r="P803" s="21"/>
-      <c r="Q803" s="21"/>
+      <c r="Q803" s="37"/>
       <c r="R803" s="22"/>
       <c r="S803" s="22"/>
       <c r="T803" s="21"/>
@@ -44241,7 +44251,7 @@
       <c r="N804" s="21"/>
       <c r="O804" s="21"/>
       <c r="P804" s="21"/>
-      <c r="Q804" s="21"/>
+      <c r="Q804" s="37"/>
       <c r="R804" s="22"/>
       <c r="S804" s="22"/>
       <c r="T804" s="21"/>
@@ -44292,7 +44302,7 @@
       <c r="N805" s="21"/>
       <c r="O805" s="21"/>
       <c r="P805" s="21"/>
-      <c r="Q805" s="21"/>
+      <c r="Q805" s="37"/>
       <c r="R805" s="22"/>
       <c r="S805" s="22"/>
       <c r="T805" s="21"/>
@@ -44343,7 +44353,7 @@
       <c r="N806" s="21"/>
       <c r="O806" s="21"/>
       <c r="P806" s="21"/>
-      <c r="Q806" s="21"/>
+      <c r="Q806" s="37"/>
       <c r="R806" s="22"/>
       <c r="S806" s="22"/>
       <c r="T806" s="21"/>
@@ -44394,7 +44404,7 @@
       <c r="N807" s="21"/>
       <c r="O807" s="21"/>
       <c r="P807" s="21"/>
-      <c r="Q807" s="21"/>
+      <c r="Q807" s="37"/>
       <c r="R807" s="22"/>
       <c r="S807" s="22"/>
       <c r="T807" s="21"/>
@@ -44445,7 +44455,7 @@
       <c r="N808" s="21"/>
       <c r="O808" s="21"/>
       <c r="P808" s="21"/>
-      <c r="Q808" s="21"/>
+      <c r="Q808" s="37"/>
       <c r="R808" s="22"/>
       <c r="S808" s="22"/>
       <c r="T808" s="21"/>
@@ -44496,7 +44506,7 @@
       <c r="N809" s="21"/>
       <c r="O809" s="21"/>
       <c r="P809" s="21"/>
-      <c r="Q809" s="21"/>
+      <c r="Q809" s="37"/>
       <c r="R809" s="22"/>
       <c r="S809" s="22"/>
       <c r="T809" s="21"/>
@@ -44547,7 +44557,7 @@
       <c r="N810" s="21"/>
       <c r="O810" s="21"/>
       <c r="P810" s="21"/>
-      <c r="Q810" s="21"/>
+      <c r="Q810" s="37"/>
       <c r="R810" s="22"/>
       <c r="S810" s="22"/>
       <c r="T810" s="21"/>
@@ -44598,7 +44608,7 @@
       <c r="N811" s="21"/>
       <c r="O811" s="21"/>
       <c r="P811" s="21"/>
-      <c r="Q811" s="21"/>
+      <c r="Q811" s="37"/>
       <c r="R811" s="22"/>
       <c r="S811" s="22"/>
       <c r="T811" s="21"/>
@@ -44649,7 +44659,7 @@
       <c r="N812" s="21"/>
       <c r="O812" s="21"/>
       <c r="P812" s="21"/>
-      <c r="Q812" s="21"/>
+      <c r="Q812" s="37"/>
       <c r="R812" s="22"/>
       <c r="S812" s="22"/>
       <c r="T812" s="21"/>
@@ -44700,7 +44710,7 @@
       <c r="N813" s="21"/>
       <c r="O813" s="21"/>
       <c r="P813" s="21"/>
-      <c r="Q813" s="21"/>
+      <c r="Q813" s="37"/>
       <c r="R813" s="22"/>
       <c r="S813" s="22"/>
       <c r="T813" s="21"/>
@@ -44751,7 +44761,7 @@
       <c r="N814" s="21"/>
       <c r="O814" s="21"/>
       <c r="P814" s="21"/>
-      <c r="Q814" s="21"/>
+      <c r="Q814" s="37"/>
       <c r="R814" s="22"/>
       <c r="S814" s="22"/>
       <c r="T814" s="21"/>
@@ -44802,7 +44812,7 @@
       <c r="N815" s="21"/>
       <c r="O815" s="21"/>
       <c r="P815" s="21"/>
-      <c r="Q815" s="21"/>
+      <c r="Q815" s="37"/>
       <c r="R815" s="22"/>
       <c r="S815" s="22"/>
       <c r="T815" s="21"/>
@@ -44853,7 +44863,7 @@
       <c r="N816" s="21"/>
       <c r="O816" s="21"/>
       <c r="P816" s="21"/>
-      <c r="Q816" s="21"/>
+      <c r="Q816" s="37"/>
       <c r="R816" s="22"/>
       <c r="S816" s="22"/>
       <c r="T816" s="21"/>
@@ -44904,7 +44914,7 @@
       <c r="N817" s="21"/>
       <c r="O817" s="21"/>
       <c r="P817" s="21"/>
-      <c r="Q817" s="21"/>
+      <c r="Q817" s="37"/>
       <c r="R817" s="22"/>
       <c r="S817" s="22"/>
       <c r="T817" s="21"/>
@@ -44955,7 +44965,7 @@
       <c r="N818" s="21"/>
       <c r="O818" s="21"/>
       <c r="P818" s="21"/>
-      <c r="Q818" s="21"/>
+      <c r="Q818" s="37"/>
       <c r="R818" s="22"/>
       <c r="S818" s="22"/>
       <c r="T818" s="21"/>
@@ -45006,7 +45016,7 @@
       <c r="N819" s="21"/>
       <c r="O819" s="21"/>
       <c r="P819" s="21"/>
-      <c r="Q819" s="21"/>
+      <c r="Q819" s="37"/>
       <c r="R819" s="22"/>
       <c r="S819" s="22"/>
       <c r="T819" s="21"/>
@@ -45057,7 +45067,7 @@
       <c r="N820" s="21"/>
       <c r="O820" s="21"/>
       <c r="P820" s="21"/>
-      <c r="Q820" s="21"/>
+      <c r="Q820" s="37"/>
       <c r="R820" s="22"/>
       <c r="S820" s="22"/>
       <c r="T820" s="21"/>
@@ -45108,7 +45118,7 @@
       <c r="N821" s="21"/>
       <c r="O821" s="21"/>
       <c r="P821" s="21"/>
-      <c r="Q821" s="21"/>
+      <c r="Q821" s="37"/>
       <c r="R821" s="22"/>
       <c r="S821" s="22"/>
       <c r="T821" s="21"/>
@@ -45159,7 +45169,7 @@
       <c r="N822" s="21"/>
       <c r="O822" s="21"/>
       <c r="P822" s="21"/>
-      <c r="Q822" s="21"/>
+      <c r="Q822" s="37"/>
       <c r="R822" s="22"/>
       <c r="S822" s="22"/>
       <c r="T822" s="21"/>
@@ -45210,7 +45220,7 @@
       <c r="N823" s="21"/>
       <c r="O823" s="21"/>
       <c r="P823" s="21"/>
-      <c r="Q823" s="21"/>
+      <c r="Q823" s="37"/>
       <c r="R823" s="22"/>
       <c r="S823" s="22"/>
       <c r="T823" s="21"/>
@@ -45261,7 +45271,7 @@
       <c r="N824" s="21"/>
       <c r="O824" s="21"/>
       <c r="P824" s="21"/>
-      <c r="Q824" s="21"/>
+      <c r="Q824" s="37"/>
       <c r="R824" s="22"/>
       <c r="S824" s="22"/>
       <c r="T824" s="21"/>
@@ -45312,7 +45322,7 @@
       <c r="N825" s="21"/>
       <c r="O825" s="21"/>
       <c r="P825" s="21"/>
-      <c r="Q825" s="21"/>
+      <c r="Q825" s="37"/>
       <c r="R825" s="22"/>
       <c r="S825" s="22"/>
       <c r="T825" s="21"/>
@@ -45363,7 +45373,7 @@
       <c r="N826" s="21"/>
       <c r="O826" s="21"/>
       <c r="P826" s="21"/>
-      <c r="Q826" s="21"/>
+      <c r="Q826" s="37"/>
       <c r="R826" s="22"/>
       <c r="S826" s="22"/>
       <c r="T826" s="21"/>
@@ -45414,7 +45424,7 @@
       <c r="N827" s="21"/>
       <c r="O827" s="21"/>
       <c r="P827" s="21"/>
-      <c r="Q827" s="21"/>
+      <c r="Q827" s="37"/>
       <c r="R827" s="22"/>
       <c r="S827" s="22"/>
       <c r="T827" s="21"/>
@@ -45465,7 +45475,7 @@
       <c r="N828" s="21"/>
       <c r="O828" s="21"/>
       <c r="P828" s="21"/>
-      <c r="Q828" s="21"/>
+      <c r="Q828" s="37"/>
       <c r="R828" s="22"/>
       <c r="S828" s="22"/>
       <c r="T828" s="21"/>
@@ -45516,7 +45526,7 @@
       <c r="N829" s="21"/>
       <c r="O829" s="21"/>
       <c r="P829" s="21"/>
-      <c r="Q829" s="21"/>
+      <c r="Q829" s="37"/>
       <c r="R829" s="22"/>
       <c r="S829" s="22"/>
       <c r="T829" s="21"/>
@@ -45567,7 +45577,7 @@
       <c r="N830" s="21"/>
       <c r="O830" s="21"/>
       <c r="P830" s="21"/>
-      <c r="Q830" s="21"/>
+      <c r="Q830" s="37"/>
       <c r="R830" s="22"/>
       <c r="S830" s="22"/>
       <c r="T830" s="21"/>
@@ -45618,7 +45628,7 @@
       <c r="N831" s="21"/>
       <c r="O831" s="21"/>
       <c r="P831" s="21"/>
-      <c r="Q831" s="21"/>
+      <c r="Q831" s="37"/>
       <c r="R831" s="22"/>
       <c r="S831" s="22"/>
       <c r="T831" s="21"/>
@@ -45669,7 +45679,7 @@
       <c r="N832" s="21"/>
       <c r="O832" s="21"/>
       <c r="P832" s="21"/>
-      <c r="Q832" s="21"/>
+      <c r="Q832" s="37"/>
       <c r="R832" s="22"/>
       <c r="S832" s="22"/>
       <c r="T832" s="21"/>
@@ -45720,7 +45730,7 @@
       <c r="N833" s="21"/>
       <c r="O833" s="21"/>
       <c r="P833" s="21"/>
-      <c r="Q833" s="21"/>
+      <c r="Q833" s="37"/>
       <c r="R833" s="22"/>
       <c r="S833" s="22"/>
       <c r="T833" s="21"/>
@@ -45771,7 +45781,7 @@
       <c r="N834" s="21"/>
       <c r="O834" s="21"/>
       <c r="P834" s="21"/>
-      <c r="Q834" s="21"/>
+      <c r="Q834" s="37"/>
       <c r="R834" s="22"/>
       <c r="S834" s="22"/>
       <c r="T834" s="21"/>
@@ -45822,7 +45832,7 @@
       <c r="N835" s="21"/>
       <c r="O835" s="21"/>
       <c r="P835" s="21"/>
-      <c r="Q835" s="21"/>
+      <c r="Q835" s="37"/>
       <c r="R835" s="22"/>
       <c r="S835" s="22"/>
       <c r="T835" s="21"/>
@@ -45873,7 +45883,7 @@
       <c r="N836" s="21"/>
       <c r="O836" s="21"/>
       <c r="P836" s="21"/>
-      <c r="Q836" s="21"/>
+      <c r="Q836" s="37"/>
       <c r="R836" s="22"/>
       <c r="S836" s="22"/>
       <c r="T836" s="21"/>
@@ -45924,7 +45934,7 @@
       <c r="N837" s="21"/>
       <c r="O837" s="21"/>
       <c r="P837" s="21"/>
-      <c r="Q837" s="21"/>
+      <c r="Q837" s="37"/>
       <c r="R837" s="22"/>
       <c r="S837" s="22"/>
       <c r="T837" s="21"/>
@@ -45975,7 +45985,7 @@
       <c r="N838" s="21"/>
       <c r="O838" s="21"/>
       <c r="P838" s="21"/>
-      <c r="Q838" s="21"/>
+      <c r="Q838" s="37"/>
       <c r="R838" s="22"/>
       <c r="S838" s="22"/>
       <c r="T838" s="21"/>
@@ -46026,7 +46036,7 @@
       <c r="N839" s="21"/>
       <c r="O839" s="21"/>
       <c r="P839" s="21"/>
-      <c r="Q839" s="21"/>
+      <c r="Q839" s="37"/>
       <c r="R839" s="22"/>
       <c r="S839" s="22"/>
       <c r="T839" s="21"/>
@@ -46077,7 +46087,7 @@
       <c r="N840" s="21"/>
       <c r="O840" s="21"/>
       <c r="P840" s="21"/>
-      <c r="Q840" s="21"/>
+      <c r="Q840" s="37"/>
       <c r="R840" s="22"/>
       <c r="S840" s="22"/>
       <c r="T840" s="21"/>
@@ -46128,7 +46138,7 @@
       <c r="N841" s="21"/>
       <c r="O841" s="21"/>
       <c r="P841" s="21"/>
-      <c r="Q841" s="21"/>
+      <c r="Q841" s="37"/>
       <c r="R841" s="22"/>
       <c r="S841" s="22"/>
       <c r="T841" s="21"/>
@@ -46179,7 +46189,7 @@
       <c r="N842" s="21"/>
       <c r="O842" s="21"/>
       <c r="P842" s="21"/>
-      <c r="Q842" s="21"/>
+      <c r="Q842" s="37"/>
       <c r="R842" s="22"/>
       <c r="S842" s="22"/>
       <c r="T842" s="21"/>
@@ -46230,7 +46240,7 @@
       <c r="N843" s="21"/>
       <c r="O843" s="21"/>
       <c r="P843" s="21"/>
-      <c r="Q843" s="21"/>
+      <c r="Q843" s="37"/>
       <c r="R843" s="22"/>
       <c r="S843" s="22"/>
       <c r="T843" s="21"/>
@@ -46281,7 +46291,7 @@
       <c r="N844" s="21"/>
       <c r="O844" s="21"/>
       <c r="P844" s="21"/>
-      <c r="Q844" s="21"/>
+      <c r="Q844" s="37"/>
       <c r="R844" s="22"/>
       <c r="S844" s="22"/>
       <c r="T844" s="21"/>
@@ -46332,7 +46342,7 @@
       <c r="N845" s="21"/>
       <c r="O845" s="21"/>
       <c r="P845" s="21"/>
-      <c r="Q845" s="21"/>
+      <c r="Q845" s="37"/>
       <c r="R845" s="22"/>
       <c r="S845" s="22"/>
       <c r="T845" s="21"/>
@@ -46383,7 +46393,7 @@
       <c r="N846" s="21"/>
       <c r="O846" s="21"/>
       <c r="P846" s="21"/>
-      <c r="Q846" s="21"/>
+      <c r="Q846" s="37"/>
       <c r="R846" s="22"/>
       <c r="S846" s="22"/>
       <c r="T846" s="21"/>
@@ -46434,7 +46444,7 @@
       <c r="N847" s="21"/>
       <c r="O847" s="21"/>
       <c r="P847" s="21"/>
-      <c r="Q847" s="21"/>
+      <c r="Q847" s="37"/>
       <c r="R847" s="22"/>
       <c r="S847" s="22"/>
       <c r="T847" s="21"/>
@@ -46485,7 +46495,7 @@
       <c r="N848" s="21"/>
       <c r="O848" s="21"/>
       <c r="P848" s="21"/>
-      <c r="Q848" s="21"/>
+      <c r="Q848" s="37"/>
       <c r="R848" s="22"/>
       <c r="S848" s="22"/>
       <c r="T848" s="21"/>
@@ -46536,7 +46546,7 @@
       <c r="N849" s="21"/>
       <c r="O849" s="21"/>
       <c r="P849" s="21"/>
-      <c r="Q849" s="21"/>
+      <c r="Q849" s="37"/>
       <c r="R849" s="22"/>
       <c r="S849" s="22"/>
       <c r="T849" s="21"/>
@@ -46587,7 +46597,7 @@
       <c r="N850" s="21"/>
       <c r="O850" s="21"/>
       <c r="P850" s="21"/>
-      <c r="Q850" s="21"/>
+      <c r="Q850" s="37"/>
       <c r="R850" s="22"/>
       <c r="S850" s="22"/>
       <c r="T850" s="21"/>
@@ -46638,7 +46648,7 @@
       <c r="N851" s="21"/>
       <c r="O851" s="21"/>
       <c r="P851" s="21"/>
-      <c r="Q851" s="21"/>
+      <c r="Q851" s="37"/>
       <c r="R851" s="22"/>
       <c r="S851" s="22"/>
       <c r="T851" s="21"/>
@@ -46689,7 +46699,7 @@
       <c r="N852" s="21"/>
       <c r="O852" s="21"/>
       <c r="P852" s="21"/>
-      <c r="Q852" s="21"/>
+      <c r="Q852" s="37"/>
       <c r="R852" s="22"/>
       <c r="S852" s="22"/>
       <c r="T852" s="21"/>
@@ -46740,7 +46750,7 @@
       <c r="N853" s="21"/>
       <c r="O853" s="21"/>
       <c r="P853" s="21"/>
-      <c r="Q853" s="21"/>
+      <c r="Q853" s="37"/>
       <c r="R853" s="22"/>
       <c r="S853" s="22"/>
       <c r="T853" s="21"/>
@@ -46791,7 +46801,7 @@
       <c r="N854" s="21"/>
       <c r="O854" s="21"/>
       <c r="P854" s="21"/>
-      <c r="Q854" s="21"/>
+      <c r="Q854" s="37"/>
       <c r="R854" s="22"/>
       <c r="S854" s="22"/>
       <c r="T854" s="21"/>
@@ -46842,7 +46852,7 @@
       <c r="N855" s="21"/>
       <c r="O855" s="21"/>
       <c r="P855" s="21"/>
-      <c r="Q855" s="21"/>
+      <c r="Q855" s="37"/>
       <c r="R855" s="22"/>
       <c r="S855" s="22"/>
       <c r="T855" s="21"/>
@@ -46893,7 +46903,7 @@
       <c r="N856" s="21"/>
       <c r="O856" s="21"/>
       <c r="P856" s="21"/>
-      <c r="Q856" s="21"/>
+      <c r="Q856" s="37"/>
       <c r="R856" s="22"/>
       <c r="S856" s="22"/>
       <c r="T856" s="21"/>
@@ -46944,7 +46954,7 @@
       <c r="N857" s="21"/>
       <c r="O857" s="21"/>
       <c r="P857" s="21"/>
-      <c r="Q857" s="21"/>
+      <c r="Q857" s="37"/>
       <c r="R857" s="22"/>
       <c r="S857" s="22"/>
       <c r="T857" s="21"/>
@@ -46995,7 +47005,7 @@
       <c r="N858" s="21"/>
       <c r="O858" s="21"/>
       <c r="P858" s="21"/>
-      <c r="Q858" s="21"/>
+      <c r="Q858" s="37"/>
       <c r="R858" s="22"/>
       <c r="S858" s="22"/>
       <c r="T858" s="21"/>
@@ -47046,7 +47056,7 @@
       <c r="N859" s="21"/>
       <c r="O859" s="21"/>
       <c r="P859" s="21"/>
-      <c r="Q859" s="21"/>
+      <c r="Q859" s="37"/>
       <c r="R859" s="22"/>
       <c r="S859" s="22"/>
       <c r="T859" s="21"/>
@@ -47097,7 +47107,7 @@
       <c r="N860" s="21"/>
       <c r="O860" s="21"/>
       <c r="P860" s="21"/>
-      <c r="Q860" s="21"/>
+      <c r="Q860" s="37"/>
       <c r="R860" s="22"/>
       <c r="S860" s="22"/>
       <c r="T860" s="21"/>
@@ -47148,7 +47158,7 @@
       <c r="N861" s="21"/>
       <c r="O861" s="21"/>
       <c r="P861" s="21"/>
-      <c r="Q861" s="21"/>
+      <c r="Q861" s="37"/>
       <c r="R861" s="22"/>
       <c r="S861" s="22"/>
       <c r="T861" s="21"/>
@@ -47199,7 +47209,7 @@
       <c r="N862" s="21"/>
       <c r="O862" s="21"/>
       <c r="P862" s="21"/>
-      <c r="Q862" s="21"/>
+      <c r="Q862" s="37"/>
       <c r="R862" s="22"/>
       <c r="S862" s="22"/>
       <c r="T862" s="21"/>
@@ -47250,7 +47260,7 @@
       <c r="N863" s="21"/>
       <c r="O863" s="21"/>
       <c r="P863" s="21"/>
-      <c r="Q863" s="21"/>
+      <c r="Q863" s="37"/>
       <c r="R863" s="22"/>
       <c r="S863" s="22"/>
       <c r="T863" s="21"/>
@@ -47301,7 +47311,7 @@
       <c r="N864" s="21"/>
       <c r="O864" s="21"/>
       <c r="P864" s="21"/>
-      <c r="Q864" s="21"/>
+      <c r="Q864" s="37"/>
       <c r="R864" s="22"/>
       <c r="S864" s="22"/>
       <c r="T864" s="21"/>
@@ -47352,7 +47362,7 @@
       <c r="N865" s="21"/>
       <c r="O865" s="21"/>
       <c r="P865" s="21"/>
-      <c r="Q865" s="21"/>
+      <c r="Q865" s="37"/>
       <c r="R865" s="22"/>
       <c r="S865" s="22"/>
       <c r="T865" s="21"/>
@@ -47403,7 +47413,7 @@
       <c r="N866" s="21"/>
       <c r="O866" s="21"/>
       <c r="P866" s="21"/>
-      <c r="Q866" s="21"/>
+      <c r="Q866" s="37"/>
       <c r="R866" s="22"/>
       <c r="S866" s="22"/>
       <c r="T866" s="21"/>
@@ -47454,7 +47464,7 @@
       <c r="N867" s="21"/>
       <c r="O867" s="21"/>
       <c r="P867" s="21"/>
-      <c r="Q867" s="21"/>
+      <c r="Q867" s="37"/>
       <c r="R867" s="22"/>
       <c r="S867" s="22"/>
       <c r="T867" s="21"/>
@@ -47505,7 +47515,7 @@
       <c r="N868" s="21"/>
       <c r="O868" s="21"/>
       <c r="P868" s="21"/>
-      <c r="Q868" s="21"/>
+      <c r="Q868" s="37"/>
       <c r="R868" s="22"/>
       <c r="S868" s="22"/>
       <c r="T868" s="21"/>
@@ -47556,7 +47566,7 @@
       <c r="N869" s="21"/>
       <c r="O869" s="21"/>
       <c r="P869" s="21"/>
-      <c r="Q869" s="21"/>
+      <c r="Q869" s="37"/>
       <c r="R869" s="22"/>
       <c r="S869" s="22"/>
       <c r="T869" s="21"/>
@@ -47607,7 +47617,7 @@
       <c r="N870" s="21"/>
       <c r="O870" s="21"/>
       <c r="P870" s="21"/>
-      <c r="Q870" s="21"/>
+      <c r="Q870" s="37"/>
       <c r="R870" s="22"/>
       <c r="S870" s="22"/>
       <c r="T870" s="21"/>
@@ -47658,7 +47668,7 @@
       <c r="N871" s="21"/>
       <c r="O871" s="21"/>
       <c r="P871" s="21"/>
-      <c r="Q871" s="21"/>
+      <c r="Q871" s="37"/>
       <c r="R871" s="22"/>
       <c r="S871" s="22"/>
       <c r="T871" s="21"/>
@@ -47709,7 +47719,7 @@
       <c r="N872" s="21"/>
       <c r="O872" s="21"/>
       <c r="P872" s="21"/>
-      <c r="Q872" s="21"/>
+      <c r="Q872" s="37"/>
       <c r="R872" s="22"/>
       <c r="S872" s="22"/>
       <c r="T872" s="21"/>
@@ -47760,7 +47770,7 @@
       <c r="N873" s="21"/>
       <c r="O873" s="21"/>
       <c r="P873" s="21"/>
-      <c r="Q873" s="21"/>
+      <c r="Q873" s="37"/>
       <c r="R873" s="22"/>
       <c r="S873" s="22"/>
       <c r="T873" s="21"/>
@@ -47811,7 +47821,7 @@
       <c r="N874" s="21"/>
       <c r="O874" s="21"/>
       <c r="P874" s="21"/>
-      <c r="Q874" s="21"/>
+      <c r="Q874" s="37"/>
       <c r="R874" s="22"/>
       <c r="S874" s="22"/>
       <c r="T874" s="21"/>
@@ -47862,7 +47872,7 @@
       <c r="N875" s="21"/>
       <c r="O875" s="21"/>
       <c r="P875" s="21"/>
-      <c r="Q875" s="21"/>
+      <c r="Q875" s="37"/>
       <c r="R875" s="22"/>
       <c r="S875" s="22"/>
       <c r="T875" s="21"/>
@@ -47913,7 +47923,7 @@
       <c r="N876" s="21"/>
       <c r="O876" s="21"/>
       <c r="P876" s="21"/>
-      <c r="Q876" s="21"/>
+      <c r="Q876" s="37"/>
       <c r="R876" s="22"/>
       <c r="S876" s="22"/>
       <c r="T876" s="21"/>
@@ -47964,7 +47974,7 @@
       <c r="N877" s="21"/>
       <c r="O877" s="21"/>
       <c r="P877" s="21"/>
-      <c r="Q877" s="21"/>
+      <c r="Q877" s="37"/>
       <c r="R877" s="22"/>
       <c r="S877" s="22"/>
       <c r="T877" s="21"/>
@@ -48015,7 +48025,7 @@
       <c r="N878" s="21"/>
       <c r="O878" s="21"/>
       <c r="P878" s="21"/>
-      <c r="Q878" s="21"/>
+      <c r="Q878" s="37"/>
       <c r="R878" s="22"/>
       <c r="S878" s="22"/>
       <c r="T878" s="21"/>
@@ -48066,7 +48076,7 @@
       <c r="N879" s="21"/>
       <c r="O879" s="21"/>
       <c r="P879" s="21"/>
-      <c r="Q879" s="21"/>
+      <c r="Q879" s="37"/>
       <c r="R879" s="22"/>
       <c r="S879" s="22"/>
       <c r="T879" s="21"/>
@@ -48117,7 +48127,7 @@
       <c r="N880" s="21"/>
       <c r="O880" s="21"/>
       <c r="P880" s="21"/>
-      <c r="Q880" s="21"/>
+      <c r="Q880" s="37"/>
       <c r="R880" s="22"/>
       <c r="S880" s="22"/>
       <c r="T880" s="21"/>
@@ -48168,7 +48178,7 @@
       <c r="N881" s="21"/>
       <c r="O881" s="21"/>
       <c r="P881" s="21"/>
-      <c r="Q881" s="21"/>
+      <c r="Q881" s="37"/>
       <c r="R881" s="22"/>
       <c r="S881" s="22"/>
       <c r="T881" s="21"/>
@@ -48219,7 +48229,7 @@
       <c r="N882" s="21"/>
       <c r="O882" s="21"/>
       <c r="P882" s="21"/>
-      <c r="Q882" s="21"/>
+      <c r="Q882" s="37"/>
       <c r="R882" s="22"/>
       <c r="S882" s="22"/>
       <c r="T882" s="21"/>
@@ -48270,7 +48280,7 @@
       <c r="N883" s="21"/>
       <c r="O883" s="21"/>
       <c r="P883" s="21"/>
-      <c r="Q883" s="21"/>
+      <c r="Q883" s="37"/>
       <c r="R883" s="22"/>
       <c r="S883" s="22"/>
       <c r="T883" s="21"/>
@@ -48321,7 +48331,7 @@
       <c r="N884" s="21"/>
       <c r="O884" s="21"/>
       <c r="P884" s="21"/>
-      <c r="Q884" s="21"/>
+      <c r="Q884" s="37"/>
       <c r="R884" s="22"/>
       <c r="S884" s="22"/>
       <c r="T884" s="21"/>
@@ -48372,7 +48382,7 @@
       <c r="N885" s="21"/>
       <c r="O885" s="21"/>
       <c r="P885" s="21"/>
-      <c r="Q885" s="21"/>
+      <c r="Q885" s="37"/>
       <c r="R885" s="22"/>
       <c r="S885" s="22"/>
       <c r="T885" s="21"/>
@@ -48423,7 +48433,7 @@
       <c r="N886" s="21"/>
       <c r="O886" s="21"/>
       <c r="P886" s="21"/>
-      <c r="Q886" s="21"/>
+      <c r="Q886" s="37"/>
       <c r="R886" s="22"/>
       <c r="S886" s="22"/>
       <c r="T886" s="21"/>
@@ -48474,7 +48484,7 @@
       <c r="N887" s="21"/>
       <c r="O887" s="21"/>
       <c r="P887" s="21"/>
-      <c r="Q887" s="21"/>
+      <c r="Q887" s="37"/>
       <c r="R887" s="22"/>
       <c r="S887" s="22"/>
       <c r="T887" s="21"/>
@@ -48525,7 +48535,7 @@
       <c r="N888" s="21"/>
       <c r="O888" s="21"/>
       <c r="P888" s="21"/>
-      <c r="Q888" s="21"/>
+      <c r="Q888" s="37"/>
       <c r="R888" s="22"/>
       <c r="S888" s="22"/>
       <c r="T888" s="21"/>
@@ -48576,7 +48586,7 @@
       <c r="N889" s="21"/>
       <c r="O889" s="21"/>
       <c r="P889" s="21"/>
-      <c r="Q889" s="21"/>
+      <c r="Q889" s="37"/>
       <c r="R889" s="22"/>
       <c r="S889" s="22"/>
       <c r="T889" s="21"/>
@@ -48627,7 +48637,7 @@
       <c r="N890" s="21"/>
       <c r="O890" s="21"/>
       <c r="P890" s="21"/>
-      <c r="Q890" s="21"/>
+      <c r="Q890" s="37"/>
       <c r="R890" s="22"/>
       <c r="S890" s="22"/>
       <c r="T890" s="21"/>
@@ -48678,7 +48688,7 @@
       <c r="N891" s="21"/>
       <c r="O891" s="21"/>
       <c r="P891" s="21"/>
-      <c r="Q891" s="21"/>
+      <c r="Q891" s="37"/>
       <c r="R891" s="22"/>
       <c r="S891" s="22"/>
       <c r="T891" s="21"/>
@@ -48729,7 +48739,7 @@
       <c r="N892" s="21"/>
       <c r="O892" s="21"/>
       <c r="P892" s="21"/>
-      <c r="Q892" s="21"/>
+      <c r="Q892" s="37"/>
       <c r="R892" s="22"/>
       <c r="S892" s="22"/>
       <c r="T892" s="21"/>
@@ -48780,7 +48790,7 @@
       <c r="N893" s="21"/>
       <c r="O893" s="21"/>
       <c r="P893" s="21"/>
-      <c r="Q893" s="21"/>
+      <c r="Q893" s="37"/>
       <c r="R893" s="22"/>
       <c r="S893" s="22"/>
       <c r="T893" s="21"/>
@@ -48831,7 +48841,7 @@
       <c r="N894" s="21"/>
       <c r="O894" s="21"/>
       <c r="P894" s="21"/>
-      <c r="Q894" s="21"/>
+      <c r="Q894" s="37"/>
       <c r="R894" s="22"/>
       <c r="S894" s="22"/>
       <c r="T894" s="21"/>
@@ -48882,7 +48892,7 @@
       <c r="N895" s="21"/>
       <c r="O895" s="21"/>
       <c r="P895" s="21"/>
-      <c r="Q895" s="21"/>
+      <c r="Q895" s="37"/>
       <c r="R895" s="22"/>
       <c r="S895" s="22"/>
       <c r="T895" s="21"/>
@@ -48933,7 +48943,7 @@
       <c r="N896" s="21"/>
       <c r="O896" s="21"/>
       <c r="P896" s="21"/>
-      <c r="Q896" s="21"/>
+      <c r="Q896" s="37"/>
       <c r="R896" s="22"/>
       <c r="S896" s="22"/>
       <c r="T896" s="21"/>
@@ -48984,7 +48994,7 @@
       <c r="N897" s="21"/>
       <c r="O897" s="21"/>
       <c r="P897" s="21"/>
-      <c r="Q897" s="21"/>
+      <c r="Q897" s="37"/>
       <c r="R897" s="22"/>
       <c r="S897" s="22"/>
       <c r="T897" s="21"/>
@@ -49035,7 +49045,7 @@
       <c r="N898" s="21"/>
       <c r="O898" s="21"/>
       <c r="P898" s="21"/>
-      <c r="Q898" s="21"/>
+      <c r="Q898" s="37"/>
       <c r="R898" s="22"/>
       <c r="S898" s="22"/>
       <c r="T898" s="21"/>
@@ -49086,7 +49096,7 @@
       <c r="N899" s="21"/>
       <c r="O899" s="21"/>
       <c r="P899" s="21"/>
-      <c r="Q899" s="21"/>
+      <c r="Q899" s="37"/>
       <c r="R899" s="22"/>
       <c r="S899" s="22"/>
       <c r="T899" s="21"/>
@@ -49137,7 +49147,7 @@
       <c r="N900" s="21"/>
       <c r="O900" s="21"/>
       <c r="P900" s="21"/>
-      <c r="Q900" s="21"/>
+      <c r="Q900" s="37"/>
       <c r="R900" s="22"/>
       <c r="S900" s="22"/>
       <c r="T900" s="21"/>
@@ -49188,7 +49198,7 @@
       <c r="N901" s="21"/>
       <c r="O901" s="21"/>
       <c r="P901" s="21"/>
-      <c r="Q901" s="21"/>
+      <c r="Q901" s="37"/>
       <c r="R901" s="22"/>
       <c r="S901" s="22"/>
       <c r="T901" s="21"/>
@@ -49239,7 +49249,7 @@
       <c r="N902" s="21"/>
       <c r="O902" s="21"/>
       <c r="P902" s="21"/>
-      <c r="Q902" s="21"/>
+      <c r="Q902" s="37"/>
       <c r="R902" s="22"/>
       <c r="S902" s="22"/>
       <c r="T902" s="21"/>
@@ -49290,7 +49300,7 @@
       <c r="N903" s="21"/>
       <c r="O903" s="21"/>
       <c r="P903" s="21"/>
-      <c r="Q903" s="21"/>
+      <c r="Q903" s="37"/>
       <c r="R903" s="22"/>
       <c r="S903" s="22"/>
       <c r="T903" s="21"/>
@@ -49341,7 +49351,7 @@
       <c r="N904" s="21"/>
       <c r="O904" s="21"/>
       <c r="P904" s="21"/>
-      <c r="Q904" s="21"/>
+      <c r="Q904" s="37"/>
       <c r="R904" s="22"/>
       <c r="S904" s="22"/>
       <c r="T904" s="21"/>
@@ -49392,7 +49402,7 @@
       <c r="N905" s="21"/>
       <c r="O905" s="21"/>
       <c r="P905" s="21"/>
-      <c r="Q905" s="21"/>
+      <c r="Q905" s="37"/>
       <c r="R905" s="22"/>
       <c r="S905" s="22"/>
       <c r="T905" s="21"/>
@@ -49443,7 +49453,7 @@
       <c r="N906" s="21"/>
       <c r="O906" s="21"/>
       <c r="P906" s="21"/>
-      <c r="Q906" s="21"/>
+      <c r="Q906" s="37"/>
       <c r="R906" s="22"/>
       <c r="S906" s="22"/>
       <c r="T906" s="21"/>
@@ -49494,7 +49504,7 @@
       <c r="N907" s="21"/>
       <c r="O907" s="21"/>
       <c r="P907" s="21"/>
-      <c r="Q907" s="21"/>
+      <c r="Q907" s="37"/>
       <c r="R907" s="22"/>
       <c r="S907" s="22"/>
       <c r="T907" s="21"/>
@@ -49545,7 +49555,7 @@
       <c r="N908" s="21"/>
       <c r="O908" s="21"/>
       <c r="P908" s="21"/>
-      <c r="Q908" s="21"/>
+      <c r="Q908" s="37"/>
       <c r="R908" s="22"/>
       <c r="S908" s="22"/>
       <c r="T908" s="21"/>
@@ -49596,7 +49606,7 @@
       <c r="N909" s="21"/>
       <c r="O909" s="21"/>
       <c r="P909" s="21"/>
-      <c r="Q909" s="21"/>
+      <c r="Q909" s="37"/>
       <c r="R909" s="22"/>
       <c r="S909" s="22"/>
       <c r="T909" s="21"/>
@@ -49647,7 +49657,7 @@
       <c r="N910" s="21"/>
       <c r="O910" s="21"/>
       <c r="P910" s="21"/>
-      <c r="Q910" s="21"/>
+      <c r="Q910" s="37"/>
       <c r="R910" s="22"/>
       <c r="S910" s="22"/>
       <c r="T910" s="21"/>
@@ -49698,7 +49708,7 @@
       <c r="N911" s="21"/>
       <c r="O911" s="21"/>
       <c r="P911" s="21"/>
-      <c r="Q911" s="21"/>
+      <c r="Q911" s="37"/>
       <c r="R911" s="22"/>
       <c r="S911" s="22"/>
       <c r="T911" s="21"/>
@@ -49749,7 +49759,7 @@
       <c r="N912" s="21"/>
       <c r="O912" s="21"/>
       <c r="P912" s="21"/>
-      <c r="Q912" s="21"/>
+      <c r="Q912" s="37"/>
       <c r="R912" s="22"/>
       <c r="S912" s="22"/>
       <c r="T912" s="21"/>
@@ -49800,7 +49810,7 @@
       <c r="N913" s="21"/>
       <c r="O913" s="21"/>
       <c r="P913" s="21"/>
-      <c r="Q913" s="21"/>
+      <c r="Q913" s="37"/>
       <c r="R913" s="22"/>
       <c r="S913" s="22"/>
       <c r="T913" s="21"/>
@@ -49851,7 +49861,7 @@
       <c r="N914" s="21"/>
       <c r="O914" s="21"/>
       <c r="P914" s="21"/>
-      <c r="Q914" s="21"/>
+      <c r="Q914" s="37"/>
       <c r="R914" s="22"/>
       <c r="S914" s="22"/>
       <c r="T914" s="21"/>
@@ -49902,7 +49912,7 @@
       <c r="N915" s="21"/>
       <c r="O915" s="21"/>
       <c r="P915" s="21"/>
-      <c r="Q915" s="21"/>
+      <c r="Q915" s="37"/>
       <c r="R915" s="22"/>
       <c r="S915" s="22"/>
       <c r="T915" s="21"/>
@@ -49953,7 +49963,7 @@
       <c r="N916" s="21"/>
       <c r="O916" s="21"/>
       <c r="P916" s="21"/>
-      <c r="Q916" s="21"/>
+      <c r="Q916" s="37"/>
       <c r="R916" s="22"/>
       <c r="S916" s="22"/>
       <c r="T916" s="21"/>
@@ -50004,7 +50014,7 @@
       <c r="N917" s="21"/>
       <c r="O917" s="21"/>
       <c r="P917" s="21"/>
-      <c r="Q917" s="21"/>
+      <c r="Q917" s="37"/>
       <c r="R917" s="22"/>
       <c r="S917" s="22"/>
       <c r="T917" s="21"/>
@@ -50055,7 +50065,7 @@
       <c r="N918" s="21"/>
       <c r="O918" s="21"/>
       <c r="P918" s="21"/>
-      <c r="Q918" s="21"/>
+      <c r="Q918" s="37"/>
       <c r="R918" s="22"/>
       <c r="S918" s="22"/>
       <c r="T918" s="21"/>
@@ -50106,7 +50116,7 @@
       <c r="N919" s="21"/>
       <c r="O919" s="21"/>
       <c r="P919" s="21"/>
-      <c r="Q919" s="21"/>
+      <c r="Q919" s="37"/>
       <c r="R919" s="22"/>
       <c r="S919" s="22"/>
       <c r="T919" s="21"/>
@@ -50157,7 +50167,7 @@
       <c r="N920" s="21"/>
       <c r="O920" s="21"/>
       <c r="P920" s="21"/>
-      <c r="Q920" s="21"/>
+      <c r="Q920" s="37"/>
       <c r="R920" s="22"/>
       <c r="S920" s="22"/>
       <c r="T920" s="21"/>
@@ -50208,7 +50218,7 @@
       <c r="N921" s="21"/>
       <c r="O921" s="21"/>
       <c r="P921" s="21"/>
-      <c r="Q921" s="21"/>
+      <c r="Q921" s="37"/>
       <c r="R921" s="22"/>
       <c r="S921" s="22"/>
       <c r="T921" s="21"/>
@@ -50259,7 +50269,7 @@
       <c r="N922" s="21"/>
       <c r="O922" s="21"/>
       <c r="P922" s="21"/>
-      <c r="Q922" s="21"/>
+      <c r="Q922" s="37"/>
       <c r="R922" s="22"/>
       <c r="S922" s="22"/>
       <c r="T922" s="21"/>
@@ -50310,7 +50320,7 @@
       <c r="N923" s="21"/>
       <c r="O923" s="21"/>
       <c r="P923" s="21"/>
-      <c r="Q923" s="21"/>
+      <c r="Q923" s="37"/>
       <c r="R923" s="22"/>
       <c r="S923" s="22"/>
       <c r="T923" s="21"/>
@@ -50361,7 +50371,7 @@
       <c r="N924" s="21"/>
       <c r="O924" s="21"/>
       <c r="P924" s="21"/>
-      <c r="Q924" s="21"/>
+      <c r="Q924" s="37"/>
       <c r="R924" s="22"/>
       <c r="S924" s="22"/>
       <c r="T924" s="21"/>
@@ -50412,7 +50422,7 @@
       <c r="N925" s="21"/>
       <c r="O925" s="21"/>
       <c r="P925" s="21"/>
-      <c r="Q925" s="21"/>
+      <c r="Q925" s="37"/>
       <c r="R925" s="22"/>
       <c r="S925" s="22"/>
       <c r="T925" s="21"/>
@@ -50463,7 +50473,7 @@
       <c r="N926" s="21"/>
       <c r="O926" s="21"/>
       <c r="P926" s="21"/>
-      <c r="Q926" s="21"/>
+      <c r="Q926" s="37"/>
       <c r="R926" s="22"/>
       <c r="S926" s="22"/>
       <c r="T926" s="21"/>
@@ -50514,7 +50524,7 @@
       <c r="N927" s="21"/>
       <c r="O927" s="21"/>
       <c r="P927" s="21"/>
-      <c r="Q927" s="21"/>
+      <c r="Q927" s="37"/>
       <c r="R927" s="22"/>
       <c r="S927" s="22"/>
       <c r="T927" s="21"/>
@@ -50565,7 +50575,7 @@
       <c r="N928" s="21"/>
       <c r="O928" s="21"/>
       <c r="P928" s="21"/>
-      <c r="Q928" s="21"/>
+      <c r="Q928" s="37"/>
       <c r="R928" s="22"/>
       <c r="S928" s="22"/>
       <c r="T928" s="21"/>
@@ -50616,7 +50626,7 @@
       <c r="N929" s="21"/>
       <c r="O929" s="21"/>
       <c r="P929" s="21"/>
-      <c r="Q929" s="21"/>
+      <c r="Q929" s="37"/>
       <c r="R929" s="22"/>
       <c r="S929" s="22"/>
       <c r="T929" s="21"/>
@@ -50667,7 +50677,7 @@
       <c r="N930" s="21"/>
       <c r="O930" s="21"/>
       <c r="P930" s="21"/>
-      <c r="Q930" s="21"/>
+      <c r="Q930" s="37"/>
       <c r="R930" s="22"/>
       <c r="S930" s="22"/>
       <c r="T930" s="21"/>
@@ -50718,7 +50728,7 @@
       <c r="N931" s="21"/>
       <c r="O931" s="21"/>
       <c r="P931" s="21"/>
-      <c r="Q931" s="21"/>
+      <c r="Q931" s="37"/>
       <c r="R931" s="22"/>
       <c r="S931" s="22"/>
       <c r="T931" s="21"/>
@@ -50769,7 +50779,7 @@
       <c r="N932" s="21"/>
       <c r="O932" s="21"/>
       <c r="P932" s="21"/>
-      <c r="Q932" s="21"/>
+      <c r="Q932" s="37"/>
       <c r="R932" s="22"/>
       <c r="S932" s="22"/>
       <c r="T932" s="21"/>
@@ -50820,7 +50830,7 @@
       <c r="N933" s="21"/>
       <c r="O933" s="21"/>
       <c r="P933" s="21"/>
-      <c r="Q933" s="21"/>
+      <c r="Q933" s="37"/>
       <c r="R933" s="22"/>
       <c r="S933" s="22"/>
       <c r="T933" s="21"/>
@@ -50871,7 +50881,7 @@
       <c r="N934" s="21"/>
       <c r="O934" s="21"/>
       <c r="P934" s="21"/>
-      <c r="Q934" s="21"/>
+      <c r="Q934" s="37"/>
       <c r="R934" s="22"/>
       <c r="S934" s="22"/>
       <c r="T934" s="21"/>
@@ -50922,7 +50932,7 @@
       <c r="N935" s="21"/>
       <c r="O935" s="21"/>
       <c r="P935" s="21"/>
-      <c r="Q935" s="21"/>
+      <c r="Q935" s="37"/>
       <c r="R935" s="22"/>
       <c r="S935" s="22"/>
       <c r="T935" s="21"/>
@@ -50973,7 +50983,7 @@
       <c r="N936" s="21"/>
       <c r="O936" s="21"/>
       <c r="P936" s="21"/>
-      <c r="Q936" s="21"/>
+      <c r="Q936" s="37"/>
       <c r="R936" s="22"/>
       <c r="S936" s="22"/>
       <c r="T936" s="21"/>
@@ -51024,7 +51034,7 @@
       <c r="N937" s="21"/>
       <c r="O937" s="21"/>
       <c r="P937" s="21"/>
-      <c r="Q937" s="21"/>
+      <c r="Q937" s="37"/>
       <c r="R937" s="22"/>
       <c r="S937" s="22"/>
       <c r="T937" s="21"/>
@@ -51075,7 +51085,7 @@
       <c r="N938" s="21"/>
       <c r="O938" s="21"/>
       <c r="P938" s="21"/>
-      <c r="Q938" s="21"/>
+      <c r="Q938" s="37"/>
       <c r="R938" s="22"/>
       <c r="S938" s="22"/>
       <c r="T938" s="21"/>
@@ -51126,7 +51136,7 @@
       <c r="N939" s="21"/>
       <c r="O939" s="21"/>
       <c r="P939" s="21"/>
-      <c r="Q939" s="21"/>
+      <c r="Q939" s="37"/>
       <c r="R939" s="22"/>
       <c r="S939" s="22"/>
       <c r="T939" s="21"/>
@@ -51177,7 +51187,7 @@
       <c r="N940" s="21"/>
       <c r="O940" s="21"/>
       <c r="P940" s="21"/>
-      <c r="Q940" s="21"/>
+      <c r="Q940" s="37"/>
       <c r="R940" s="22"/>
       <c r="S940" s="22"/>
       <c r="T940" s="21"/>
@@ -51228,7 +51238,7 @@
       <c r="N941" s="21"/>
       <c r="O941" s="21"/>
       <c r="P941" s="21"/>
-      <c r="Q941" s="21"/>
+      <c r="Q941" s="37"/>
       <c r="R941" s="22"/>
       <c r="S941" s="22"/>
       <c r="T941" s="21"/>
@@ -51279,7 +51289,7 @@
       <c r="N942" s="21"/>
       <c r="O942" s="21"/>
       <c r="P942" s="21"/>
-      <c r="Q942" s="21"/>
+      <c r="Q942" s="37"/>
       <c r="R942" s="22"/>
       <c r="S942" s="22"/>
       <c r="T942" s="21"/>
@@ -51330,7 +51340,7 @@
       <c r="N943" s="21"/>
       <c r="O943" s="21"/>
       <c r="P943" s="21"/>
-      <c r="Q943" s="21"/>
+      <c r="Q943" s="37"/>
       <c r="R943" s="22"/>
       <c r="S943" s="22"/>
       <c r="T943" s="21"/>
@@ -51381,7 +51391,7 @@
       <c r="N944" s="21"/>
       <c r="O944" s="21"/>
       <c r="P944" s="21"/>
-      <c r="Q944" s="21"/>
+      <c r="Q944" s="37"/>
       <c r="R944" s="22"/>
       <c r="S944" s="22"/>
       <c r="T944" s="21"/>
@@ -51432,7 +51442,7 @@
       <c r="N945" s="21"/>
       <c r="O945" s="21"/>
       <c r="P945" s="21"/>
-      <c r="Q945" s="21"/>
+      <c r="Q945" s="37"/>
       <c r="R945" s="22"/>
       <c r="S945" s="22"/>
       <c r="T945" s="21"/>
@@ -51483,7 +51493,7 @@
       <c r="N946" s="21"/>
       <c r="O946" s="21"/>
       <c r="P946" s="21"/>
-      <c r="Q946" s="21"/>
+      <c r="Q946" s="37"/>
       <c r="R946" s="22"/>
       <c r="S946" s="22"/>
       <c r="T946" s="21"/>
@@ -51534,7 +51544,7 @@
       <c r="N947" s="21"/>
       <c r="O947" s="21"/>
       <c r="P947" s="21"/>
-      <c r="Q947" s="21"/>
+      <c r="Q947" s="37"/>
       <c r="R947" s="22"/>
       <c r="S947" s="22"/>
       <c r="T947" s="21"/>
@@ -51585,7 +51595,7 @@
       <c r="N948" s="21"/>
       <c r="O948" s="21"/>
       <c r="P948" s="21"/>
-      <c r="Q948" s="21"/>
+      <c r="Q948" s="37"/>
       <c r="R948" s="22"/>
       <c r="S948" s="22"/>
       <c r="T948" s="21"/>
@@ -51636,7 +51646,7 @@
       <c r="N949" s="21"/>
       <c r="O949" s="21"/>
       <c r="P949" s="21"/>
-      <c r="Q949" s="21"/>
+      <c r="Q949" s="37"/>
       <c r="R949" s="22"/>
       <c r="S949" s="22"/>
       <c r="T949" s="21"/>
@@ -51687,7 +51697,7 @@
       <c r="N950" s="21"/>
       <c r="O950" s="21"/>
       <c r="P950" s="21"/>
-      <c r="Q950" s="21"/>
+      <c r="Q950" s="37"/>
       <c r="R950" s="22"/>
       <c r="S950" s="22"/>
       <c r="T950" s="21"/>
@@ -51738,7 +51748,7 @@
       <c r="N951" s="21"/>
       <c r="O951" s="21"/>
       <c r="P951" s="21"/>
-      <c r="Q951" s="21"/>
+      <c r="Q951" s="37"/>
       <c r="R951" s="22"/>
       <c r="S951" s="22"/>
       <c r="T951" s="21"/>
@@ -51789,7 +51799,7 @@
       <c r="N952" s="21"/>
       <c r="O952" s="21"/>
       <c r="P952" s="21"/>
-      <c r="Q952" s="21"/>
+      <c r="Q952" s="37"/>
       <c r="R952" s="22"/>
       <c r="S952" s="22"/>
       <c r="T952" s="21"/>
@@ -51840,7 +51850,7 @@
       <c r="N953" s="21"/>
       <c r="O953" s="21"/>
       <c r="P953" s="21"/>
-      <c r="Q953" s="21"/>
+      <c r="Q953" s="37"/>
       <c r="R953" s="22"/>
       <c r="S953" s="22"/>
       <c r="T953" s="21"/>
@@ -51891,7 +51901,7 @@
       <c r="N954" s="21"/>
       <c r="O954" s="21"/>
       <c r="P954" s="21"/>
-      <c r="Q954" s="21"/>
+      <c r="Q954" s="37"/>
       <c r="R954" s="22"/>
       <c r="S954" s="22"/>
       <c r="T954" s="21"/>
@@ -51942,7 +51952,7 @@
       <c r="N955" s="21"/>
       <c r="O955" s="21"/>
       <c r="P955" s="21"/>
-      <c r="Q955" s="21"/>
+      <c r="Q955" s="37"/>
       <c r="R955" s="22"/>
       <c r="S955" s="22"/>
       <c r="T955" s="21"/>
@@ -51993,7 +52003,7 @@
       <c r="N956" s="21"/>
       <c r="O956" s="21"/>
       <c r="P956" s="21"/>
-      <c r="Q956" s="21"/>
+      <c r="Q956" s="37"/>
       <c r="R956" s="22"/>
       <c r="S956" s="22"/>
       <c r="T956" s="21"/>
@@ -52044,7 +52054,7 @@
       <c r="N957" s="21"/>
       <c r="O957" s="21"/>
       <c r="P957" s="21"/>
-      <c r="Q957" s="21"/>
+      <c r="Q957" s="37"/>
       <c r="R957" s="22"/>
       <c r="S957" s="22"/>
       <c r="T957" s="21"/>
@@ -52095,7 +52105,7 @@
       <c r="N958" s="21"/>
       <c r="O958" s="21"/>
       <c r="P958" s="21"/>
-      <c r="Q958" s="21"/>
+      <c r="Q958" s="37"/>
       <c r="R958" s="22"/>
       <c r="S958" s="22"/>
       <c r="T958" s="21"/>
@@ -52146,7 +52156,7 @@
       <c r="N959" s="21"/>
       <c r="O959" s="21"/>
       <c r="P959" s="21"/>
-      <c r="Q959" s="21"/>
+      <c r="Q959" s="37"/>
       <c r="R959" s="22"/>
       <c r="S959" s="22"/>
       <c r="T959" s="21"/>
@@ -52197,7 +52207,7 @@
       <c r="N960" s="21"/>
       <c r="O960" s="21"/>
       <c r="P960" s="21"/>
-      <c r="Q960" s="21"/>
+      <c r="Q960" s="37"/>
       <c r="R960" s="22"/>
       <c r="S960" s="22"/>
       <c r="T960" s="21"/>
@@ -52248,7 +52258,7 @@
       <c r="N961" s="21"/>
       <c r="O961" s="21"/>
       <c r="P961" s="21"/>
-      <c r="Q961" s="21"/>
+      <c r="Q961" s="37"/>
       <c r="R961" s="22"/>
       <c r="S961" s="22"/>
       <c r="T961" s="21"/>
@@ -52299,7 +52309,7 @@
       <c r="N962" s="21"/>
       <c r="O962" s="21"/>
       <c r="P962" s="21"/>
-      <c r="Q962" s="21"/>
+      <c r="Q962" s="37"/>
       <c r="R962" s="22"/>
       <c r="S962" s="22"/>
       <c r="T962" s="21"/>
@@ -52350,7 +52360,7 @@
       <c r="N963" s="21"/>
       <c r="O963" s="21"/>
       <c r="P963" s="21"/>
-      <c r="Q963" s="21"/>
+      <c r="Q963" s="37"/>
       <c r="R963" s="22"/>
       <c r="S963" s="22"/>
       <c r="T963" s="21"/>
@@ -52401,7 +52411,7 @@
       <c r="N964" s="21"/>
       <c r="O964" s="21"/>
       <c r="P964" s="21"/>
-      <c r="Q964" s="21"/>
+      <c r="Q964" s="37"/>
       <c r="R964" s="22"/>
       <c r="S964" s="22"/>
       <c r="T964" s="21"/>
@@ -52452,7 +52462,7 @@
       <c r="N965" s="21"/>
       <c r="O965" s="21"/>
       <c r="P965" s="21"/>
-      <c r="Q965" s="21"/>
+      <c r="Q965" s="37"/>
       <c r="R965" s="22"/>
       <c r="S965" s="22"/>
       <c r="T965" s="21"/>
@@ -52503,7 +52513,7 @@
       <c r="N966" s="21"/>
       <c r="O966" s="21"/>
       <c r="P966" s="21"/>
-      <c r="Q966" s="21"/>
+      <c r="Q966" s="37"/>
       <c r="R966" s="22"/>
       <c r="S966" s="22"/>
       <c r="T966" s="21"/>
@@ -52554,7 +52564,7 @@
       <c r="N967" s="21"/>
       <c r="O967" s="21"/>
       <c r="P967" s="21"/>
-      <c r="Q967" s="21"/>
+      <c r="Q967" s="37"/>
       <c r="R967" s="22"/>
       <c r="S967" s="22"/>
       <c r="T967" s="21"/>
@@ -52605,7 +52615,7 @@
       <c r="N968" s="21"/>
       <c r="O968" s="21"/>
       <c r="P968" s="21"/>
-      <c r="Q968" s="21"/>
+      <c r="Q968" s="37"/>
       <c r="R968" s="22"/>
       <c r="S968" s="22"/>
       <c r="T968" s="21"/>
@@ -52656,7 +52666,7 @@
       <c r="N969" s="21"/>
       <c r="O969" s="21"/>
       <c r="P969" s="21"/>
-      <c r="Q969" s="21"/>
+      <c r="Q969" s="37"/>
       <c r="R969" s="22"/>
       <c r="S969" s="22"/>
       <c r="T969" s="21"/>
@@ -52707,7 +52717,7 @@
       <c r="N970" s="21"/>
       <c r="O970" s="21"/>
       <c r="P970" s="21"/>
-      <c r="Q970" s="21"/>
+      <c r="Q970" s="37"/>
       <c r="R970" s="22"/>
       <c r="S970" s="22"/>
       <c r="T970" s="21"/>
@@ -52758,7 +52768,7 @@
       <c r="N971" s="21"/>
       <c r="O971" s="21"/>
       <c r="P971" s="21"/>
-      <c r="Q971" s="21"/>
+      <c r="Q971" s="37"/>
       <c r="R971" s="22"/>
       <c r="S971" s="22"/>
       <c r="T971" s="21"/>
@@ -52809,7 +52819,7 @@
       <c r="N972" s="21"/>
       <c r="O972" s="21"/>
       <c r="P972" s="21"/>
-      <c r="Q972" s="21"/>
+      <c r="Q972" s="37"/>
       <c r="R972" s="22"/>
       <c r="S972" s="22"/>
       <c r="T972" s="21"/>
@@ -52860,7 +52870,7 @@
       <c r="N973" s="21"/>
       <c r="O973" s="21"/>
       <c r="P973" s="21"/>
-      <c r="Q973" s="21"/>
+      <c r="Q973" s="37"/>
       <c r="R973" s="22"/>
       <c r="S973" s="22"/>
       <c r="T973" s="21"/>
@@ -52911,7 +52921,7 @@
       <c r="N974" s="21"/>
       <c r="O974" s="21"/>
       <c r="P974" s="21"/>
-      <c r="Q974" s="21"/>
+      <c r="Q974" s="37"/>
       <c r="R974" s="22"/>
       <c r="S974" s="22"/>
       <c r="T974" s="21"/>
@@ -52962,7 +52972,7 @@
       <c r="N975" s="21"/>
       <c r="O975" s="21"/>
       <c r="P975" s="21"/>
-      <c r="Q975" s="21"/>
+      <c r="Q975" s="37"/>
       <c r="R975" s="22"/>
       <c r="S975" s="22"/>
       <c r="T975" s="21"/>
@@ -53013,7 +53023,7 @@
       <c r="N976" s="21"/>
       <c r="O976" s="21"/>
       <c r="P976" s="21"/>
-      <c r="Q976" s="21"/>
+      <c r="Q976" s="37"/>
       <c r="R976" s="22"/>
       <c r="S976" s="22"/>
       <c r="T976" s="21"/>
@@ -53064,7 +53074,7 @@
       <c r="N977" s="21"/>
       <c r="O977" s="21"/>
       <c r="P977" s="21"/>
-      <c r="Q977" s="21"/>
+      <c r="Q977" s="37"/>
       <c r="R977" s="22"/>
       <c r="S977" s="22"/>
       <c r="T977" s="21"/>
@@ -53115,7 +53125,7 @@
       <c r="N978" s="21"/>
       <c r="O978" s="21"/>
       <c r="P978" s="21"/>
-      <c r="Q978" s="21"/>
+      <c r="Q978" s="37"/>
       <c r="R978" s="22"/>
       <c r="S978" s="22"/>
       <c r="T978" s="21"/>
@@ -53166,7 +53176,7 @@
       <c r="N979" s="21"/>
       <c r="O979" s="21"/>
       <c r="P979" s="21"/>
-      <c r="Q979" s="21"/>
+      <c r="Q979" s="37"/>
       <c r="R979" s="22"/>
       <c r="S979" s="22"/>
       <c r="T979" s="21"/>
@@ -53217,7 +53227,7 @@
       <c r="N980" s="21"/>
       <c r="O980" s="21"/>
       <c r="P980" s="21"/>
-      <c r="Q980" s="21"/>
+      <c r="Q980" s="37"/>
       <c r="R980" s="22"/>
       <c r="S980" s="22"/>
       <c r="T980" s="21"/>
@@ -53268,7 +53278,7 @@
       <c r="N981" s="21"/>
       <c r="O981" s="21"/>
       <c r="P981" s="21"/>
-      <c r="Q981" s="21"/>
+      <c r="Q981" s="37"/>
       <c r="R981" s="22"/>
       <c r="S981" s="22"/>
       <c r="T981" s="21"/>
@@ -53319,7 +53329,7 @@
       <c r="N982" s="21"/>
       <c r="O982" s="21"/>
       <c r="P982" s="21"/>
-      <c r="Q982" s="21"/>
+      <c r="Q982" s="37"/>
       <c r="R982" s="22"/>
       <c r="S982" s="22"/>
       <c r="T982" s="21"/>
@@ -53370,7 +53380,7 @@
       <c r="N983" s="21"/>
       <c r="O983" s="21"/>
       <c r="P983" s="21"/>
-      <c r="Q983" s="21"/>
+      <c r="Q983" s="37"/>
       <c r="R983" s="22"/>
       <c r="S983" s="22"/>
       <c r="T983" s="21"/>
@@ -53421,7 +53431,7 @@
       <c r="N984" s="21"/>
       <c r="O984" s="21"/>
       <c r="P984" s="21"/>
-      <c r="Q984" s="21"/>
+      <c r="Q984" s="37"/>
       <c r="R984" s="22"/>
       <c r="S984" s="22"/>
       <c r="T984" s="21"/>
@@ -53472,7 +53482,7 @@
       <c r="N985" s="21"/>
       <c r="O985" s="21"/>
       <c r="P985" s="21"/>
-      <c r="Q985" s="21"/>
+      <c r="Q985" s="37"/>
       <c r="R985" s="22"/>
       <c r="S985" s="22"/>
       <c r="T985" s="21"/>
@@ -53523,7 +53533,7 @@
       <c r="N986" s="21"/>
       <c r="O986" s="21"/>
       <c r="P986" s="21"/>
-      <c r="Q986" s="21"/>
+      <c r="Q986" s="37"/>
       <c r="R986" s="22"/>
       <c r="S986" s="22"/>
       <c r="T986" s="21"/>
@@ -53574,7 +53584,7 @@
       <c r="N987" s="21"/>
       <c r="O987" s="21"/>
       <c r="P987" s="21"/>
-      <c r="Q987" s="21"/>
+      <c r="Q987" s="37"/>
       <c r="R987" s="22"/>
       <c r="S987" s="22"/>
       <c r="T987" s="21"/>
@@ -53625,7 +53635,7 @@
       <c r="N988" s="21"/>
       <c r="O988" s="21"/>
       <c r="P988" s="21"/>
-      <c r="Q988" s="21"/>
+      <c r="Q988" s="37"/>
       <c r="R988" s="22"/>
       <c r="S988" s="22"/>
       <c r="T988" s="21"/>
@@ -53676,7 +53686,7 @@
       <c r="N989" s="21"/>
       <c r="O989" s="21"/>
       <c r="P989" s="21"/>
-      <c r="Q989" s="21"/>
+      <c r="Q989" s="37"/>
       <c r="R989" s="22"/>
       <c r="S989" s="22"/>
       <c r="T989" s="21"/>
@@ -53727,7 +53737,7 @@
       <c r="N990" s="21"/>
       <c r="O990" s="21"/>
       <c r="P990" s="21"/>
-      <c r="Q990" s="21"/>
+      <c r="Q990" s="37"/>
       <c r="R990" s="22"/>
       <c r="S990" s="22"/>
       <c r="T990" s="21"/>
@@ -53778,7 +53788,7 @@
       <c r="N991" s="21"/>
       <c r="O991" s="21"/>
       <c r="P991" s="21"/>
-      <c r="Q991" s="21"/>
+      <c r="Q991" s="37"/>
       <c r="R991" s="22"/>
       <c r="S991" s="22"/>
       <c r="T991" s="21"/>
@@ -53829,7 +53839,7 @@
       <c r="N992" s="21"/>
       <c r="O992" s="21"/>
       <c r="P992" s="21"/>
-      <c r="Q992" s="21"/>
+      <c r="Q992" s="37"/>
       <c r="R992" s="22"/>
       <c r="S992" s="22"/>
       <c r="T992" s="21"/>
@@ -53880,7 +53890,7 @@
       <c r="N993" s="21"/>
       <c r="O993" s="21"/>
       <c r="P993" s="21"/>
-      <c r="Q993" s="21"/>
+      <c r="Q993" s="37"/>
       <c r="R993" s="22"/>
       <c r="S993" s="22"/>
       <c r="T993" s="21"/>
@@ -53931,7 +53941,7 @@
       <c r="N994" s="21"/>
       <c r="O994" s="21"/>
       <c r="P994" s="21"/>
-      <c r="Q994" s="21"/>
+      <c r="Q994" s="37"/>
       <c r="R994" s="22"/>
       <c r="S994" s="22"/>
       <c r="T994" s="21"/>
@@ -53982,7 +53992,7 @@
       <c r="N995" s="21"/>
       <c r="O995" s="21"/>
       <c r="P995" s="21"/>
-      <c r="Q995" s="21"/>
+      <c r="Q995" s="37"/>
       <c r="R995" s="22"/>
       <c r="S995" s="22"/>
       <c r="T995" s="21"/>
@@ -54033,7 +54043,7 @@
       <c r="N996" s="21"/>
       <c r="O996" s="21"/>
       <c r="P996" s="21"/>
-      <c r="Q996" s="21"/>
+      <c r="Q996" s="37"/>
       <c r="R996" s="22"/>
       <c r="S996" s="22"/>
       <c r="T996" s="21"/>
@@ -54084,7 +54094,7 @@
       <c r="N997" s="21"/>
       <c r="O997" s="21"/>
       <c r="P997" s="21"/>
-      <c r="Q997" s="21"/>
+      <c r="Q997" s="37"/>
       <c r="R997" s="22"/>
       <c r="S997" s="22"/>
       <c r="T997" s="21"/>
@@ -54135,7 +54145,7 @@
       <c r="N998" s="21"/>
       <c r="O998" s="21"/>
       <c r="P998" s="21"/>
-      <c r="Q998" s="21"/>
+      <c r="Q998" s="37"/>
       <c r="R998" s="22"/>
       <c r="S998" s="22"/>
       <c r="T998" s="21"/>
@@ -54186,7 +54196,7 @@
       <c r="N999" s="32"/>
       <c r="O999" s="32"/>
       <c r="P999" s="32"/>
-      <c r="Q999" s="32"/>
+      <c r="Q999" s="38"/>
       <c r="R999" s="31"/>
       <c r="S999" s="31"/>
       <c r="T999" s="32"/>

--- a/packages/backend/src/ressources/modele_import_domifa.xlsx
+++ b/packages/backend/src/ressources/modele_import_domifa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/humans/Documents/www/beta/domifa/packages/backend/src/ressources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BD1946-88EF-3344-AB9D-217CCFB6F37E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDADC8C6-95EF-404F-BB53-2EEF740BCBF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
